--- a/data/results_llm_inference.xlsx
+++ b/data/results_llm_inference.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,25 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>weak_signal_interpretation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>distant_terms</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>most_distant_terms</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>core_topic</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>odd_term_interpretation</t>
         </is>
@@ -488,1892 +493,1132 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>762_butcher_quetta_shops_groceries</t>
+          <t>582_foragers_social_collective_colony</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.002993031053271</v>
+        <v>0.0042690673085096</v>
       </c>
       <c r="C2" t="n">
-        <v>762</v>
+        <v>582</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['butcher', 'quetta', 'shops', 'groceries', 'tempeh', 'klebsiella', 'spp', 'hypermarkets', 'shawarma', 'enteritidis']</t>
+          <t>['foragers', 'social', 'collective', 'colony', 'nestmates', 'flower', 'foraging', 'bees', 'immunity', 'adjust']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>['All foods carry microbes, many of which are harmless, but foods can also carry pathogens and/or microbial indicators of contamination. Limited information exists on the co-occurrence of microbes of food safety concern and the factors associated with their presence. Here, a population-based repeated cross-sectional design was used to determine the prevalence and co-occurrence of Escherichia coli, Klebsiella spp., Salmonella spp. and Vibrio spp. in key food commodities - chicken, pork, prawns, salmon and leafy greens. Prevalence in 1,369 food samples for these four target bacterial genera/species varied, while 25.6% of all samples had at least two of the target bacteria and eight different combinations of bacteria were observed as co-occurrence profiles in raw prawns. Imported frozen chicken was 6.4 times more likely to contain Salmonella than domestic chicken, and imported salmon was 5.5 times more likely to be contaminated with E. coli. Seasonality was significantly associated with E. coli and Klebsiella spp. contamination in leafy greens, with higher detection in summer and autumn. Moreover, the odds of Klebsiella spp. contamination were higher in summer in chicken and pork samples. These results provide insight on the bacterial species present on foods at retail, and identify factors associated with the presence of individual bacteria, which are highly relevant for food safety risk assessments and the design of surveillance programmes.', 'Ready-to-eat (RTE) food sold in Quetta, Pakistan was assessed for microbial contamination.\nEqual numbers of samples were collected from four categories of RTE food - burgers, shawarma, pizza and sandwiches - from January 2018 to December 2018. Microbial contamination of individual food samples was assessed by quantifying the total aerobic count obtained from plating samples on bacterial growth medium. Salmonella spp. serovars were identified using polymerase chain reaction.\nApproximately 38% (121/320) of RTE food samples were not fit for human consumption. The most contaminated type of RTE food was shawarma (49%). Microbial contamination of food samples was higher in summer compared with the other seasons. Approximately 40% (49/121) of food samples that were not fit for human consumption were contamined with Salmonella spp. Salmonella enteritidis (69%) and Salmonella typhimurium (31%) were the only serovars among the samples testing positive for Salmonella spp. Of the 49 samples with high microbial counts, S. enteritidis was present in 34 samples and S. typhimurium was present in 15 samples. The antibiotic sensitivity results demonstrated that both S. enteritidis and S. typhimurium were resistant to amoxicillin. In addition, S. enteritidis was resistant to chloramphenicol and erythromycin, and S. typhimurium presented high resistance to erythromycin. Both S. typhimurium and S. enteritidis were highly sensitive to kanamycin.\nRTE food sold by street vendors in Quetta was found to be contaminated with Salmonella spp. and poses a great health risk to consumers. As such, consumption should be avoided, and the health authorities should take stringent action to ensure the quality of street food in order to reduce the healthcare burden.', 'Food-borne pathogens are the leading cause of illness and death in developing countries, killing approximately 1.8 million people annually. In developed countries, food-borne pathogens are responsible for millions of cases of infectious gastrointestinal diseases each year, costing billions of dollars. The objective of this study was to screen for two major food-borne pathogens, Escherichia coli and Salmonella spp., from meat samples obtained from different strata of the consumer market in Jeddah.\nA total of 60 meat samples, 20 each from large hypermarkets, groceries and small butcher shops were used in the study. Samples were transported to the laboratory in a cooler. They were macerated in peptone water and then seeded on selective media appropriate for each organism. Colonies were identified using conventional microbiological methods and suspected colonies were confirmed as E. coli and Salmonella spp. by polymerase chain reaction (PCR) using specific primers.\nThe results indicated a high degree of contamination in samples from butcher shops as compared to those from groceries or hypermarkets (high scale supermarkets). Both pathogens E. coli and Salmonella spp. were found in higher rates in the samples from butcher shops. In small butcher shops, E. coli was found at an incidence of 65%, and Salmonella at 45%.\nThe results indicate an urgent need for applying proper food hygienic practices in food outlets, especially in small ones, to reduce the incidence of food-borne diseases. Vigilance by the right agencies must be implemented in order to prevent future food-borne outbreaks.']</t>
+          <t>["Foraging is a result of innate and acquired mechanisms, and is optimized in order to increase fitness. During foraging, an animal faces many threats, such as predation and infection. The uptake of parasites and diseases while foraging is common and an individual should be adapted to detect and avoid such threats, using cues from either the abiotic environment or the parasite. Social animals possess an additional cue to detect such contaminated food sources: information provided by conspecifics. Bumblebees avoid contaminated flowers, but the cues used by the bees to distinguish contamination remain unknown. Under controlled laboratory conditions, we tested the use of scent marks derived from other foragers in choosing between a contaminated (by Crithidia bombi) and an uncontaminated flower. As a positive control we tested the bee's choice between two flowers, one scented with geraniol and containing a highly rewarding sugar solution, and the other not scented and containing a poorer reward. The bees mainly chose the uncontaminated and the rewarding scented flowers. Scent marks did not increase the efficiency of the bumblebees in choosing the better flower. The bees from both experiments behaved similarly, showing that the main and most relevant cue used to choose the uncontaminated flower is the odour from the parasite itself. The adaptation of bumblebees to avoid flowers contaminated by C. bombi arose from the long-term host-parasite interaction between these species. This strong adaptation results in an innate behaviour of bees and a detection and aversion of the odour of contaminated flower nectar.", 'Animals often alter their food choices following a pathogen infection in order to increase immune function and combat the infection. Whether social animals that collect food for their brood or nestmates adjust their nutrient intake to the infection states of their social partners is virtually unexplored. Here we develop an individual-based model of nutritional geometry to examine the impact of collective nutrient balancing on pathogen spread in a social insect colony. The model simulates a hypothetical social insect colony infected by a horizontally transmitted parasite. Simulation experiments suggest that collective nutrition, by which foragers adjust their nutrient intake to simultaneously address their own nutritional needs as well as those of their infected nestmates, is an efficient social immunity mechanism to limit contamination when immune responses are short. Impaired foraging in infected workers can favour colony resilience when pathogen transmission rate is low (by reducing contacts with the few infected foragers) or trigger colony collapse when transmission rate is fast (by depleting the entire pool of foragers). Our theoretical examination of dietary collective medication in social insects suggests a new possible mechanism by which colonies can defend themselves against pathogens and provides a conceptual framework for experimental investigations of the nutritional immunology of social animals.', 'Animals often alter their food choices following a pathogen infection in order to increase immune function and combat the infection. Whether social animals that collect food for their brood or nestmates adjust their nutrient intake to the infection states of their social partners is virtually unexplored. Here we develop an individual-based model of nutritional geometry to examine the impact of collective nutrient balancing on pathogen spread in a social insect colony. The model simulates a hypothetical social insect colony infected by a horizontally transmitted parasite. Simulation experiments suggest that collective nutrition, by which foragers adjust their nutrient intake to simultaneously address their own nutritional needs as well as those of their infected nestmates, is an efficient social immunity mechanism to limit contamination when immune responses are short. Impaired foraging in infected workers can favour colony resilience when pathogen transmission rate is low (by reducing contacts with the few infected foragers) or trigger colony collapse when transmission rate is fast (by depleting the entire pool of foragers). Our theoretical examination of dietary collective medication in social insects suggests a new possible mechanism by which colonies can defend themselves against pathogens and provides a conceptual framework for experimental investigations of the nutritional immunology of social animals.']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: Increased foraging and social interactions among bees could lead to higher transmission of pathogens within colonies, potentially impacting honey production and safety.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>'spp',</t>
+          <t>["'immunity',", "'adjust']"]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>["['butcher',", "'quetta',", "'shops',"]</t>
+          <t>'adjust']</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Risk of contamination in butcher shops in Quetta due to the presence of various harmful bacterial species (spp). Proper hygiene and sanitation practices are crucial to mitigate this risk.</t>
+          <t>["['foragers',", "'social',", "'collective',"]</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Foragers, when operating in a social and collective manner, may face risks related to immunity. This can occur as close interactions and shared resources increase the likelihood of spreading pathogens, thereby affecting the collective immunity of the group. Additionally, any failure to properly adjust for changing environmental or health conditions can exacerbate these risks.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>901_vitamin_fortification_arich_ofsp</t>
+          <t>700_pregnancy_hypospadias_glucose_discourses</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002615398161876</v>
+        <v>0.0043966345874823</v>
       </c>
       <c r="C3" t="n">
-        <v>901</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['vitamin', 'fortification', 'arich', 'ofsp', 'excessive', 'micronutrient', 'maternal', 'vad', 'lmic', 'biofortified']</t>
+          <t>['pregnancy', 'hypospadias', 'glucose', 'discourses', 'choosing', 'boys', 'offspring', 'unnecessarily', '1hour', 'overweight']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>['Recent recognition of the early onset and high prevalence of wasting (30%) and stunting (20%) among infants 0-5 months in India draws attention to the need to understand the causes and develop prevention strategies. Such growth failure has dire consequences in the short (increased mortality) and long-term (loss of human capital and increased risk of chronic diseases). Food interventions before 6 months will increase morbidity/mortality through contamination in settings of poor sanitation and hygiene. Waiting to improve nutrition only after the initiation of complementary feeding at 6 months is a missed opportunity and may permanently alter life trajectory and potential. This underscores the importance of maternal nutrition. Iron and folic acid and protein energy supplementation during pregnancy are interventions that can improve maternal nutrition and birth outcomes. Maternal supplementation during lactation should be considered as a means to improve maternal and child outcomes, although the evidence needs strengthening. Support and counseling are also required to improve maternal diets and promote exclusive breastfeeding. Programs focused on improving maternal nutrition across the continuum of preconception, pregnancy and lactation are likely to have the greatest impact as mothers are central gatekeepers to the health and future of their children.', 'Vitamin A deficiency (VAD) has serious public health consequences including morbidity and mortality for populations in low and middle-income countries (LMICs), especially for children under 5 years and pregnant women. LMICs are at greater risk of VAD, in part due to low levels of consumption of vitamin A-rich foods most of which are plant-based, such as orange-fleshed sweet potatoes (OFSP), with lower bioavailability than animal sources of the vitamin A. Food-based approaches such as biofortification of OFSP, including promoting the consumption of vitamin A-rich biofortified staple crops, has been shown to be potentially effective in improving the status of vitamin A and other micronutrients. This study examined vitamin A-rich food consumption and its predictors among women of reproductive age from OFSP-growing households in two regions of Uganda.\nA cross-sectional survey was conducted among 617 OFSP growing households, focusing on women in the reproductive age group from the northern and eastern regions of Uganda. Households were not receiving any VAD-related intervention at the time of the survey. Quantitative data included vitamin A-rich food consumption, knowledge on vitamin A, and rich food sources dietary intake, using a 7-day food frequency questionnaire. Vitamin A consumption and risk of deficiency were estimated using the Hellen Keller International guide.\nThe majority of women in this study were either pregnant (80%) or lactating (17%). More than 70% of the study population had a weighted vitamin A rich food consumption mean score of &lt;6 days per week, indicating a high risk of VAD. Knowledge about vitamin A [b (SE) = -0.18 (0.50), \nComponents of food insecurity such as availability, affordability, utilization, and changing food preferences may contribute to the unexpected inverse relationship between knowledge and consumption of vitamin A rich foods. Scaling up biofortified food initiatives, including OFSP, can improve consumption of vitamin A rich foods with effective strategies to comprehensively address consumption barriers such as lack of nutrition education, cooking skills, and storage facilities, as well as low production levels and perceived contamination of biofortified foods.', 'Micronutrient deficiencies are widespread and disproportionately affect women and children in low- and middle-income countries (LMIC). Among various interventions, food fortification and supplementation with micronutrients have been proven to be cost-effective. The aim of the present paper is to review existing literature to assess risks of excessive intake in LMIC to then highlight programmatic changes required to maximise benefits of micronutrient interventions while minimising risks of adverse effects. While very few LMIC have national food consumption surveys that can inform fortification programmes, many more are implementing mandatory fortification programmes. The risks of inadequate micronutrient intakes were common, but risks of excessive intakes were also present for iodine, vitamin A, folic acid and iron. Excessive salt consumption, high concentrations of iodine in ground-water and excessive levels of iodisation were linked with excessive iodine intake. For vitamin A, overlapping interventions were the main risk for excessive intake; whereas for iron, contamination with iron from soil and screw-wares of millers and high iron concentration in drinking-water increased the risk of excessive intake, which could be further exacerbated with fortification. Before implementing micronutrient interventions, adherence to the basic principles of documenting evidence confirming that the deficiency in question exists and that fortification will correct this deficiency is needed. This can be supported with dietary intake assessments and biochemical screening that help diagnose nutrient deficiencies. Targeting micronutrient interventions, although programmatically challenging, should be considered whenever possible. Moreover, closer monitoring of appropriate fortification of foods and overlapping interventions is needed.']</t>
+          <t>['Overweight and obesity pre pregnancy or during pregnancy is associated with an increased risk for maternal obstetric and fetal complications. Diet is one modifiable risk factor that women may be motivated to improve. General healthy eating guidelines, micronutrient sufficiency and macronutrient quantity and quality are important nutrition considerations pre and during pregnancy. With regards to specific nutrients, health authorities have recommendations for folate and/or iodine supplementation; but not consistently for iron and omega-3 despite evidence for their association with health outcomes. There are modest additional requirements for energy and protein, but not fat or carbohydrate, in mid-late pregnancy. Diet indices and dietary pattern analysis are additional tools or methodologies used to assess diet quality. These tools have been used to determine dietary intakes and patterns and their association with pregnancy complications and birth outcomes pre or during pregnancy. Women who may unnecessarily resist foods due to fear of food contamination from listeriosis and methylmercury may limit their diet quality and a balanced approached is required. Dietary intake may also vary according to certain population characteristics. Additional support for women who are younger, less educated, overweight and obese, from socially disadvantaged areas, smokers and those who unnecessarily avoid healthy foods, is required to achieve a higher quality diet and optimal lifestyle peri conception.', 'The etiology of hypospadias is poorly understood. Exposure to pesticides has been considered a risk factor, although findings are inconsistent. Diet constitutes a significant exposure route for pesticides, and pesticide residues are more frequently reported in conventional than organic food products. We examined the association between organic dietary choice during pregnancy and presence of hypospadias in the offspring.\nMothers of 306 boys operated on for hypospadias were frequency matched for geography and child birth year to 306 mothers of healthy boys in a case-control study. Telephone interviews were conducted regarding demographic and lifestyle factors, including intake and organic choice of selected food items (milk, dairy products, egg, fruit, vegetables and meat). Logistic regression models were constructed for dietary variables, and odds ratios were calculated controlling for maternal age, body mass index and alcohol consumption.\nOverall organic choice of food items during pregnancy was not associated with hypospadias in the offspring. However, frequent current consumption of high fat dairy products (milk, butter) while rarely or never choosing the organic alternative to these products during pregnancy was associated with increased odds of hypospadias (adjusted OR 2.18, 95% CI 1.09-4.36).\nThis large case-control study of boys operated on for hypospadias suggests an association between hypospadias in the offspring and the mother not choosing the organic alternative, and having a high current intake of nonorganic butter and cheese. This finding could be due to chemical contamination of high fat dairy products. However, general lifestyle and health behavior related to choosing organic alternatives may also explain the finding.', 'The aim of this study was to describe the dietary patterns of pregnant women in northern Puerto Rico and explore associations between diet factors with pregnancy related measurements. This analysis is based on the Puerto Rico Testsite for Exploring Contamination Threats (PROTECT), a prospective cohort that is studying environmental risk factors for preterm births in PR. Participants completed a food frequency questionnaire (FFQ) around 20-28 weeks of gestation. The following pregnancy related measures were collected from the medical records: hemoglobin, blood glucose, blood pressure and gestational age. Potential associations between diet factors and pregnancy measures were assessed using chi square analysis with SPSS. A total of 180 participants completed the FFQ; low hemoglobin levels was found in 19.2%, high blood glucose levels was found in 21.1% by fasting blood glucose test and 24.6%by 1-hour 50 g oral glucose screening test, high blood pressure was found in 2.9% (systolic) and 6.5% (diastolic), and pre-term birth was found in 10.4% of the participants. High consumption of rice, desserts and sweets was associated with higher levels of fasting blood glucose levels (p &lt; 0.05), while high consumption of vegetables was associated with higher 1-hour glucose challenge test (p &lt; 0.05).No other significant associations were found. In conclusion, consumption of high dense energy food diets in pregnancy, such as rice, sweets and desserts, can lead to high levels of blood glucose and can be a potential predictor of other pregnancy complications during pregnancy in these study participants, such as gestational diabetes.']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: The consumption of high-glucose foods during pregnancy may increase the risk of hypospadias in male offspring, particularly in cases where the mother is overweight or has glucose tolerance issues.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>'excessive',</t>
+          <t>["'discourses',", "'choosing',", "'unnecessarily',", "'1hour',"]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>["['vitamin',", "'fortification',", "'arich',"]</t>
+          <t>'choosing',</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Excessive fortification of foods with vitamins can lead to hypervitaminosis, posing health risks such as toxicity and adverse health effects from consuming vitamins in amounts greater than the recommended dietary allowances.</t>
+          <t>["['pregnancy',", "'hypospadias',", "'glucose',"]</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Inadequate or misleading discourses and unnecessary testing practices during pregnancy, particularly in the context of 1-hour glucose tolerance tests, may lead to misdiagnosis or undue stress, potentially impacting fetal development and increasing the risk of conditions such as hypospadias.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>354_mlvhrma_typhimurium_tr_tandem</t>
+          <t>924_microscopically_bioinformaticsenabled_librarybased_strainlevel</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002598658021518</v>
+        <v>0.0082874193016474</v>
       </c>
       <c r="C4" t="n">
-        <v>354</v>
+        <v>924</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['mlvhrma', 'typhimurium', 'tr', 'tandem', 'repeat', '45i', 'mlva', 'serovars', 'loci', 'allelic']</t>
+          <t>['microscopically', 'bioinformaticsenabled', 'librarybased', 'strainlevel', 'methylobacterium', 'microdissection', 'directcaptured', 'resolution', 'tof', 'maldi']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>['To assess the distribution of Salmonella 4,[5]:i:- subtypes in the Belgian food chain and compare it to the subtypes associated with human infections, a molecular assessment was initiated. Two hundred fifty-three Salmonella isolates serotyped as 4,[5]:i:- during the period 2008-2011 in Belgium and originating from animal productions, food or human clinical samples were analysed by a specific duplex PCR. One hundred ninety-four isolates (76.7%) fit the profile of a S. Typhimurium monophasic variant as defined by the European Food Safety Authority. The other isolates possessed but did not express the phase II flagellin gene (23.3%). Multiple Locus Variable Number of Tandem Repeats Analysis (MLVA) revealed many but closely related profiles in the fljB-negative S. Typhimurium monophasic variant isolates. Some MLVA types were associated with both human and animal isolates but no unique source of human contamination could be demonstrated.', 'Salmonella enterica serovar Typhimurium (Salmonella Typhimurium) is one of the most important virulent foodborne pathogens in industrialized countries. The ability to type bacterial strains is essential for surveillance, investigation of outbreaks, and epidemiological studies. Multilocus variable number tandem repeat combined with high-resolution melting analysis (MLV-HRMA) is a fast, cost-efficient, and easy sample genotyping method. In this study, MLV-HRMA and multilocus variable number tandem repeat analysis (MLVA) were used to differentiate between the allelic variants in 5 tandem repeat (TR) loci in 117 Salmonella Typhimurium isolates derived from various farms, slaughterhouses, market, and humans in Thailand. Both MLV-HRMA and MLVA analyses resulted in the identification of a total of 43 different genotypes, but slight differences were observed in cluster analysis results between the 2 methods. The unweighted pair-group method with arithmetic mean-based cluster analysis showed the same core clades; some small differences in the placement of sister-clades and subgrouping were observed due to the inability to reliably type the polymorphic STTR3 locus in the MLV-HRMA. The results of this study show that the MLV-HRMA, following the selection of suitable TR loci, is a relatively reliable and rapid screening method capable of differentiating between Salmonella Typhimurium isolates on the basis of allelic diversity at TR loci. As such, MLV-HRMA can be potentially used to investigate and track sources of contamination in order to effectively control Salmonella contamination in the food supply chain.', 'Salmonella enterica serovar Typhimurium (Salmonella Typhimurium) is one of the most important virulent foodborne pathogens in industrialized countries. The ability to type bacterial strains is essential for surveillance, investigation of outbreaks, and epidemiological studies. Multilocus variable number tandem repeat combined with high-resolution melting analysis (MLV-HRMA) is a fast, cost-efficient, and easy sample genotyping method. In this study, MLV-HRMA and multilocus variable number tandem repeat analysis (MLVA) were used to differentiate between the allelic variants in 5 tandem repeat (TR) loci in 117 Salmonella Typhimurium isolates derived from various farms, slaughterhouses, market, and humans in Thailand. Both MLV-HRMA and MLVA analyses resulted in the identification of a total of 43 different genotypes, but slight differences were observed in cluster analysis results between the 2 methods. The unweighted pair-group method with arithmetic mean-based cluster analysis showed the same core clades; some small differences in the placement of sister-clades and subgrouping were observed due to the inability to reliably type the polymorphic STTR3 locus in the MLV-HRMA. The results of this study show that the MLV-HRMA, following the selection of suitable TR loci, is a relatively reliable and rapid screening method capable of differentiating between Salmonella Typhimurium isolates on the basis of allelic diversity at TR loci. As such, MLV-HRMA can be potentially used to investigate and track sources of contamination in order to effectively control Salmonella contamination in the food supply chain.']</t>
+          <t>['Since the advent of the use of matrix-assisted laser desorption/ionization (MALDI) time-of-flight mass spectrometry (TOF MS) as a tool for microbial characterization, efforts to increase the taxonomic resolution of the approach have been made. The rapidity and efficacy of the approach have suggested applications in counter-bioterrorism, prevention of food contamination, and monitoring the spread of antibiotic-resistant bacteria. Strain-level resolution has been reported with diverse bacteria, using library-based and bioinformatics-enabled approaches. Three types of characterization at the strain level have been reported: strain categorization, strain differentiation, and strain identification. Efforts to enhance the library-based approach have involved sample pre-treatment and data reduction strategies. Bioinformatics approaches have leveraged the ever-increasing amount of publicly available genomic and proteomic data to attain strain-level characterization. Bioinformatics-enabled strategies have facilitated strain characterization via intact biomarker identification, bottom-up, and top-down approaches. Rigorous quantitative and advanced statistical analyses have fostered success at the strain level with both approaches. Library-based approaches can be limited by effects of sample preparation and culture conditions on reproducibility, whereas bioinformatics-enabled approaches are typically limited to bacteria, for which genetic and/or proteomic data are available. Biological molecules other than proteins produced in strain-specific manners, including lipids and lipopeptides, might represent other avenues by which strain-level resolution might be attained. Immunological and lectin-based chemistries have shown promise to enhance sensitivity and specificity. Whereas the limits of the taxonomic resolution of MALDI TOF MS profiling of bacteria appears bacterium-specific, recent data suggest that these limits might not yet have been reached.', 'Identification of unwanted microbial contaminants microscopically observed in food products is challenging due to their low abundance in a complex matrix, quite often containing other microorganisms. Therefore, a selective identification method was developed using laser capture microdissection in combination with direct-captured cell PCR. This procedure was validated with Geobacillus stearothermophilus and further used to identify microbial contaminants present in some industrial milk samples. The microscopically observed contaminants were identified as mainly Methylobacterium species.', 'Identification of unwanted microbial contaminants microscopically observed in food products is challenging due to their low abundance in a complex matrix, quite often containing other microorganisms. Therefore, a selective identification method was developed using laser capture microdissection in combination with direct-captured cell PCR. This procedure was validated with Geobacillus stearothermophilus and further used to identify microbial contaminants present in some industrial milk samples. The microscopically observed contaminants were identified as mainly Methylobacterium species.']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>["'tandem',"]</t>
+          <t>Emerging food safety risk: The detection of strain-level variations of foodborne pathogens, such as Methylobacterium, using advanced techniques like bioinformatics-enabled microdissection and TOF-MALDI, highlights the potential for identifying previously overlooked microbial contaminants in food products, necessitating enhanced monitoring and control measures.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>'tandem',</t>
+          <t>["'resolution',", "'tof',", "'maldi']"]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>["['mlvhrma',", "'typhimurium',", "'tr',"]</t>
+          <t>'tof',</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Topic: ['mlvhrma', 'typhimurium', 'tr']
-Risk: 'tandem'
-Output: The tandem repeat sequences in Salmonella Typhimurium's genome may contribute to its virulence and antibiotic resistance, posing significant food safety risks.</t>
+          <t>["['microscopically',", "'bioinformaticsenabled',", "'librarybased',"]</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Potential risks in the field of food safety can arise from the limitations and challenges associated with analytical techniques. In this case:
+Output: The resolution limitations of Time-of-Flight (TOF) and Matrix-Assisted Laser Desorption/Ionization (MALDI) mass spectrometry could impact the effectiveness of microscopically, bioinformatics-enabled, and library-based methods in accurately identifying and characterizing foodborne pathogens.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>605_cropping_philippi_horticultural_summer</t>
+          <t>678_pgamended_peppers_ferralsols_moderately</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0025105421616216</v>
+        <v>0.0050383474440401</v>
       </c>
       <c r="C5" t="n">
-        <v>605</v>
+        <v>678</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['cropping', 'philippi', 'horticultural', 'summer', 'winter', 'pakhtunkhwa', 'khyber', 'seasons', 'icpaes', 'cape']</t>
+          <t>['pgamended', 'peppers', 'ferralsols', 'moderately', 'pb', 'grown', 'dim', 'zn', 'cr', 'cambisols']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>['Contamination of the food chain with heavy metals is considered as one of the major environmental pathways of human exposure to metals leading to potential health risks. This study aimed to investigate the concentrations of heavy metals such as copper (Cu), zinc (Zn), chromium (Cr), nickel (Ni), and manganese (Mn) in agricultural soils and food crops (fruit, leaf, and root vegetables), and their associated health risks to the local population in selected southern districts of Khyber Pakhtunkhwa Province, Pakistan. The concentrations of the selected metals in soil varied over a wide range, in the following decreasing order: Mn ', 'The aims of this study were to investigate the extent of heavy metal contamination in the Philippi horticultural area in the Western Cape Province, South Africa. Concentrations of Cd, Cr, Cu, Mn, Ni, Pb and Zn were determined in the irrigation water, soils and vegetables in both winter and summer cropping seasons with an ICP-AES and tested against certified standards. Differences were found in heavy metal concentrations between the winter and summer cropping seasons in the irrigation water, soils and vegetables. Certain heavy metals exceeded the maximum permissible concentrations in the irrigation water, soils and vegetables produced in South Africa. These toxic concentrations were predominantly found in the summer cropping season for the soils and in the crops produced in winter. It is thus suggested that further studies are carried out in the Philippi horticultural area to determine the sources of the heavy metals to try and mitigate the inputs thereof and therefore reduce the amount of heavy metals entering the human food chain.', 'The aims of this study were to investigate the extent of heavy metal contamination in the Philippi horticultural area in the Western Cape Province, South Africa. Concentrations of Cd, Cr, Cu, Mn, Ni, Pb and Zn were determined in the irrigation water, soils and vegetables in both winter and summer cropping seasons with an ICP-AES and tested against certified standards. Differences were found in heavy metal concentrations between the winter and summer cropping seasons in the irrigation water, soils and vegetables. Certain heavy metals exceeded the maximum permissible concentrations in the irrigation water, soils and vegetables produced in South Africa. These toxic concentrations were predominantly found in the summer cropping season for the soils and in the crops produced in winter. It is thus suggested that further studies are carried out in the Philippi horticultural area to determine the sources of the heavy metals to try and mitigate the inputs thereof and therefore reduce the amount of heavy metals entering the human food chain.']</t>
+          <t>['Lead (Pb) contamination of soil poses severe health risks to humans through vegetable consumption. The variations of Pb concentration in different parts of rootstalk vegetables (radish, carrot and potato) were investigated by using twelve cultivars grown in acidic Ferralsols and neutral Cambisols under two Pb treatments (125 mg kg(-1) and 250 mg kg(-1) for Ferralsols; 150 mg kg(-1) and 300 mg kg(-1) for Cambisols) in a pot experiment. The Pb concentration in edible parts was higher in Ferralsols under two Pb treatments, with range from 0.28 to 4.14, 0.42-10.66 mg kg(-1) (fresh weight) respectively, and all of them exceeded the food safety standard (0.1 mg kg(-1)) recommended by the Codex Alimentarius Commission of FAO and WHO. The Pb concentration in edible parts was significantly affected by genotype, soil type and the interaction between these two factors. The variation of Pb concentration in different cultivars was partially governed by Pb absorption and the transfer of Pb from aerial to edible part. The results revealed that caution should be paid to the cultivation of rootstalk vegetables in Pb-contaminated Ferralsols without any agronomic management to reduce Pb availability and plant uptake. For Cambisols with slight to moderate Pb contamination, growing potato cultivar Shandong No.1 and Chongqing No.1 was effective in reducing the risk of Pb entering human food chain. The results suggest the possibility of developing cultivar- and soil-specific planting and monitoring guidelines for the cultivation of rootstalk vegetables on slight to moderate Pb-contaminated soils.', 'Phosphogypsum (PG) is a waste produced by the phosphate fertilizer industry that has relatively high concentrations of some heavy metals (e.g., Cd, Cr, Cu, Pb, V, and Zn). The present study was conducted to investigate heavy metal contamination in soils and vegetables (tomatoes and green peppers) and to evaluate the possible health risks associated with the consumption of vegetables grown in PG-amended soils. The enrichment factor values indicated that Pb, Cr, Cu, Ni, Zn, and V were depleted to minimally enriched, and Cd was moderately enriched. The pollution load index values indicated that the PG-amended soils were strongly polluted with Cd, moderately polluted with Cr and Ni, and slightly polluted with Pb, Cu, Zn and V. The geo-accumulation index values indicated that the PG-amended soils were uncontaminated with Pb, Cr, Cu, Ni, Zn, V, and moderately contaminated with Cd. The trace metal transfer for Cd, Cr, Pb, and Zn concentrations was below what are considered as acceptable limits (&lt;1) for food production in soil and vegetables (tomatoes and green peppers) at each site area. Soil-to-plant transfer factor values decreased in order of Zn &gt; Pb &gt; Cd &gt; Cr. The biological absorption coefficients in plants are, in order of highest to lowest, Pb &gt; Zn &gt; Cd &gt; Cr, which suggests that Pb is more bioavailable to plants than Cd, Cr, and Zn. Furthermore, this study highlights that both adults and children consuming vegetables (e.g., tomatoes and green peppers) grown in PG-amended soils ingest significant amounts of the metals studied. However, the daily intake of metals (DIM) and the health risk index (HRI) values are &lt;1, indicating a relative absence of health risks associated with the consumption of vegetables/fruits grown in PG-amended soils. However, while DIM and HRI values suggest that the consumption of plants grown in PG-amended soils is nearly free of risks, there are other sources of metal exposures such as dust inhalation, dermal contact, and ingestion (for children) of metal-contaminated soils, which were not included in this study.', 'Phosphogypsum (PG) is a waste produced by the phosphate fertilizer industry that has relatively high concentrations of some heavy metals (e.g., Cd, Cr, Cu, Pb, V, and Zn). The present study was conducted to investigate heavy metal contamination in soils and vegetables (tomatoes and green peppers) and to evaluate the possible health risks associated with the consumption of vegetables grown in PG-amended soils. The enrichment factor values indicated that Pb, Cr, Cu, Ni, Zn, and V were depleted to minimally enriched, and Cd was moderately enriched. The pollution load index values indicated that the PG-amended soils were strongly polluted with Cd, moderately polluted with Cr and Ni, and slightly polluted with Pb, Cu, Zn and V. The geo-accumulation index values indicated that the PG-amended soils were uncontaminated with Pb, Cr, Cu, Ni, Zn, V, and moderately contaminated with Cd. The trace metal transfer for Cd, Cr, Pb, and Zn concentrations was below what are considered as acceptable limits (&lt;1) for food production in soil and vegetables (tomatoes and green peppers) at each site area. Soil-to-plant transfer factor values decreased in order of Zn &gt; Pb &gt; Cd &gt; Cr. The biological absorption coefficients in plants are, in order of highest to lowest, Pb &gt; Zn &gt; Cd &gt; Cr, which suggests that Pb is more bioavailable to plants than Cd, Cr, and Zn. Furthermore, this study highlights that both adults and children consuming vegetables (e.g., tomatoes and green peppers) grown in PG-amended soils ingest significant amounts of the metals studied. However, the daily intake of metals (DIM) and the health risk index (HRI) values are &lt;1, indicating a relative absence of health risks associated with the consumption of vegetables/fruits grown in PG-amended soils. However, while DIM and HRI values suggest that the consumption of plants grown in PG-amended soils is nearly free of risks, there are other sources of metal exposures such as dust inhalation, dermal contact, and ingestion (for children) of metal-contaminated soils, which were not included in this study.']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: Elevated levels of heavy metals (Pb, Zn, Cr) in peppers grown in ferralsols and cambisols could pose health risks to consumers.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>'khyber',</t>
+          <t>["'moderately',", "'dim',"]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>["['cropping',", "'philippi',", "'horticultural',"]</t>
+          <t>'moderately',</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Topic: ["['cropping',", "'philippi',", "'horticultural',"]
-Risk: 'khyber'
-Output: The introduction of agricultural practices in horticultural cropping systems in the Khyber region may pose risks of pest infestations and diseases, which could affect crop yields and food security.</t>
+          <t>["['pgamended',", "'peppers',", "'ferralsols',"]</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>The use of moderately dim lighting in storage areas could lead to inadequate monitoring and increased spoilage or contamination risks for peppers grown in PG-amended Ferralsols.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>282_variability_rope_amyloliquefaciens_pan</t>
+          <t>482_afb1_aflatoxin_indonesia_cancer</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0025821804558617</v>
+        <v>0.0041228437859957</v>
       </c>
       <c r="C6" t="n">
-        <v>282</v>
+        <v>482</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['variability', 'rope', 'amyloliquefaciens', 'pan', 'bread', 'fixed', 'shelflife', 'spoilage', 'encountered', 'strain']</t>
+          <t>['afb1', 'aflatoxin', 'indonesia', 'cancer', 'ngkg', '0016', 'malaysia', 'moe', 'bw', 'woman']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>["This study aims at the characterisation of growth behaviour of three strains of Bacillus amyloliquefaciens, isolated from ropy bread (ATCC8473), wheat grain (ISPA-S109.3) and semolina (ISPA-N9.1) to estimate rope spoilage risk in pan bread during shelf-life using the Sym'Previus tool. Cardinal values and growth/no growth boundaries were determined in broth, while artificial spore inoculations were performed in dough for various pan bread recipes to compare experimental counts with in silico growth simulations. Finally, two storage scenarios were tested to determine the probability to reach a spoilage threshold during bread shelf-life. Similarly to the safety criteria fixed for Listeria monocytogenes contamination in foodstuff complying with EC regulation, a potential rope spoilage threshold was arbitrary fixed at 5 log CFU/g for B. amyloliquefaciens. This study further underlines a higher rope spoilage potential of the ISPA strains as compared to the ATCC strain, thus emphasizing the interest to characterise both wild strains and reference strain to account for biological variability. In conclusion, this study showed that available decision making tools which are largely recognized to predict behaviour of pathogenic strains, shall also be used with spoilage strains to help maintain food quality and extend shelf-life.", 'Quantitative microbiology is used in risk assessment studies, microbial shelf life studies, product development, and experimental design. Realistic prediction is, however, complicated by different sources of variability. The final concentration of microorganisms at the moment of consumption is affected by different sources of variability: variability in the storage times and temperatures, variability in product characteristics, variability in process characteristics, variability in the initial contamination of the raw materials, and last but not least, microbiological variability. This article compares different sources of microbiological variability in growth and inactivation kinetics of a pathogen and a spoiler, namely experimental variability, reproduction variability (within strain variability), strain variability (between strain variability) and variability between individual cells within a population (population heterogeneity). Comparison of the different sources of microbiological variability also allows to prioritize their importance. In addition, the microbiological variability is compared to other variability factors encountered in a model food chain to evaluate the impact of different variability factors on the variability in microbial levels encountered in the final product.', 'Quantitative microbiology is used in risk assessment studies, microbial shelf life studies, product development, and experimental design. Realistic prediction is, however, complicated by different sources of variability. The final concentration of microorganisms at the moment of consumption is affected by different sources of variability: variability in the storage times and temperatures, variability in product characteristics, variability in process characteristics, variability in the initial contamination of the raw materials, and last but not least, microbiological variability. This article compares different sources of microbiological variability in growth and inactivation kinetics of a pathogen and a spoiler, namely experimental variability, reproduction variability (within strain variability), strain variability (between strain variability) and variability between individual cells within a population (population heterogeneity). Comparison of the different sources of microbiological variability also allows to prioritize their importance. In addition, the microbiological variability is compared to other variability factors encountered in a model food chain to evaluate the impact of different variability factors on the variability in microbial levels encountered in the final product.']</t>
+          <t>['This mini review article described the exposure of aflatoxin in Malaysia, including its presence in the foodstuffs and the detection of aflatoxin biomarkers in human biological samples. Historically, the exposure of aflatoxin in Malaysia can be dated in 1960s where an outbreak of disease in pig farms caused severe liver damage to the animals. Later, an aflatoxicosis case in Perak in 1988 was reported and caused death to 13 children, as up to 3 mg of aflatoxin was present in a single serving of contaminated noodles. Since then, extensive research on aflatoxin has been conducted in Malaysia. The food commodities such as peanuts, cereals, spices, and their products are the main commodities commonly found to be contaminated with aflatoxin. Surprisingly, some of the contaminated foods had levels greater than the permissible limit adopted by the Malaysian Food Regulation 1985. Besides, exposure assessment through the measurement of aflatoxin biomarkers in human biological samples is still in its infancy stage. Nevertheless, some studies had reported the presence of these biomarkers. In fact, it is postulated that Malaysians are moderately exposed to aflatoxin compared to those high risk populations, where aflatoxin contamination in the diets is prevalent. Since the ingestion of aflatoxin could be the integral to the development of liver cancer, the incidence of cancer attributable by dietary aflatoxin exposure in Malaysia has also been reported and published in the literatures. Regardless of these findings, the more important task is to monitor and control humans from being exposed to aflatoxin. The enforcement of law is insufficient to minimize human exposure to aflatoxin. Preventive strategies include agricultural, dietary, and clinical measures should be implemented. With the current research on aflatoxin in Malaysia, a global networking for research collaboration is needed to expand the knowledge and disseminate the information to the global scientific community.', 'A high performance liquid chromatographic method was developed for determination of aflatoxin B1 (AFB1) in foods using a monolithic column with sample clean up on an immunoaffinity column. The method was validated for analysis of AFB1 in rice, bread, puffed corn snack, wheat flour and peanut samples. The average recoveries for AFB1 in different foods ranged from 94.4 to 102.5% with the coefficient of variation lower than 10% for all foods. Limit of detection was 0.01 ng/g. A survey of AFB1 was performed on 90 samples collected from Tehran retail market in June 2005. The results showed that none of the bread and wheat flour samples were contaminated with AFB1. The mean AFB1 levels in rice, puffed corn snack and peanut samples were 4.17, 0.11, and 1.97 ng/g, respectively. The level of contamination of 3 samples (one rice sample and two peanuts samples) to AFB1 was found to be higher than 5 ng/g. Although all food samples had mean concentration of AFB1 below the maximum tolerated level in Iran, the mean intake of AFB1 from rice was estimated 3.49 times higher than the guidance value of 1 ng AFB1/Kg body weight/day. Therefore, it is strongly recommended to monitor AFB1 in foods, especially in rice, in Iran. This is the first study on exposure assessment of Iranian population to AFB1.', 'Aflatoxin B1 (AfB1) is a secondary fungal metabolite product widely found in many foodstuffs and considered a public health concern worldwide due to its genotoxicity and carcinogenicity. Tropical climate and inappropriate food safety practices in Indonesia are the favorable conditions for AfB1 contamination of foodstuffs. Despite these challenges, there has been a limited number of risk assessment of AfB1 conducted in Indonesia. Therefore, this paper aimed to gather all available occurrence data of AfB1 in maize and peanut originating from Indonesia and used the occurrence data to evaluate the risk of exposure to AfB1 using the Margin of Exposure (MOE) and the quantitative liver cancer risk approaches established by EFSA and FAO/WHO respectively. Risk assessment using both the MOE and quantitative liver cancer risk approaches revealed that AfB1 exposure from maize and peanut consumption in Indonesia is of concern. The MOE values derived from consumption of maize and peanut originating from Indonesia were generally below 10,000, and for several occurrence data were even below 1000. The estimated number of liver cancer cases associated with AfB1 exposure generally was above the 0.1 cancer cases/100,000 individuals/75 years. Altogether the evaluation reveals the urgency for risk management of AfB1 in Indonesia.']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: The presence of aflatoxin B1 (AFB1) in food products in Indonesia and Malaysia poses a significant health risk, particularly increasing the risk of cancer among consumers. Elevated levels of this toxin, which may exceed safe limits (ng/kg), require stringent monitoring and regulation to protect public health.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>'fixed',</t>
+          <t>["'moe',", "'woman']"]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>["['variability',", "'rope',", "'amyloliquefaciens',"]</t>
+          <t>'moe',</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Inconsistent environmental conditions and variability in the presence of Bacillus amyloliquefaciens can lead to the formation of rope spoilage in bread, which is a serious food safety concern. A fixed approach to control methods may not be effective in managing such variability, potentially leading to outbreaks of this spoilage.</t>
+          <t>["['afb1',", "'aflatoxin',", "'indonesia',"]</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>The presence of aflatoxin contamination in Indonesia poses a significant food safety risk, particularly to vulnerable populations such as women and children. Aflatoxin B1 (AFB1) is a potent carcinogen produced by certain molds found in food crops, and its prevalence in food supplies can lead to severe health consequences, including liver cancer and other chronic diseases.</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1113_lmf_lmfs_lowmoisture_cfd</t>
+          <t>442_lenses_device_maude_sentinel</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0040320316004603</v>
+        <v>0.0040027869532865</v>
       </c>
       <c r="C7" t="n">
-        <v>1113</v>
+        <v>442</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['lmf', 'lmfs', 'lowmoisture', 'cfd', 'lwafs', 'semisolid', 'rheological', 'sanitization', 'heat', 'optimum']</t>
+          <t>['lenses', 'device', 'maude', 'sentinel', 'stroke', 'complications', 'cerebral', '30night', 'wear', 'pharmacy']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>['Low-moisture foods have been responsible for a number of salmonellosis outbreaks worldwide over the last few decades, with cross contamination from contaminated equipment being the most predominant source. To date, actions have been focused on stringent hygienic practices prior to production, namely periodical sanitization of the processing equipment and lines. Not only does optimum sanitization require in-depth knowledge on the type and source of contaminants, but also the heat resistance of microorganisms is unique and often dependent on the heat transfer characteristics of the low-moisture foods. Rheological properties, including viscosity, degree of turbulence, and flow characteristics (for example, Newtonian or non-Newtonian) of both liquid and semisolid foods are critical factors impacting the flow behavior that consequently interferes heat transfer and related control elements. The demand for progressively more accurate prediction of complex fluid phenomena has called for the employment of computational fluid dynamics (CFD) to model mass and heat transfer during processing of various food products, ranging from drying to baking. With the aim of improving the quality and safety of low-moisture foods, this article critically reviewed the published literature concerning microbial survival in semisolid low-moisture foods, including chocolate, honey, and peanut butter. Critical rheological properties and state-of-the-art CFD application relevant to quality production of those products were also addressed. It is anticipated that adequate prediction of specific transport properties during optimum sanitization through CFD could be used to solve current and future food safety challenges.', 'Large, renowned outbreaks associated with low-moisture foods (LMFs) bring to light some of the potential, inherent risks that accompany foods with long shelf lives if pathogen contamination occurs. Subsequently, in 2013, Beuchat et al. (2013) noted the increased concern regarding these foods, specifically noting examples of persistence and resistance of pathogens in low-water activity foods (LWAFs), prevalence of pathogens in LWAF processing environments, and sources of and preventive measures for contamination of LWAFs. For the last decade, the body of knowledge related to LMF safety has exponentially expanded. This growing field and interest in LMF safety have led researchers to delve into survival and persistence studies, revealing that some foodborne pathogens can survive in LWAFs for months to years. Research has also uncovered many complications of working with foodborne pathogens in desiccated states, such as inoculation methods and molecular mechanisms that can impact pathogen survival and persistence. Moreover, outbreaks, recalls, and developments in LMF safety research have created a cascading feedback loop of pushing the field forward, which has also led to increased attention on how industry can improve LMF safety and raise safety standards. Scientists across academia, government agencies, and industry have partnered to develop and evaluate innovate thermal and nonthermal technologies to use on LMFs, which are described in the presented review. The objective of this review was to describe aspects of the extensive progress made by researchers and industry members in LMF safety, including lessons-learned about outbreaks and recalls, expansion of knowledge base about pathogens that contaminate LMFs, and mitigation strategies currently employed or in development to reduce food safety risks associated with LMFs.']</t>
+          <t>['All contact lenses (corrective/noncorrective) are considered Class II or Class III medical devices under the Federal Food, Drug, and Cosmetic Act, which also states that contact lenses can only be obtained with a prescription. The Forensic Chemistry Center of the US Food &amp; Drug Administration has examined over 300 decorative, noncorrective contact lenses obtained without a prescription. Our observations indicate that 60% of the counterfeit lenses and 27% of the unapproved lenses examined were positive for microbial contamination. Twenty-nine different brands of noncorrective contact lenses were examined, and 48% of them had at least one sample positive for microbial contamination. Each microorganism was further identified using DNA sequencing. Contaminated contact lenses are associated with numerous health risks, including ocular infections and conjunctivitis leading to permanent visual impairment or blindness. These results support the contention that acquiring contact lenses without a prescription is a considerable threat to consumer health and safety.', 'The Sentinel Cerebral Protection System (Boston Scientific, Marlborough, Massachusetts) is indicated for use as a cerebral protection device to capture and remove embolic material during transcatheter aortic valve procedures and was approved by the US Food and Drug Administration (FDA) in 2017. Robust data on the most commonly reported complications and modes of failure associated with the Sentinel device are limited.\nWe analyzed postmarketing surveillance data from the FDA Manufacturer and User Facility Device Experience (MAUDE) database from 2017 through 2019, yielding 43 reports.\nOf the 43 reports of major complications involving Sentinel devices, 23 involved either death (3) or injury (20) related to the device. The 3 deaths were due to stroke, while 18 of the 20 injuries were reported as stroke. The other 20 reports were related to device modes of failure. Modes of failure were due to damaged device (5), difficulty retrieving/resheathing the device (5); package contamination (4), difficulty deploying the device (3), and, finally, complications with preparation (3).\nOur analysis of the MAUDE database demonstrates that in real-world practice, the Sentinel Cerebral Protection System may be associated with complications, including death, stroke, vascular injury, and difficulties with the device itself. The MAUDE database serves as an important tool for both physicians and manufacturers to optimize performance and clinical outcomes.', 'The Sentinel Cerebral Protection System (Boston Scientific, Marlborough, Massachusetts) is indicated for use as a cerebral protection device to capture and remove embolic material during transcatheter aortic valve procedures and was approved by the US Food and Drug Administration (FDA) in 2017. Robust data on the most commonly reported complications and modes of failure associated with the Sentinel device are limited.\nWe analyzed postmarketing surveillance data from the FDA Manufacturer and User Facility Device Experience (MAUDE) database from 2017 through 2019, yielding 43 reports.\nOf the 43 reports of major complications involving Sentinel devices, 23 involved either death (3) or injury (20) related to the device. The 3 deaths were due to stroke, while 18 of the 20 injuries were reported as stroke. The other 20 reports were related to device modes of failure. Modes of failure were due to damaged device (5), difficulty retrieving/resheathing the device (5); package contamination (4), difficulty deploying the device (3), and, finally, complications with preparation (3).\nOur analysis of the MAUDE database demonstrates that in real-world practice, the Sentinel Cerebral Protection System may be associated with complications, including death, stroke, vascular injury, and difficulties with the device itself. The MAUDE database serves as an important tool for both physicians and manufacturers to optimize performance and clinical outcomes.']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>["'semisolid',", "'rheological',", "'sanitization',"]</t>
+          <t>Emerging food safety risk: The integration of advanced medical devices, such as cerebral monitoring systems or lenses, into food safety practices could introduce complications if not properly managed. Specifically, the potential for device contamination or malfunction, particularly in environments like pharmacies, poses a risk that needs careful monitoring and regulation.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>'rheological',</t>
+          <t>["'cerebral',", "'30night',"]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>["['lmf',", "'lmfs',", "'lowmoisture',"]</t>
+          <t>'cerebral',</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Low-moisture foods (LMFs) are susceptible to contamination with pathogens like Salmonella, which can survive in dry environments. Rheological properties of these foods, such as texture and viscosity, can be altered by contamination, affecting both safety and quality.</t>
+          <t>["['lenses',", "'device',", "'maude',"]</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>The risk involves the potential for adverse events related to the use of medical devices, such as lenses, which could lead to serious health issues like cerebral complications. The term "30night" might refer to a specific time frame or condition under which these risks become significant.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>1130_clavata_dairy_casecase_saprochaete</t>
+          <t>453_sanguineus_sachet_salivary_am</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0040320316004603</v>
+        <v>0.0051595048692106</v>
       </c>
       <c r="C8" t="n">
-        <v>1130</v>
+        <v>453</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['clavata', 'dairy', 'casecase', 'saprochaete', 'similis', 'clade', 'cladosporium', 'spoiled', 'transmit', 'nationwide']</t>
+          <t>['sanguineus', 'sachet', 'salivary', 'am', 'ivermectin', 'ram', 'glands', 'antiinsect', 'oo', 'oryzae']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>['Few studies have investigated the diversity of spoilage fungi from the dairy production chain in Brazil, despite their importance as spoilage microorganisms. In the present study, 109 filamentous fungi were isolated from various spoiled dairy products and dairy production environments. The isolates were identified through sequencing of the internal transcribed spacer (ITS) region. In spoiled products, Penicillium and Cladosporium were the most frequent genera of filamentous fungi and were also present in the dairy environment, indicating that they may represent a primary source of contamination. For dairy production environments, the most frequent genera were Cladosporium, Penicillium, Aspergillus, and Nigrospora. Four species (Hypoxylon griseobrunneum, Rhinocladiella similis, Coniochaeta rosae, and Paecilomyces maximus) were identified for the first time in dairy products or in dairy production environment. Phytopathogenic genera were also detected, such as Montagnula, Clonostachys, and Riopa. One species isolated from the dairy production environment is classified as the pathogenic fungi, R. similis. Regarding the phylogeny, 14 different families were observed and most of the fungi belong to the Ascomycota phylum. The understanding of fungal biodiversity in dairy products and environment can support the development of conservation strategies to control food spoilage. This includes the suitable use of preservatives in dairy products, as well as the application of specific cleaning and sanitizing protocols designed for a specific group of target microorganisms.', 'Rapidly fatal cases of invasive fungal infections due to a fungus later identified as Saprochaete clavata were reported in France in May 2012. The objectives of this study were to determine the clonal relatedness of the isolates and to investigate possible sources of contamination. A nationwide alert was launched to collect cases. Molecular identification methods, whole-genome sequencing (WGS), and clone-specific genotyping were used to analyze recent and historical isolates, and a case-case study was performed. Isolates from thirty cases (26 fungemias, 22 associated deaths at day 30) were collected between September 2011 and October 2012. Eighteen cases occurred within 8 weeks (outbreak) in 10 health care facilities, suggesting a common source of contamination, with potential secondary cases. Phylogenetic analysis identified one clade (clade A), which accounted for 16/18 outbreak cases. Results of microbiological investigations of environmental, drug, or food sources were negative. Analysis of exposures pointed to a medical device used for storage and infusion of blood products, but no fungal contamination was detected in the unused devices. Molecular identification of isolates from previous studies demonstrated that S. clavata can be found in dairy products and has already been involved in monocentric outbreaks in hematology wards. The possibility that S. clavata may transmit through contaminated medical devices or can be associated with dairy products as seen in previous European outbreaks is highly relevant for the management of future outbreaks due to this newly recognized pathogen. This report also underlines further the potential of WGS for investigation of outbreaks due to uncommon fungal pathogens.\nSeveral cases of rapidly fatal infections due to the fungus Saprochaete clavata were reported in France within a short period of time in three health care facilities, suggesting a common source of contamination. A nationwide alert collected 30 cases over 1 year, including an outbreak of 18 cases over 8 weeks. Whole-genome sequencing (WGS) was used to analyze recent and historical isolates and to design a clade-specific genotyping method that uncovered a clone associated with the outbreak, thus allowing a case-case study to analyze the risk factors associated with infection by the clone. The possibility that S. clavata may transmit through contaminated medical devices or can be associated with dairy products as seen in previous European outbreaks is highly relevant for the management of future outbreaks due to this newly recognized pathogen.']</t>
+          <t>['The purpose of this study was to develop an anti-insect pest repellent sachet to prevent Sitophilus oryzae (L.) (Coleoptera: Curculionidae) contamination in grain packaging. The anti-insect pest activities of essential oils (EOs) from garlic (Allium Sativum), ginger (Zingiber Officinalis), black pepper (Piper nigrum), onion (Allium cepa), and fennel (Foeniculum vulgare) as well as major compounds (allyl disulfide, AD; allyl mercaptan, AM) isolated from of garlic and onion (AD and AM) were measured against S. oryzae. The results revealed that garlic EO, onion EO, AD, and AM showed strong fumigant insecticidal activities. Among these, AM showed the highest acetylcholinesterase (AChE) inhibition rate, indicating that the fumigation insecticidal efficacy of AM is related with its AChE inhibition ability. Subsequently, the microcapsules were produced with a high efficiency (80.02%) by using AM as a core material and rice flour as a wall material. Finally, sachet composed of rice flour microcapsule containing 2% AM (RAM) was produced. Repellent assay was performed to measure anti-insect pest ability of the RAM sachet, showed remarkable repelling effect within 48 h both in the presence or absence of attractant. In a release profile of RAM sachet, it was expected to last over 20 mo during the distribution period of brown rice. Moreover, RAM sachet showed no undesirable changes to the sensory properties of the rice both before and after cooking. Taken together, these results suggest that the newly developed RAM sachet could be used as a packaging material to protect grain products from S. oryzae contamination.\nThe rice weevil, Sitophilus oryzae (L.) (Coleoptera: Curculionidae), causes damages to stored products and its contamination in grain products has become a major problem in cereal market. To preserve brown rice, an anti-insect pest repellent sachet containing 2% allyl mercaptan was newly developed and it showed remarkable repellent abilities against S. oryzae. It could be used as an active food packaging system to protect grain products from insect pest contamination.', "The tick Rhipicephalus sanguineus sensu lato has great medical and veterinary importance, mainly because the ability to transmit many diseases, causing harm to pets but also risks to public health. The blood spoliation and transmission of pathogens occur because of the immunosuppressive action of these ticks' saliva, a potent mixture of bioactive substances that is secreted by the salivary glands, one of the organs responsible for their biological success, and hence the target of studies for their control. Ozone has promise for use as an alternative acaricide, due to its proven efficiency in controlling agricultural and food pests, besides posing no risk of environmental contamination or to animal and human health. Therefore, this study evaluated the acaricidal potential of exposure of females of R. sanguineus s.l. to ozonated water at many concentrations and analysed the morphophysiological alterations of the salivary glands, employing histological and light microscopic techniques. The results demonstrated that the ozonated water at the concentrations investigated caused severe alterations in the salivary glands, bringing a new perspective for control of R. sanguineus s.l., through an ecologically correct method due to the absence of harm to non-target organisms and the environment.", "The tick Rhipicephalus sanguineus sensu lato has great medical and veterinary importance, mainly because the ability to transmit many diseases, causing harm to pets but also risks to public health. The blood spoliation and transmission of pathogens occur because of the immunosuppressive action of these ticks' saliva, a potent mixture of bioactive substances that is secreted by the salivary glands, one of the organs responsible for their biological success, and hence the target of studies for their control. Ozone has promise for use as an alternative acaricide, due to its proven efficiency in controlling agricultural and food pests, besides posing no risk of environmental contamination or to animal and human health. Therefore, this study evaluated the acaricidal potential of exposure of females of R. sanguineus s.l. to ozonated water at many concentrations and analysed the morphophysiological alterations of the salivary glands, employing histological and light microscopic techniques. The results demonstrated that the ozonated water at the concentrations investigated caused severe alterations in the salivary glands, bringing a new perspective for control of R. sanguineus s.l., through an ecologically correct method due to the absence of harm to non-target organisms and the environment."]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>["'nationwide']"]</t>
+          <t>Emerging food safety risk: The use of anti-insect treatments, such as ivermectin, on crops like Oryzae (rice) could lead to contamination if residues remain on the food product. This could pose a risk to human health if the residues are not adequately managed or regulated.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>'nationwide']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>["['clavata',", "'dairy',", "'casecase',"]</t>
+          <t>'oryzae']</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>The presence of Clostridium botulinum (referred to as 'clavata') in dairy products ('dairy') and the potential for contamination across multiple batches or cases ('casecase') poses a significant risk for botulism outbreaks on a nationwide scale.</t>
+          <t>["['sanguineus',", "'sachet',", "'salivary',"]</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Based on the provided data, it seems there might be a misunderstanding or missing information. The first list contains terms that appear to be related to ticks or other parasitic vectors (Rhipicephalus sanguineus, commonly known as the brown dog tick, and 'salivary' possibly referring to salivary glands of ticks), while the second list is empty, indicating no specific risk terms are provided.
+Without additional risk terms, it is challenging to infer a specific food safety risk. However, I can provide a general statement based on the topic terms provided:
+"Ticks, such as Rhipicephalus sanguineus, pose a potential risk to food safety through their role as vectors for various pathogens, which can be transmitted to livestock and subsequently affect the food supply chain."
+For a more precise risk statement, please provide specific risk terms related to the topic.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>872_ed_alkylphenols_longchain_octylphenols</t>
+          <t>847_buttonwood_site_stem_cadmium</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0036437246963562</v>
+        <v>0.0065934065934065</v>
       </c>
       <c r="C9" t="n">
-        <v>872</v>
+        <v>847</v>
       </c>
       <c r="D9" t="n">
         <v>3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['ed', 'alkylphenols', 'longchain', 'octylphenols', 'toxicantnutrient', 'thyroidtargeting', 'eg', 'endocrine', 'estrogenlike', 'nonylphenols']</t>
+          <t>['buttonwood', 'site', 'stem', 'cadmium', 'leaf', 'chicory', 'endive', 'platanus', 'root', '633']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>['Long-chain alkylphenols, such as nonylphenols and octylphenols, are man-made compounds with estrogen-like activity and considered to be endocrine disputing chemicals. They are known to influence sexual development and reproduction of humans and other animals, therefore cause health and ecological concerns.\nThis review aims to identify the key findings presented in recent scientific literature with respect to the presence of long-chain alkylphenols in food, intake by different populations and describe the metabolism by human and the mechanisms to disrupt the estrogenic activity of nonylphenols and octylphenols by bacteria and fungi in the environment.\nThe current knowledge related to the physicochemical properties, source, occurrence, toxic effects, level in foods, human intake, elimination and metabolism of long-chain alkylphenols was summarized.\nLong-chain alkylphenols have been detected in soil, surface and ground water, sediments, wastewater effluent, air and in most foods. The daily human intake of 4-nonylphenols and 4-octylphenols has been compared among different population. A comprehensive summary of the major degradation pathways and mechanism in bacteria, fungi, yeasts and vertebrates was described.\nThe findings of this review revealed the wide distribution of long-chain alkylphenols in various environments and contamination in foods. Therefore, further investigation of long-term exposure is necessary to comprehensively evaluate the potential health risks to humans. The diverse biodegradation mechanisms can be used in the removal of these compounds before entering food chains. The review provides indication as to how it might be possible to reduce the adverse effects on human health from estrogen-like long-chain alkylphenols.', "Endocrine disrupters (ED) are a heterogeneous group of chemicals including persistent contaminants, pesticides, as well as compounds present in consumer products and natural substances. For most ED, the food chain is a current major exposure route for the general population. ED can enter the food chain through the living environment (e.g., feeds, fertilizers) of food-producing organisms, be directly employed in food production (e.g., pesticides) or be released from food contact materials (such as bisphenol A or phthalates); in addition, the endocrine disruption potential of some natural compounds in edible plants, including the so-called phytoestrogens, should not be overlooked. An exposure assessment has to consider the specific liability of food commodities to contamination with specific ED (e.g., polychlorinated and polybrominated chemicals in lipid-rich foods). The paper discusses the main toxicological research issues in order to support the risk assessment of ED in food chains, including: the potential for additive, 'cocktail' effects (as from multiple pesticide residues); the long-term effects on target body systems (e.g., reproductive, nervous) elicited by exposure during prenatal as well as postnatal life stage windows, and toxicant/nutrient interactions (e.g., thyroid-targeting ED and iodine status). Food safety systems should exploit the available knowledge to improve prevention of long-term risks along the whole food chain.", "Endocrine disrupters (ED) are a heterogeneous group of chemicals including persistent contaminants, pesticides, as well as compounds present in consumer products and natural substances. For most ED, the food chain is a current major exposure route for the general population. ED can enter the food chain through the living environment (e.g., feeds, fertilizers) of food-producing organisms, be directly employed in food production (e.g., pesticides) or be released from food contact materials (such as bisphenol A or phthalates); in addition, the endocrine disruption potential of some natural compounds in edible plants, including the so-called phytoestrogens, should not be overlooked. An exposure assessment has to consider the specific liability of food commodities to contamination with specific ED (e.g., polychlorinated and polybrominated chemicals in lipid-rich foods). The paper discusses the main toxicological research issues in order to support the risk assessment of ED in food chains, including: the potential for additive, 'cocktail' effects (as from multiple pesticide residues); the long-term effects on target body systems (e.g., reproductive, nervous) elicited by exposure during prenatal as well as postnatal life stage windows, and toxicant/nutrient interactions (e.g., thyroid-targeting ED and iodine status). Food safety systems should exploit the available knowledge to improve prevention of long-term risks along the whole food chain."]</t>
+          <t>['Soil contaminated with cadmium presents a potential hazard for humans, animals and plants. The latter play a major role in the transfer of cadmium to the food chain. The uptake of cadmium and its accumulation by plants is dependent on various soil, plants and environmental factors. In order to identify soil properties with statistically significant influence on cadmium concentration in vegetables and to reduce the collection of data, time and costs, regression models can be applied. The main objective of this research was to develop regression models to predict the concentration of cadmium in 9-vegetable species: zucchini, tomato, cabbage, onion, potato, carrot, red beet, endive and chicory, based on soil properties. Soil samples were collected from 123 home gardens of the Municipality of Celje and 59 of these gardens were also included in vegetable sampling. The concentration of elements (e.g. arsenic, cadmium, copper, lead, and zinc) in the samples was determined by Inductively Coupled Plasma Mass Spectrometry. Single (for cabbage, potato, red beet and chicory) and multiple (for tomato, onion, carrot and endive) linear regression models were developed. There was no statistically significant regression model for zucchini. The most significant parameter for the influencing the cadmium concentration in vegetables was the concentration of cadmium in soil. Other important soil properties were the content of organic matter, pH-value and the concentration of manganese. It was concluded that consuming carrots, red beets, endives, onions, potatoes and chicory which are grown in gardens with Cd concentrations (mgkg(-1) DW) above 2.4, 3.2, 6.3, 7.9, 8.3 and 10.9, respectively, might represent an important contribution to dietary Cd exposure.', "Toxicity and accumulation of cadmium in body organs by eating contaminated food has an important role in endangering a human's health. Using Environmental Protection Agency (EPA) reports, site 1, site 2 and site 3 were selected as polluted sites and site 4 was selected as the control site. Seedlings of buttonwood were prepared for 12 months then root, stem, and leaf samples were harvested and the amounts of cadmium element in stem and leaf organs together with the growth parameters were measured. This study determines the amount of cadmium accumulated in Platanus occidentalis. The respective cadmium concentrations in the root, leaf, and stem in site 1 were 382, 98, and 87; in site 2 they were 591, 122, and 94; and in site 3 they were 633, 151, and 104 mg/kg dry weight (DW). Furthermore, the comparison between accumulation and transfer of cadmium in the study showed more absorption of this metal by the root than that by the stem and leaf. The result of this research shows that buttonwood has the potential for cadmium accumulation without any serious damage to its growth. To control the extent of contamination in industrial areas, petrochemical industries, power plants and vast contaminated municipal areas, there is a great need for planting plants like buttonwood.", "Toxicity and accumulation of cadmium in body organs by eating contaminated food has an important role in endangering a human's health. Using Environmental Protection Agency (EPA) reports, site 1, site 2 and site 3 were selected as polluted sites and site 4 was selected as the control site. Seedlings of buttonwood were prepared for 12 months then root, stem, and leaf samples were harvested and the amounts of cadmium element in stem and leaf organs together with the growth parameters were measured. This study determines the amount of cadmium accumulated in Platanus occidentalis. The respective cadmium concentrations in the root, leaf, and stem in site 1 were 382, 98, and 87; in site 2 they were 591, 122, and 94; and in site 3 they were 633, 151, and 104 mg/kg dry weight (DW). Furthermore, the comparison between accumulation and transfer of cadmium in the study showed more absorption of this metal by the root than that by the stem and leaf. The result of this research shows that buttonwood has the potential for cadmium accumulation without any serious damage to its growth. To control the extent of contamination in industrial areas, petrochemical industries, power plants and vast contaminated municipal areas, there is a great need for planting plants like buttonwood."]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>["'thyroidtargeting',"]</t>
+          <t>Emerging food safety risk: The inclusion of 'cadmium' in the list suggests a potential contamination issue. Cadmium is a toxic heavy metal, and its presence in plants such as chicory, endive, and other leafy vegetables could pose significant health risks if these plants are grown in contaminated soil or water.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>'thyroidtargeting',</t>
+          <t>["'633']"]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>["['ed',", "'alkylphenols',", "'longchain',"]</t>
+          <t>'633']</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Exposure to long-chain alkylphenols, which are endocrine disruptors, poses a risk of thyroid-targeting effects, potentially leading to thyroid dysfunction and related health issues.</t>
+          <t>["['buttonwood',", "'site',", "'stem',"]</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>The provided lists suggest an association between a specific type of plant and a numeric identifier that could correspond to a regulation, standard, or hazard. While the connection is somewhat unclear, a possible interpretation could be:
+Output: Improper handling or management of Buttonwood plant sites (e.g., site 633) could lead to contamination or pest infestation, posing a risk to plant health and local ecosystems.</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>403_sporulation_differentiation_nprrdependent_necrotrophic</t>
+          <t>690_sfr_bottles_asepticuht_1011</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.003432665045788</v>
+        <v>0.0040461050519773</v>
       </c>
       <c r="C10" t="n">
-        <v>403</v>
+        <v>690</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['sporulation', 'differentiation', 'nprrdependent', 'necrotrophic', 'thuringiensis', 'niches', 'bacillus', 'cells', 'vegetative', 'fa']</t>
+          <t>['sfr', 'bottles', 'asepticuht', '1011', 'stearothermophilus', 'aseptic', 'recontamination', 'process', 'mold', 'modules']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>['The spore-forming bacterium Bacillus thuringiensis is an efficient biofilm producer, responsible for persistent contamination of industrial food processing systems. B. thuringiensis biofilms are highly heterogeneous bacterial structures in which three distinct cell types controlled by quorum sensing regulators were identified: PlcR-controlled virulent cells, NprR-dependent necrotrophic cells and cells committed to sporulation, a differentiation process controlled by Rap phosphatases and Spo0A-P. Interestingly, a cell lineage study revealed that, in LB medium or in insect larvae, only necrotrophic cells became spores. Here we analyzed cellular differentiation undertaken by cells growing in biofilm in a medium optimized for sporulation. No virulent cells were identified; surprisingly, two distinct routes could lead to differentiation as a spore in this growth condition: the NprR-dependent route, followed by the majority of cells, and the newly identified NprR-independent route, which is followed by 20% of sporulating cells.', 'Spore-forming bacteria are able to grow under a wide range of environmental conditions, to form biofilms and to differentiate into resistant forms: spores. This resistant form allows their dissemination in the environment; consequently, they may contaminate raw materials. Sporulation can occur all along the food chain, in raw materials, but also in food processes, leading to an increase in food contamination. However, the problem of sporulation during food processing is poorly addressed and sporulation niches are difficult to identify from the farm to the fork. Sporulation is a survival strategy. Some environmental factors are required to trigger this differentiation process and others act by modulating it. The efficiency of sporulation is the result of the combined effects of these two types of factors on vegetative cell metabolism. This paper aims to explain and help identify sporulation niches in the food chain, based on features of spore-former physiology.', 'Spore-forming bacteria are able to grow under a wide range of environmental conditions, to form biofilms and to differentiate into resistant forms: spores. This resistant form allows their dissemination in the environment; consequently, they may contaminate raw materials. Sporulation can occur all along the food chain, in raw materials, but also in food processes, leading to an increase in food contamination. However, the problem of sporulation during food processing is poorly addressed and sporulation niches are difficult to identify from the farm to the fork. Sporulation is a survival strategy. Some environmental factors are required to trigger this differentiation process and others act by modulating it. The efficiency of sporulation is the result of the combined effects of these two types of factors on vegetative cell metabolism. This paper aims to explain and help identify sporulation niches in the food chain, based on features of spore-former physiology.']</t>
+          <t>['Aseptic ultra-high-temperature (UHT)-type processed food products (e.g., milk or soup) are ready to eat products which are consumed extensively globally due to a combination of their comparative high quality and long shelf life, with no cold chain or other preservation requirements. Due to the inherent microbial vulnerability of aseptic-UHT product formulations, the safety and stability-related performance objectives (POs) required at the end of the manufacturing process are the most demanding found in the food industry. The key determinants to achieving sterility, and which also differentiates aseptic-UHT from in-pack sterilised products, are the challenges associated with the processes of aseptic filling and sealing. This is a complex process that has traditionally been run using deterministic or empirical process settings. Quantifying the risk of microbial contamination and recontamination along the aseptic-UHT process, using the scientifically based process quantitative microbial risk assessment (QMRA), offers the possibility to improve on the currently tolerable sterility failure rate (i.e., 1 defect per 10,000 units). In addition, benefits of applying QMRA are (i) to implement process settings in a transparent and scientific manner; (ii) to develop a uniform common structure whatever the production line, leading to a harmonisation of these process settings, and; (iii) to bring elements of a cost-benefit analysis of the management measures. The objective of this article is to explore how QMRA techniques and risk management metrics may be applied to aseptic-UHT-type processed food products. In particular, the aseptic-UHT process should benefit from a number of novel mathematical and statistical concepts that have been developed in the field of QMRA. Probabilistic techniques such as Monte Carlo simulation, Bayesian inference and sensitivity analysis, should help in assessing the compliance with safety and stability-related POs set at the end of the manufacturing process. The understanding of aseptic-UHT process contamination will be extended beyond the current "as-low-as-reasonably-achievable" targets to a risk-based framework, through which current sterility performance and future process designs can be optimised.', 'Aseptic-Ultra-High-Temperature (UHT) products are manufactured to be free of microorganisms capable of growing in the food at normal non-refrigerated conditions at which the food is likely to be held during manufacture, distribution and storage. Two important phases within the process are widely recognised as critical in controlling microbial contamination: the sterilisation steps and the following aseptic steps. Of the microbial hazards, the pathogen spore formers Clostridium botulinum and Bacillus cereus are deemed the most pertinent to be controlled. In addition, due to a relatively high thermal resistance, Geobacillus stearothermophilus spores are considered a concern for spoilage of low acid aseptic-UHT products. A probabilistic exposure assessment model has been developed in order to assess the aseptic-UHT product failure rate associated with these three bacteria. It was a Modular Process Risk Model, based on nine modules. They described: i) the microbial contamination introduced by the raw materials, either from the product (i.e. milk, cocoa and dextrose powders and water) or the packaging (i.e. bottle and sealing component), ii) the sterilisation processes, of either the product or the packaging material, iii) the possible recontamination during subsequent processing of both product and packaging. The Sterility Failure Rate (SFR) was defined as the sum of bottles contaminated for each batch, divided by the total number of bottles produced per process line run (10(6) batches simulated per process line). The SFR associated with the three bacteria was estimated at the last step of the process (i.e. after Module 9) but also after each module, allowing for the identification of modules, and responsible contamination pathways, with higher or lower intermediate SFR. The model contained 42 controlled settings associated with factory environment, process line or product formulation, and more than 55 probabilistic inputs corresponding to inputs with variability conditional to a mean uncertainty. It was developed in @Risk and run through Monte Carlo simulations. Overall, the highest SFR was associated with G. stearothermophilus (380000 bottles contaminated in 10(11) bottles produced) and the lowest to C. botulinum (3 bottles contaminated in 10(11) bottles produced). Unsurprisingly, SFR due to G. stearothermophilus was due to its ability to survive the UHT treatment. More interestingly, it was identified that SFR due to B. cereus (17000 bottles contaminated in 10(11) bottles produced) was due to an airborne recontamination of the aseptic tank (49%) and a post-sterilisation packaging contamination (33%). A deeper analysis (sensitivity and scenario analyses) was done to investigate how the SFR due to B. cereus could be reduced by changing the process settings related to potential air recontamination source.', 'Aseptic-Ultra-High-Temperature (UHT) products are manufactured to be free of microorganisms capable of growing in the food at normal non-refrigerated conditions at which the food is likely to be held during manufacture, distribution and storage. Two important phases within the process are widely recognised as critical in controlling microbial contamination: the sterilisation steps and the following aseptic steps. Of the microbial hazards, the pathogen spore formers Clostridium botulinum and Bacillus cereus are deemed the most pertinent to be controlled. In addition, due to a relatively high thermal resistance, Geobacillus stearothermophilus spores are considered a concern for spoilage of low acid aseptic-UHT products. A probabilistic exposure assessment model has been developed in order to assess the aseptic-UHT product failure rate associated with these three bacteria. It was a Modular Process Risk Model, based on nine modules. They described: i) the microbial contamination introduced by the raw materials, either from the product (i.e. milk, cocoa and dextrose powders and water) or the packaging (i.e. bottle and sealing component), ii) the sterilisation processes, of either the product or the packaging material, iii) the possible recontamination during subsequent processing of both product and packaging. The Sterility Failure Rate (SFR) was defined as the sum of bottles contaminated for each batch, divided by the total number of bottles produced per process line run (10(6) batches simulated per process line). The SFR associated with the three bacteria was estimated at the last step of the process (i.e. after Module 9) but also after each module, allowing for the identification of modules, and responsible contamination pathways, with higher or lower intermediate SFR. The model contained 42 controlled settings associated with factory environment, process line or product formulation, and more than 55 probabilistic inputs corresponding to inputs with variability conditional to a mean uncertainty. It was developed in @Risk and run through Monte Carlo simulations. Overall, the highest SFR was associated with G. stearothermophilus (380000 bottles contaminated in 10(11) bottles produced) and the lowest to C. botulinum (3 bottles contaminated in 10(11) bottles produced). Unsurprisingly, SFR due to G. stearothermophilus was due to its ability to survive the UHT treatment. More interestingly, it was identified that SFR due to B. cereus (17000 bottles contaminated in 10(11) bottles produced) was due to an airborne recontamination of the aseptic tank (49%) and a post-sterilisation packaging contamination (33%). A deeper analysis (sensitivity and scenario analyses) was done to investigate how the SFR due to B. cereus could be reduced by changing the process settings related to potential air recontamination source.']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>["'fa']"]</t>
+          <t>Emerging food safety risk: There is a potential risk of recontamination in aseptic bottling processes, particularly involving the resilient microorganism Geobacillus stearothermophilus, which can survive high-temperature treatments and lead to mold growth in the final product.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>'fa']</t>
+          <t>["'1011',", "'modules']"]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>["['sporulation',", "'differentiation',", "'nprrdependent',"]</t>
+          <t>'1011',</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>The risk of fa (food allergens) can be significant in the context of sporulation, differentiation, and nprR-dependent processes in microorganisms. Sporulation and differentiation in bacteria or fungi might lead to the production of allergenic spores or proteins, while nprR-dependent regulatory pathways could influence the expression of these allergenic compounds. This poses a food safety risk as these allergens could contaminate food products, leading to allergic reactions in sensitive individuals.</t>
+          <t>["['sfr',", "'bottles',", "'asepticuht',"]</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>The risk of improper sterilization or contamination during the aseptic packaging process in SFR bottles, due to potential issues with the 1011 modules in the asepticuht system.</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>593_pastrami_jerky_beef_grinding</t>
+          <t>656_timetemperature_git_options_simulated</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002724814055252</v>
+        <v>0.0050648655506049</v>
       </c>
       <c r="C11" t="n">
-        <v>593</v>
+        <v>656</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['pastrami', 'jerky', 'beef', 'grinding', 'trims', 'fillets', 'tvc', 'noninoculated', 'chilled', 'multiresistant']</t>
+          <t>['timetemperature', 'git', 'options', 'simulated', 'buffering', 'metrics', 'orientating', 'primocontamination', 'prioritarily', 'whatif']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>['Intense manipulation during beef jerky production increases the possibility of contamination with pathogenic microorganisms. This study evaluated the contamination by thermotolerant coliforms, Escherichia coli and Salmonella spp., on processing surfaces and raw materials during beef jerky production, as well as in the final product. Thermotolerant coliforms were found on all surfaces tested and in the raw material. Escherichia coli was identified in 6.7% of the surface samples, while Salmonella spp. was found in 3.3% of the surface samples and 8.6% of raw material samples. Virulence genes were detected in Salmonella spp. isolates. One Salmonella spp. isolate was resistant to sulfonamide, while one E. coli isolate was multiresistant, including the presence of resistance genes sul2, strA, strB, tetA and tetB. The presence of coliforms demonstrates failings in hygienic-sanitary procedures. The presence of pathogenic microorganisms causing foodborne diseases in the production line indicates persistent contamination in the production plant. Although the drying process applied to beef jerky should guarantee the safety of the final product, the presence of multiresistant pathogenic microorganisms, presenting virulence genes, should be a matter of concern. Because beef jerky is a ready-to-eat product, a failure in the production process may cause such microorganisms to pose a public health risk.', 'The aim of this study is to trace the possible relations between the hygienic status of slicing utensils and the microbiological quality of pastrami.\nA total of 75 pastrami retail markets were visited in Kayseri, Turkey, where the pastrami (a ready-to-eat meat product) is commonly produced and consumed. Sliced pastrami, the cutting board and knife surface swabs were collected from each pastrami retail point to trace possible sources of contamination.\nSamples were analysed for the presence of total viable counts (TVC), total coliforms, Escherichia coli, members of Enterobacteriaceae, Staphylococcus aureus and Listeria spp. In addition, pastrami samples were analysed for sulphite-reducing Clostridium spp. and Toxoplasma gondii.\nWhen compared with the target values of related literatures, a total of 6 (8%) pastrami samples were found unsatisfactory as a result of TVC (5.3%), Enterobacteriaceae (5.3%), E. coli (2.6%), S. aureus (2.6%), Listeria spp. (2.6%) and Listeria monocytogenes (1.3%) contaminations. No T. gondii positivity was observed among the pastrami samples. None of the cutting board and knife surface swabs were found to harbour TVC level &gt;10\nMore emphasis needs to be placed for training of food handlers and to apply good hygienic practices at the point of pastrami sale. The conditions at retail points must be monitored and inspections should be tightened to protect public health.', 'Undercooked ground beef is regularly implicated in food-borne outbreaks involving pathogenic Shiga toxin-producing Escherichia coli. The dispersion of bacteria during mixing processes is of major concern for quantitative microbiological risk assessment since clustering will influence the number of bacteria the consumers might get exposed to as well as the performance of sampling plans used to detect contaminated ground beef batches. In this study, batches of 25kg of ground beef were manufactured according to a process mimicking an industrial-scale grinding with three successive steps: primary grinding, mixing and final grinding. The ground beef batches were made with 100% of chilled trims or with 2/3 of chilled trims and 1/3 of frozen trims. Prior grinding, one beef trim was contaminated with approximately 10']</t>
+          <t>['Even though a plethora of barriers are employed by the human gastrointestinal tract (GIT) to cope with invading pathogens, foodborne diseases are still a common problem. The survival of food pathogens in the GIT is known to depend on food carrier properties. The aim of this study was to investigate the influence of food buffering capacity and food structure on the survival of Salmonella Typhimurium and Listeria monocytogenes during simulated digestion, following contamination of different food model systems that had different combinations of fat and protein content. The results illustrated the strong protective properties of proteins, acting either as a strong buffering agent or as a physical barrier against gastric acidity, for both pathogens. In comparison, fat manifested a lower buffering capacity and weaker protective effects against the two pathogens. Intriguingly, a low fat content was often linked with increased microbial resistance. Nonetheless, both pathogens survived their transit through the simulated GIT in all cases, with S. Typhimurium exhibiting growth during intestinal digestion and L.monocytogenes demonstrating a healthy residual population at the end of the intestinal phase. These results corroborate the need for a deeper understanding regarding the mechanisms with which food affects bacterial survival in the human GIT.', 'According to Codex Alimentarius Commission recommendations, management options applied at the process production level should be based on good hygiene practices, HACCP system, and new risk management metrics such as the food safety objective. To follow this last recommendation, the use of quantitative microbiological risk assessment is an appealing approach to link new risk-based metrics to management options that may be applied by food operators. Through a specific case study, Listeria monocytogenes in soft cheese made from pasteurized milk, the objective of the present article is to practically show how quantitative risk assessment could be used to direct potential intervention strategies at different food processing steps. Based on many assumptions, the model developed estimates the risk of listeriosis at the moment of consumption taking into account the entire manufacturing process and potential sources of contamination. From pasteurization to consumption, the amplification of a primo-contamination event of the milk, the fresh cheese or the process environment is simulated, over time, space, and between products, accounting for the impact of management options, such as hygienic operations and sampling plans. A sensitivity analysis of the model will help orientating data to be collected prioritarily for the improvement and the validation of the model. What-if scenarios were simulated and allowed for the identification of major parameters contributing to the risk of listeriosis and the optimization of preventive and corrective measures.', 'According to Codex Alimentarius Commission recommendations, management options applied at the process production level should be based on good hygiene practices, HACCP system, and new risk management metrics such as the food safety objective. To follow this last recommendation, the use of quantitative microbiological risk assessment is an appealing approach to link new risk-based metrics to management options that may be applied by food operators. Through a specific case study, Listeria monocytogenes in soft cheese made from pasteurized milk, the objective of the present article is to practically show how quantitative risk assessment could be used to direct potential intervention strategies at different food processing steps. Based on many assumptions, the model developed estimates the risk of listeriosis at the moment of consumption taking into account the entire manufacturing process and potential sources of contamination. From pasteurization to consumption, the amplification of a primo-contamination event of the milk, the fresh cheese or the process environment is simulated, over time, space, and between products, accounting for the impact of management options, such as hygienic operations and sampling plans. A sensitivity analysis of the model will help orientating data to be collected prioritarily for the improvement and the validation of the model. What-if scenarios were simulated and allowed for the identification of major parameters contributing to the risk of listeriosis and the optimization of preventive and corrective measures.']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>["'noninoculated',", "'multiresistant']"]</t>
+          <t>Emerging food safety risk: The use of simulated time-temperature metrics for food storage and transportation, without proper calibration or consideration of real-world conditions, may lead to inadequate control of primo-contamination risks, potentially compromising food safety.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>'multiresistant']</t>
+          <t>["'simulated',", "'buffering',", "'orientating',", "'primocontamination',", "'prioritarily',", "'whatif']"]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>["['pastrami',", "'jerky',", "'beef',"]</t>
+          <t>'prioritarily',</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>The risk of multiresistant bacteria in beef products like pastrami and jerky poses a significant food safety concern, potentially leading to infections that are difficult to treat with standard antibiotics.</t>
+          <t>["['timetemperature',", "'git',", "'options',"]</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Improper time-temperature controls and inadequate simulation of potential contamination events can lead to primary contamination risks in food safety management.</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>952_cit_dhcit_secreted_citrinin</t>
+          <t>749_fluorescence_urine_hai_microfiber</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.002542931261448</v>
+        <v>0.0041236803151565</v>
       </c>
       <c r="C12" t="n">
-        <v>952</v>
+        <v>749</v>
       </c>
       <c r="D12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['cit', 'dhcit', 'secreted', 'citrinin', 'extraction', 'asiatic', 'tlc', 'dihydrocitrinone', '2461', 'germany']</t>
+          <t>['fluorescence', 'urine', 'hai', 'microfiber', 'masking', 'cloth', 'ward', 'hydrogen', 'fluorescencebased', 'headspace']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>['Mycotoxins are produced pre harvest by some molds and secreted into various food items of plant origin, such cereals, vegetables, spices, coffee and nuts. If the food items are not stored under adequate conditions, a post harvest contamination may also occur. Animals and humans take them up by food items and some of them are stored and accumulated in different tissues and organs, so that food of animal origin may be contaminated, too. Especially aflatoxin and ochratoxin are secreted into milk by consumers of contaminated food. Since milk represents the major food source of newborns and infants, they are notably exposed to these mycotoxins. This health risk for these individuals may be of particular importance, because their ability to metabolize these fungal toxic agents is not yet fully developed at this stage.', 'Citrinin (CIT), a mycotoxin known to exert nephrotoxicity, is a contaminant in food and feed. Since CIT contamination is not regularly analyzed, data on its occurrence and especially levels in food commodities are insufficient for conducting a conventional exposure assessment. Yet, human biomonitoring, i.e., an analysis of CIT and its metabolite dihydrocitrinone (DH-CIT) in urine samples allows to estimate exposure. This study investigated CIT exposure in young (2-14 years) and adult (24-61 years) residents of three federal states in Germany. A total of 179 urine samples from children and 142 from adults were collected and analyzed by a targeted LC-MS/MS based method for presence of CIT and DH-CIT. At least one of the biomarkers was detected and quantified in all urines, which indicated a widespread dietary exposure to the mycotoxin in Germany. Interestingly, the biomarker concentrations of CIT', 'Citrinin (CIT) deserves attention due to its known toxic effects in mammalian species and its widespread occurrence in food commodities, often along with ochratoxin A, another nephrotoxic mycotoxin. Human exposure, a key element in assessing risk related to food contaminants, depends upon mycotoxin contamination levels in food and on food consumption. Commercial supplements, commonly designated as red rice, usually used in daily diets in Asiatic countries due to their medicinal properties, may pose a health problem as a result of high CIT levels. In addition to the worldwide occurrence of CIT in foods and supplements, a wide range of several analytical and detection techniques with high sensitivity, used for evaluation of CIT, are reviewed and discussed in this manuscript. This review addresses the scientific literature regarding the presence of CIT in foods of either vegetable or animal origin, as well as in supplements. On what concerns analytical methodologies, sample extraction methods, such as shaking extraction and ultrasonic assisted extraction (UAE), clean-up methods, such as liquid-liquid extraction (LLE), solid phase extraction (SPE) and Quick, Easy, Cheap, Effective, Rugged and Safe (QuECHERS), and detection and quantification methods, such as thin layer chromatography (TLC), high performance liquid chromatography (HPLC), capillary electrophoresis (CE), biosensors, and ELISA, are also reviewed.']</t>
+          <t>['A novel straightforward analytical technique was developed to monitor the emission of hydrogen from anaerobic bacteria cultured in sealed headspace vials using a specific hydrogen sensor. The results were compared with headspace gas chromatography carried out in parallel. This technique was also applied to investigate the efficacy of chemical antibiotics and of natural compounds with antimicrobial properties. Antibiotics added to the sample cultures are apparently effective if the emission of hydrogen is suppressed, or if not, are either ineffective or the related bacteria are even resistant. The sensor approach was applied to prove bacterial contamination in food, animals, medical specimens and in ticks infected by ', 'Hygiene hypothesis and sanitization are two important pivots of modern civilization. The drinking water should be free from urine and stool contamination. Coliform test is popular for understanding feces contamination. However, understanding urine contamination in drinking water is a difficult task. On the other hand, urine contamination can cause disease like leptospirosis. It occurs mainly in animals and infects humans through contaminated water, food, and soil and causes serious consequences. Rat urine is the most common source of such disease outbreaks. Further, sophisticated laboratories with high-end technologies may not be present at the site of disease outbreaks. In this context, we have proposed a spectrofluorimetric approach to screen urine contamination in water. The screening method can sense up to 156 nl/ml of rat urine.', 'Healthcare-associated infections (HCAI/HAI) represent a substantial threat to patient health during hospitalization and incur billions of dollars additional cost for subsequent treatment. One promising method for the detection of bacterial contamination in a clinical setting before an HAI outbreak occurs is to exploit native fluorescence of cellular molecules for a hand-held, rapid-sweep surveillance instrument. Previous studies have shown fluorescence-based detection to be sensitive and effective for food-borne and environmental microorganisms, and even to be able to distinguish between cell types, but this powerful technique has not yet been deployed on the macroscale for the primary surveillance of contamination in healthcare facilities to prevent HAI. Here we report experimental data for the specification and design of such a fluorescence-based detection instrument. We have characterized the complete fluorescence response of eleven clinically-relevant bacteria by generating excitation-emission matrices (EEMs) over broad wavelength ranges. Furthermore, a number of surfaces and items of equipment commonly present on a ward, and potentially responsible for pathogen transfer, have been analyzed for potential issues of background fluorescence masking the signal from contaminant bacteria. These include bedside handrails, nurse call button, blood pressure cuff and ward computer keyboard, as well as disinfectant cleaning products and microfiber cloth. All examined bacterial strains exhibited a distinctive double-peak fluorescence feature associated with tryptophan with no other cellular fluorophore detected. Thus, this fluorescence survey found that an emission peak of 340nm, from an excitation source at 280nm, was the cellular fluorescence signal to target for detection of bacterial contamination. The majority of materials analysed offer a spectral window through which bacterial contamination could indeed be detected. A few instances were found of potential problems of background fluorescence masking that of bacteria, but in the case of the microfiber cleaning cloth, imaging techniques could morphologically distinguish between stray strands and bacterial contamination.']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging Risk: The use of fluorescence-based methods to detect contaminants in food processing environments, such as microfiber particles from cleaning cloths or masks, may pose a food safety risk due to potential contamination from these materials.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>'germany']</t>
+          <t>["'masking',", "'headspace']"]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>["['cit',", "'dhcit',", "'secreted',"]</t>
+          <t>'masking',</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>The presence of "cit", "dhcit", and "secreted" suggests a focus on citrinin, dihydrocitrinone, and secreted mycotoxins. The risk term "Germany" could indicate concerns about the contamination of food products with these mycotoxins in Germany.
-Output: The risk of food products in Germany being contaminated with citrinin and dihydrocitrinone, secreted by certain molds, poses significant food safety concerns.</t>
+          <t>["['fluorescence',", "'urine',", "'hai',"]</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>The presence of masking agents and headspace analysis issues can interfere with fluorescence-based detection of contaminants in urine samples, potentially compromising the accuracy of Hospital Acquired Infection (HAI) diagnostics.</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>415_ntm_mycobacterium_mycobacteria_filters</t>
+          <t>548_house_flies_mandibular_microbe</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0026407657466818</v>
+        <v>0.0042077515910142</v>
       </c>
       <c r="C13" t="n">
-        <v>415</v>
+        <v>548</v>
       </c>
       <c r="D13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['ntm', 'mycobacterium', 'mycobacteria', 'filters', 'fortuitum', 'nontuberculous', 'paratuberculosis', 'wisconsin', 'avium', 'tank']</t>
+          <t>['house', 'flies', 'mandibular', 'microbe', 'glands', 'caterpillars', 'volatiles', 'labial', 'immune', 'insect']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>['Nontuberculous mycobacteria (NTM) are potentially pathogenic agents commonly found in a natural ecosystem. For this reason, food is considered another source of NTM transmission for humans. The aims of this study were to evaluate the microbiological quality and the occurrence of NTM in fresh-squeezed orange juice samples purchased from street vendors. All 102 samples analyzed were positive for aerobic mesophilic bacteria (AMB), with limits ranging from 1.8 to 6.2 log CFU/ml. A total of 55 (54%), 25 (25%), and 13 (13%) orange juice samples were positive for total coliforms (TC), fecal coliforms (FC), and Escherichia coli , respectively. TC, FC, and E. coli were present with limits ranging from &lt;3 to &gt;1,100 most probable number (MPN)/ml, &lt;3 to 460 MPN/ml, and &lt;3 to 11 MPN/ml, respectively. Six orange juice samples harbored NTM. These NTM were identified by using three molecular markers (hsp65, rrs, and rpoB genes) and corresponded to the fast-growing mycobacteria: Mycobacterium fortuitum (n = 3), Mycobacterium rhodesiae (n = 1), Mycobacterium obuense (n = 1), and a mixture of M. fortuitum and Mycobacterium mucogenicum in an additional sample (n = 1). No correlation was found between the presence NTM in orange juice samples with the presence and concentration of the indicator microorganisms (aerobic mesophilic bacteria, TC, and FC). Overall, these results suggest that fresh-squeezed orange juice might represent a vehicle for NTM transmission in humans. Therefore, prevention of contamination by humans (proper handling and washing of oranges) during juice preparation should be recommended.', 'Nontuberculous mycobacteria (NTM) compose a group of mycobacteria that do not belong to the Mycobacterium tuberculosis complex group. They are frequently isolated from environmental samples such as water, soil, and, to a lesser extent, food samples. Isolates of NTM represent a major health threat to humans worldwide, especially those who have asthma or are immunocompromised. Human disease is acquired from environmental exposures and through consumption of NTM-contaminated food. The most common clinical manifestation of NTM disease in human is lung disease, but lymphatic, skin and soft tissue, and disseminated disease are also important. The main objective of the current study was to profile the farm-level contamination of cow milk with NTM by examining milk filters and bulk tank milk samples. Five different NTM species were isolated in one dairy herd in Wisconsin, with confirmed 16S rRNA genotypes including Mycobacterium fortuitum, Mycobacterium avium ssp. hominissuis, Mycobacterium abscessus, Mycobacterium simiae, and Mycobacterium avium ssp. paratuberculosis (Mycobacterium paratuberculosis). In tank milk samples, M. fortuitum was the predominant species in 48% of the samples, whereas M. chelonae/abscessus and M. fortuitum were the only 2 species obtained from 77 and 23% of the examined filters, respectively. Surprisingly, M. avium ssp. hominissuis, M. paratuberculosis, and M. simiae were isolated from 16.7, 10.4, and 4% of the examined milk samples, respectively, but not from milk filters. Interestingly, NTM isolates from human clinical cases in Wisconsin clustered very closely with those from milk samples. These findings suggest that the problem of NTM contamination is underestimated in dairy herds and could contribute to human infections with NTM. Overall, the study validates the use of bulk tank samples rather than milk filters to assess contamination of milk with NTM. Nontuberculous mycobacteria represent one type of pathogens that extensively contaminate raw milk at the farm level. The significance of our research is in evaluating the existence of NTM at the farm level and identifying a simple approach to examine the potential milk contamination with NTM members using tank milk or milk filters from dairy operations. In addition, we attempted to examine the potential link between NTM isolates found in the farm to those circulating in humans in Wisconsin.', 'Nontuberculous mycobacteria (NTM) compose a group of mycobacteria that do not belong to the Mycobacterium tuberculosis complex group. They are frequently isolated from environmental samples such as water, soil, and, to a lesser extent, food samples. Isolates of NTM represent a major health threat to humans worldwide, especially those who have asthma or are immunocompromised. Human disease is acquired from environmental exposures and through consumption of NTM-contaminated food. The most common clinical manifestation of NTM disease in human is lung disease, but lymphatic, skin and soft tissue, and disseminated disease are also important. The main objective of the current study was to profile the farm-level contamination of cow milk with NTM by examining milk filters and bulk tank milk samples. Five different NTM species were isolated in one dairy herd in Wisconsin, with confirmed 16S rRNA genotypes including Mycobacterium fortuitum, Mycobacterium avium ssp. hominissuis, Mycobacterium abscessus, Mycobacterium simiae, and Mycobacterium avium ssp. paratuberculosis (Mycobacterium paratuberculosis). In tank milk samples, M. fortuitum was the predominant species in 48% of the samples, whereas M. chelonae/abscessus and M. fortuitum were the only 2 species obtained from 77 and 23% of the examined filters, respectively. Surprisingly, M. avium ssp. hominissuis, M. paratuberculosis, and M. simiae were isolated from 16.7, 10.4, and 4% of the examined milk samples, respectively, but not from milk filters. Interestingly, NTM isolates from human clinical cases in Wisconsin clustered very closely with those from milk samples. These findings suggest that the problem of NTM contamination is underestimated in dairy herds and could contribute to human infections with NTM. Overall, the study validates the use of bulk tank samples rather than milk filters to assess contamination of milk with NTM. Nontuberculous mycobacteria represent one type of pathogens that extensively contaminate raw milk at the farm level. The significance of our research is in evaluating the existence of NTM at the farm level and identifying a simple approach to examine the potential milk contamination with NTM members using tank milk or milk filters from dairy operations. In addition, we attempted to examine the potential link between NTM isolates found in the farm to those circulating in humans in Wisconsin.']</t>
+          <t>['Insect pests cause serious economic, yield, and food safety problems to managed crops worldwide. Compounding these problems, insect pests often vector pathogenic or toxigenic microbes to plants. Previous work has considered plant-insect and plant-microbe interactions separately. Although insects are well-understood to use plant volatiles to locate hosts, microorganisms can produce distinct and abundant volatile compounds that in some cases strongly attract insects. In this paper, we focus on the microbial contribution to plant volatile blends, highlighting the compounds emitted and the potential for variation in microbial emission. We suggest that these aspects of microbial volatile emission may make these compounds ideal for use in agricultural applications, as they may be more specific or enhance methods currently used in insect control or monitoring. Our survey of microbial volatiles in insect-plant interactions suggests that these emissions not only signal host suitability but may indicate a distinctive time frame for optimal conditions for both insect and microbe. Exploitation of these host-specific microbe semiochemicals may provide important microbe- and host-based attractants and a basis for future plant-insect-microbe chemical ecology investigations.', 'More than half of the proteome from mandibular glands in caterpillars is represented by chemosensory proteins. Based on sequence similarity, these proteins are putative transporters of ligands to gustatory receptors in sensory organs of insects. We sought to determine whether these proteins are inducible by comparing, both qualitatively and quantitatively, the salivary (mandibular and labial) proteomes from caterpillars (Vanessa cardui) reared on different plants and artificial diet containing either bacteria or bacterial cell-walls. We included a treatment where the caterpillars were switched from feeding on artificial diet to plant material at some point in their development. Additionally, we evaluated the degree of overlap between the proteomes in the hemolymph-filled coelom and salivary glands of caterpillars reared on plant material. We found that the quality and quantity of the identified proteins differed clearly between hemolymph-filled coelome, labial and mandibular glands. Our results indicated that even after molting and two-day feeding on a new diet, protein production is affected by the previous food source used by the caterpillar. Candidate proteins involved in chemosensory perception by insects were detected: three chemosensory (CSPs) and two odorant-binding proteins (OBPs). Using the relative amounts of these proteins across tissues and treatments as criteria for their classification, we detected hemolymph- and mandibular gland-specific CSPs and observed that their levels were affected by caterpillar diet. Moreover, we could compare the protein and transcript levels across tissues and treatment for at least one CSP and one OBP. Therefore, we have identified specific isoforms for testing the role of CSPs and OBPs in plant and pathogen recognition. We detected catalase, immune-related protein and serine proteases and their inhibitors in high relative levels in the mandibular glands in comparison to the labial glands. These findings suggest that the mandibular glands of caterpillars may play an important role protecting the caterpillar from oxidative stress, pathogens and aiding in digestion. Contamination with hemolymph proteins during dissection of salivary glands from caterpillars may occur but it is not substantial since the proteomes from hemolymph, mandibular and labial glands were easily discriminated from each other by principal component analysis of proteomic data.', 'House flies are of major concern as vectors of food-borne pathogens to food crops. House flies are common pests on cattle feedlots and dairies, where they develop in and feed on animal waste. By contacting animal waste, house flies can acquire human pathogenic bacteria such as Escherichia coli and Salmonella spp., in addition to other bacteria, viruses, or parasites that may infect humans and animals. The subsequent dispersal of house flies from animal facilities to nearby agricultural fields containing food crops may lead to pre-harvest food contamination with these pathogens. We hypothesized that odors from honeydew, the sugary excreta produced by sucking insects feeding on crops, or molds and fungi growing on honeydew, may attract house flies, thereby increasing the risk of food crop contamination. House fly attraction to honeydew-contaminated plant material was evaluated using a laboratory bioassay. House flies were attracted to the following plant-pest-honeydew combinations: citrus mealybug on squash fruit, pea aphid on faba bean plants, whitefly on navel orange and grapefruit leaves, and combined citrus mealybug and cottony cushion scale on mandarin orange leaves. House flies were not attracted to field-collected samples of lerp psyllids on eucalyptus plants or aphids on crepe myrtle leaves. Fungi associated with field-collected honeydews were isolated and identified for further study as possible emitters of volatiles attractive to house flies. Two fungal species, Aureobasidium pullulans and Cladosporium cladosporioides, were repeatedly isolated from field-collected honeydew samples. Both fungal species were grown in potato dextrose enrichment broth and house fly attraction to volatiles from these fungal cultures was evaluated. House flies were attracted to odors from A. pullulans cultures but not to those of C. cladosporioides. Identification of specific honeydew odors that are attractive to house flies could be valuable for the development of improved house fly baits for management of this pest species.']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>["'filters',", "'wisconsin',"]</t>
+          <t>Emerging food safety risk: House flies can transfer microbes from their mandibular and labial glands to food surfaces, posing a potential contamination risk and triggering foodborne illnesses.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>'wisconsin',</t>
+          <t>["'volatiles',"]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>["['ntm',", "'mycobacterium',", "'mycobacteria',"]</t>
+          <t>'volatiles',</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Non-tuberculous mycobacteria (NTM) infections in Wisconsin may pose significant health risks due to the presence of Mycobacterium species in the environment, potentially leading to respiratory illnesses and other infections in the population.</t>
+          <t>["['house',", "'flies',", "'mandibular',"]</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>House flies, through their mandibular activity, can be attracted to and spread harmful microorganisms via volatiles emitted from decomposing organic matter, posing a significant risk to food safety.</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>959_wasteland_woodland_ptes_urhynchophylla</t>
+          <t>633_iso_166542001_cen_en</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0030612244897959</v>
+        <v>0.0060240963855421</v>
       </c>
       <c r="C14" t="n">
-        <v>959</v>
+        <v>633</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['wasteland', 'woodland', 'ptes', 'urhynchophylla', 'rhynchophylla', 'castor', 'usepa', 'hook', 'statelevel', 'croplandwoodlandwasteland']</t>
+          <t>['iso', '166542001', 'cen', 'en', 'mandate', 'validation', 'm381', 'interlaboratory', 'sprouts', 'participating']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>['Potentially toxic elements (PTEs) pollution is the fastest growing concern around the entire globe especially in developing countries. Rapid industrialization and urbanization are the dominant sources of anthropogenic soil-food chain contamination with PTEs. The intent of current study was to investigate the interactive levels of Cu, Fe, Mn, Ni, Pb, and Zn in soil and their accumulation in wheat (Triticum aestivum L.) samples collected from 96 sites including industrial, urban, and peri-urban areas of a leading multi-industrialized center (Faisalabad) of Pakistan. According to results obtained from present study, non-carcinogenic (HQ) and life-time carcinogenic risks (CR) of the PTEs to the local inhabitants were estimated following the risk assessment modals proposed by the US-EPA. With respect to estimated HQ for chronic non-carcinogenic risk of Mn, Ni, and Pb, higher potential hazards were observed as compared to Cu, Fe, and Zn. Meanwhile, the carcinogenic risk of Ni marginally exceeded the limit described by US-EPA for adults. Overall, the health risks of PTEs with the consumption of wheat were lower than the limits described by US-EPA except for Ni. However, continuous consumption of this PTEs contaminated food may result the potential buildup of poisonousness and various disorders in humans. Therefore, long-term monitoring and gastrointestinal bio-accessibility studies are requisite for the safety of humans under such conditions.', 'Soils impacted by metallurgy activities pose serious risks to the health of exposed populations, whether by ingestion of soil or contaminated food and water. The municipality of Santo Amaro, Bahia state, presents the most important case of human lead contamination in Brazil. It occurred because of inadequate slag disposal. The aims of this research were to: (i) determine the environmentally available concentrations and the distribution of As, Cd, Pb, and Zn in soil fractions; (ii) estimate the non-carcinogenic and carcinogenic risks of these elements for children; and (iii) to evaluate the use of corn (Zea mays) and castor bean (Ricinus communis) either for phytoextraction induced by chelating agents or phytostabilization. Our data demonstrated that the environmentally available concentrations of As, Cd, Pb, and Zn in soils surrounding the Pb smelting plant are among the highest that have been reported. Apart from Cd, sequential extraction demonstrated that most metals are in recalcitrant forms in the soil. However, the daily exposure of children to Pb, Zn, Cd, and As exceeded the acceptable daily intake as established by the World Health Organization. Non-carcinogenic risk modeling indicated probable adverse health effects from chronic exposure to soil Pb. The mean estimated time for remediation of the area using phytoextraction was high, ranging from 76 to 259 years; therefore, this is not a viable alternative for remediating soils in the studied area. However, good development in the contaminated soil along with restriction of the metal(oid) translocation to shoots enables castor bean to phytostabilize metal(oid)s. Additionally, castor bean cultivation may be an alternative for an economic return because of biofuel production.', 'Soil and Uncaria rhynchophylla in different functional areas were selected for the study,the content of heavy metals such as As, Cd, Cu, Cr, Pb, and Hg in soil and U. rhynchophylla was discussed, the characteristics of their accumulation in the U.rhynchophylla was analyzed, the contamination levels of heavy metals in soil in different functional areas was evaluated. The results showed that content of Cu, As, Pb and Cr in soil was being cropland&gt;woodland&gt;wasteland, content of Cd was being woodland&gt;cropland&gt;wasteland, content of Hg was being cropland&gt;woodland&gt;wasteland. According to quality standard of soil environment, soil Cd in woodland, cropland and wasteland all exceeded the state-level standards, soil Cd in woodland exceeded the secondary standard, soil Hg in cropland and wasteland all exceeded the state-level standards. According to technical conditions of green food producing area, soil Cd in woodland exceeded the limit value of standard. According to Green Trade Standards of Importing Exporting Medicinal Plants Preparations,the content of heavy metals of U.rhynchophylla in cropland,woodland and wasteland were correspond to the specification. From the single factor pollution index, the soil in woodland was polluted by Cd. From the comprehensive pollution index, the soils in different functional areas were not contaminated by heavy metals. The enrichment coefficient of heavy metals such as As, Cu, Cr, and Pb in hook of U.rhynchophylla was being wasteland&gt;woodland&gt;cropland, the enrichment coefficient of Cu in hook of U. rhynchophylla in wasteland was more than 1. Except Cu, the enrichment coefficient of other heavy metals was low.']</t>
+          <t>['The European and International Standard method for the detection of Salmonella spp. in samples from the primary production stage, EN ISO 6579:2002/Amd.1:2007, was validated by an interlaboratory study in the frame of Mandate M/381, ordered by the European Commission and accepted by the European Standardisation Organisation (CEN). In addition to this study, results from two interlaboratory studies organised earlier by the European Union Reference Laboratory (EURL) for Salmonella were used for determination of the performance characteristics. Parallel to the performance evaluation for the Mandate, the revision of EN ISO 6579:2002 started. Part of this revision was the incorporation of the standardised method for detection of Salmonella in samples from the primary production stage (EN ISO 6579:2002/Amd.1:2007) and its performance characteristics in the new part 1 of EN ISO 6579. The 2002 version of EN ISO 6579 already contained performance characteristics for the detection of Salmonella in food samples, but LOD', 'In 2006, the European Committee for standardisation (CEN)/Technical Committee 275 - Food analysis - Horizontal methods/Working Group 6 - Microbiology of the food chain (TC275/WG6), launched the project of validating the method ISO 16654:2001 for the detection of Escherichia coli O157 in foodstuff by the evaluation of its performance, in terms of sensitivity and specificity, through collaborative studies. Previously, a validation study had been conducted to assess the performance of the Method No 164 developed by the Nordic Committee for Food Analysis (NMKL), which aims at detecting E. coli O157 in food as well, and is based on a procedure equivalent to that of the ISO 16654:2001 standard. Therefore, CEN established that the validation data obtained for the NMKL Method 164 could be exploited for the ISO 16654:2001 validation project, integrated with new data obtained through two additional interlaboratory studies on milk and sprouts, run in the framework of the CEN mandate No. M381. The ISO 16654:2001 validation project was led by the European Union Reference Laboratory for Escherichia coli including VTEC (EURL-VTEC), which organized the collaborative validation study on milk in 2012 with 15 participating laboratories and that on sprouts in 2014, with 14 participating laboratories. In both studies, a total of 24 samples were tested by each laboratory. Test materials were spiked with different concentration of E. coli O157 and the 24 samples corresponded to eight replicates of three levels of contamination: zero, low and high spiking level. The results submitted by the participating laboratories were analyzed to evaluate the sensitivity and specificity of the ISO 16654:2001 method when applied to milk and sprouts. The performance characteristics calculated on the data of the collaborative validation studies run under the CEN mandate No. M381 returned sensitivity and specificity of 100% and 94.4%, respectively for the milk study. As for sprouts matrix, the sensitivity resulted in 75.9% in the low level of contamination samples and 96.4% in samples spiked with high level of E. coli O157 and specificity was calculated as 99.1%.', 'In 2006, the European Committee for standardisation (CEN)/Technical Committee 275 - Food analysis - Horizontal methods/Working Group 6 - Microbiology of the food chain (TC275/WG6), launched the project of validating the method ISO 16654:2001 for the detection of Escherichia coli O157 in foodstuff by the evaluation of its performance, in terms of sensitivity and specificity, through collaborative studies. Previously, a validation study had been conducted to assess the performance of the Method No 164 developed by the Nordic Committee for Food Analysis (NMKL), which aims at detecting E. coli O157 in food as well, and is based on a procedure equivalent to that of the ISO 16654:2001 standard. Therefore, CEN established that the validation data obtained for the NMKL Method 164 could be exploited for the ISO 16654:2001 validation project, integrated with new data obtained through two additional interlaboratory studies on milk and sprouts, run in the framework of the CEN mandate No. M381. The ISO 16654:2001 validation project was led by the European Union Reference Laboratory for Escherichia coli including VTEC (EURL-VTEC), which organized the collaborative validation study on milk in 2012 with 15 participating laboratories and that on sprouts in 2014, with 14 participating laboratories. In both studies, a total of 24 samples were tested by each laboratory. Test materials were spiked with different concentration of E. coli O157 and the 24 samples corresponded to eight replicates of three levels of contamination: zero, low and high spiking level. The results submitted by the participating laboratories were analyzed to evaluate the sensitivity and specificity of the ISO 16654:2001 method when applied to milk and sprouts. The performance characteristics calculated on the data of the collaborative validation studies run under the CEN mandate No. M381 returned sensitivity and specificity of 100% and 94.4%, respectively for the milk study. As for sprouts matrix, the sensitivity resulted in 75.9% in the low level of contamination samples and 96.4% in samples spiked with high level of E. coli O157 and specificity was calculated as 99.1%.']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>["'hook',"]</t>
+          <t>Emerging food safety risk: The need for standardized validation methods for detecting contaminants in sprouts, as indicated by the ISO and CEN mandates, highlights a potential risk of inconsistent safety assessments across laboratories, potentially leading to undetected foodborne pathogens in sprout products.</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>'hook',</t>
+          <t>["'sprouts',", "'participating']"]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>["['wasteland',", "'woodland',", "'ptes',"]</t>
+          <t>'sprouts',</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>The presence of hooks in wasteland and woodland areas poses a risk of physical injury during food foraging and harvesting activities, potentially leading to contamination of food products with pathogens from open wounds.</t>
+          <t>["['iso',", "'166542001',", "'cen',"]</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>The risk of consuming sprouts that do not adhere to ISO 16654:2001 (CEN) standards can lead to potential foodborne illnesses due to contamination with harmful bacteria such as E. coli O157:H7.</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>687_ice_packaged_premises_isb</t>
+          <t>829_fnu_racks_boards_cutting</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0030247285470119</v>
+        <v>0.0045180722891566</v>
       </c>
       <c r="C15" t="n">
-        <v>687</v>
+        <v>829</v>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['ice', 'packaged', 'premises', 'isb', 'onsite', 'coolant', 'piqcs', 'phuoc', 'staff', 'binh']</t>
+          <t>['fnu', 'racks', 'boards', 'cutting', 'hygienic', 'construction', 'sanitary', 'adhesion', 'equipment', 'refrigerators']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>["Ice is widely used in the food industry, as an ingredient (edible ice) directly added to food or as a coolant (food-contact ice) for fresh food preservation along the cold chain. However, it has been shown that food-contact ice are easily polluted by pathogens, potentially endangering the public's health. In the present study, the hygiene status of food-contact ice collected from various sources (local farmer markets, supermarkets, and restaurants) was evaluated through the quantitative estimation of total bacterial counts and coliform counts as well as the prevalence of foodborne pathogenic bacteria (Staphylococcus aureus, Vibrio parahaemolyticus, Salmonella, Listeria monocytogenes, Shigella). The average levels of total bacterial counts in the ice for preserving the aquatic products, poultry meat and livestock meat are 4.88, 4.18 and 6.11 log", 'Ice is defined as a food and is frequently used in direct contact with food and beverages. Packaged ice is commercially produced and can be easily found in grocery and convenience stores. However, the quality and safety of packaged ice products is not consistent. The Packaged Ice Quality Control Standards manual (PIQCS) published by the International Packaged Ice Association provides the quality and processing standards for packaged ice produced by its members. Packaged ice produced on the premise of stores (on-site packaged ice) is not required to be in compliance with these standards. In this study, packaged ice produced by manufacturing plants or by in-store bagger (ISB) machines and on-site packaged ice were compared for their microbiological quality and microbial diversity. Our results revealed that 19% of the 120 on-site packaged ice samples did not meet the PIQCS microbial limit of 500 CFU/mL (or g) and also the absence of coliforms and Escherichia coli . Staphylococci were found in 34% of the on-site packaged ice samples, most likely through contamination from the packaging workers. None of the ISB and manufactured packaged ice samples had unacceptable microbial levels, and all were devoid of staphylococci. Salmonella was absent in all samples analyzed in this study. Microbial community analysis of ice based on 16S/18S rRNA targeted sequencing revealed a much higher microbial diversity and abundance in the on-site packaged ice than in the ISB ice. Proteobacteria, especially Alphaproteobacteria and Betaproteobacteria, were the dominant bacterial groups in all samples tested. Most of these bacteria were oligotrophic; however, a few opportunistic or potential pathogens were found at low levels in the on-site packaged ice but not in the ISB packaged ice. The types of microbes identified may provide information needed to investigate potential sources of contamination. Our data also suggest a need for enforcement of processing standards during the on-site packaging of ice.', 'Ice is used in large quantities as refreshment in alcoholic and nonalcoholic beverages, especially in summer time. Contamination of edible ice products with pathogens is a public health concern in various countries, including Vietnam. This study aimed to assess the food safety conditions, the quality of edible ice products and related factors at manufacturing premises in Binh Phuoc Province, Vietnam in 2019.\nA cross-sectional study was conducted in 2019 using both quantitative and qualitative methods. Food safety assessment was carried out in all 45 ice producing premises in the province and 79 ice samples were collected and analyzed microbiologically. In-depth interviews were conducted with 2 food safety management staff, 4 owners of premises, and 4 workers.\nOnly 22.4% (18/79) and 37.8% (30/79) of the premises met requirement for food safety conditions and microbiological food safety requirements, respectively. Half of the ice samples, 51.9% (41/79), were contaminated, 49.4% (39/79) with \nThe food safety conditions and the quality of ice cubes at manufacturing premises in Binh Phuoc Province were not acceptable. Hygiene deficiencies in ice producing and handling processes, inadequate knowledge of staff, inadequate food safety management practices, and hygiene conditions of the premises were important factors in producing contaminated ice products. We recommend more staff training and crediting the staff when performing adequate practices, paying attention to broken floors or difficulty in cleaning, structural deficiency, and ensuring regular monitoring of premises. This study adds a special interest to ensure food safety conditions at ice producing premises to prevent microbial contamination of the products.']</t>
+          <t>['Providing safe food products to the consumer depends on the material and technology used and adherence to hygienic practices, throughout the production process. The degree of microbial contamination of a surface is an important indicator of equipment cleanliness and effectiveness of cleaning and disinfection. Used material, construction solutions and quality of the applied devices also have an effect on hygienic status.\nThe objective of the present study was to evaluate the influence of the design and construction material of selected food storage racks, available on the Polish market, on their hygienic status.\nThe study was based on determination of the capability of microbial growth on the surface of the racks and the effectiveness of their cleaning. Microbiological cleanliness on the surface of the racks was monitored by the contact plates which are able to estimate the total number of icroorganisms. Examination of effectiveness of cleaning was conducted by the use of ATP bioluminescence method.\nThis experiment has proven a significant influence of adopted construction solutions on the hygienic status of the examined racks. Presence of antibacterial layer and a choice of the appropriate construction material characterized by a low surface roughness impedes the microbial growth and increases the effectiveness of cleaning.\nDesign solutions have significant impact on the hygienic status of shelves. Selection of a suitable material for the construction of racks can greatly reduce the possibility of the development of microorganism, despite the low efficiency of the cleaning. The application of antimicrobial coatings inhibits microbial growth.', 'The hygienic and sanitary control in Food and Nutrition Units (FNU) is considered a standard procedure to produce adequate meals and reduce the risk of foodborne diseases and hospital infections. This study aimed to evaluate the isolation and identification of bacteria from equipment and food contact surfaces in a hospital FNU as well as to evaluate the sanitary condition. Likewise, it was analyzed the adhesion of the microorganisms on polyethylene cutting boards. The presence of aerobic mesophilic microorganisms, yeasts, molds, coagulase-positive staphylococci, coliform and fecal coliform, and Escherichia coli were analyzed on eating tables, countertop surfaces and cutting boards used for meat or vegetable handling, and equipment such as microwaves and refrigerators. The molecular identification it was done by 16S rRNA gene sequencing. The adhesion of the microorganisms (biofilm formation) on meat and vegetable cutting boards was also evaluated by scanning electron microscopy. The results showed high numbers of all microorganisms, except for E. coli , which was not observed in the samples. The molecular analysis identified species of the Enterobacteriaceae family and species of the Pseudomonadaceae family. Scanning electron microscopy analyses revealed bacterial adhesion on the cutting board surfaces. The results obtained in this study indicated that the hygienic conditions of surfaces like plastic cutting boards and equipment in this hospital FNU were inadequate. The achievement and application of standard operating procedures could positively help in the standardization of sanitary control, reducing the microbial contamination and providing a safe food to hospitalized patients.', 'The hygienic and sanitary control in Food and Nutrition Units (FNU) is considered a standard procedure to produce adequate meals and reduce the risk of foodborne diseases and hospital infections. This study aimed to evaluate the isolation and identification of bacteria from equipment and food contact surfaces in a hospital FNU as well as to evaluate the sanitary condition. Likewise, it was analyzed the adhesion of the microorganisms on polyethylene cutting boards. The presence of aerobic mesophilic microorganisms, yeasts, molds, coagulase-positive staphylococci, coliform and fecal coliform, and Escherichia coli were analyzed on eating tables, countertop surfaces and cutting boards used for meat or vegetable handling, and equipment such as microwaves and refrigerators. The molecular identification it was done by 16S rRNA gene sequencing. The adhesion of the microorganisms (biofilm formation) on meat and vegetable cutting boards was also evaluated by scanning electron microscopy. The results showed high numbers of all microorganisms, except for E. coli , which was not observed in the samples. The molecular analysis identified species of the Enterobacteriaceae family and species of the Pseudomonadaceae family. Scanning electron microscopy analyses revealed bacterial adhesion on the cutting board surfaces. The results obtained in this study indicated that the hygienic conditions of surfaces like plastic cutting boards and equipment in this hospital FNU were inadequate. The achievement and application of standard operating procedures could positively help in the standardization of sanitary control, reducing the microbial contamination and providing a safe food to hospitalized patients.']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: Improper cleaning and maintenance of cutting boards, racks, and other food preparation equipment can lead to bacterial adhesion and contamination, posing a significant risk of foodborne illnesses.</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>'binh']</t>
+          <t>["'hygienic',"]</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>["['ice',", "'packaged',", "'premises',"]</t>
+          <t>'hygienic',</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Improper handling and storage of ice on premises, including contamination from containers (such as 'binh'), can lead to the spread of foodborne pathogens and compromise food safety.</t>
+          <t>["['fnu',", "'racks',", "'boards',"]</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Inadequate hygienic practices in the cleaning and maintenance of food preparation surfaces such as FNU racks and boards can lead to contamination and increase the risk of foodborne illnesses.</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1178_urine_rat_nlml_spectrofluorimetric</t>
+          <t>826_micelles_ttcp_controllable_thymol</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.0040245440701357</v>
+        <v>0.0045180722891566</v>
       </c>
       <c r="C16" t="n">
-        <v>1178</v>
+        <v>826</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['urine', 'rat', 'nlml', 'spectrofluorimetric', 'smart', 'toxincontaminated', 'antinutrients', 'pivots', 'leptospirosis', 'civilization']</t>
+          <t>['micelles', 'ttcp', 'controllable', 'thymol', 'cpms', 'rosinducing', 'payloads', 'exterior', 'waterinsoluble', 'formulation']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>['Pathogen and toxin-contaminated foods and beverages are a major source of illnesses, even death, and have a significant economic impact worldwide. Human health is always under a potential threat, including from biological warfare, due to these dangerous pathogens. The agricultural and food production chain consists of many steps such as harvesting, handling, processing, packaging, storage, distribution, preparation, and consumption. Each step is susceptible to threats of environmental contamination or failure to safeguard the processes. The production process can be controlled in the food and agricultural sector, where smart sensors can play a major role, ensuring greater food quality and safety by low cost, fast, reliable, and profitable methods of detection. Techniques for the detection of pathogens and toxins may vary in cost, size, and specificity, speed of response, sensitivity, and precision. Smart sensors can detect, analyse and quantify at molecular levels contents of different biological origin and ensure quality of foods against spiking with pesticides, fertilizers, dioxin, modified organisms, anti-nutrients, allergens, drugs and so on. This paper reviews different methodologies to detect pathogens and toxins in foods and beverages.', 'Hygiene hypothesis and sanitization are two important pivots of modern civilization. The drinking water should be free from urine and stool contamination. Coliform test is popular for understanding feces contamination. However, understanding urine contamination in drinking water is a difficult task. On the other hand, urine contamination can cause disease like leptospirosis. It occurs mainly in animals and infects humans through contaminated water, food, and soil and causes serious consequences. Rat urine is the most common source of such disease outbreaks. Further, sophisticated laboratories with high-end technologies may not be present at the site of disease outbreaks. In this context, we have proposed a spectrofluorimetric approach to screen urine contamination in water. The screening method can sense up to 156 nl/ml of rat urine.']</t>
+          <t>['Contamination of surfaces in hospitals and food industry by bacterial biofilms is a serious health risk. Of concern is their resistance to routine antibacterials and disinfectants. This requires the development of novel approaches to biofilm detachment. The study evaluates the effectiveness of cationic polymer micelles (CPMs) against pre-formed biofilms. CPMs based on different polycations were used. The hydrodynamic radius of the particles ranged from 16 to 360 nm. Biofilms of ', 'Bacterial biofilms are widely associated with persistent infections and food contamination. High resistance to conventional antimicrobial agents resulted in an urgent need for novel formulation to eliminate these bacterial communities. Herein we fabricated light controllable chitosan micelles loading with thymol (T-TCP) for elimination of biofilm. Due to the exterior chitosan, T-TCP micelles easily bind to negative biofilm through electrostatic interaction and efficiently deliver the essential oil payloads. Under irradiation, T-TCP micelles generated ROS, which triggered simultaneous thymol release and also resulted in additional ROS-inducing bactericidal effects, both effectively eradicating biofilms of Listeria monocytogenes and Staphylococcus aureus. This formulation provided a platform for other water-insoluble antimicrobials and might be used as a potent and controllable solution to biofilm fighting.', 'Bacterial biofilms are widely associated with persistent infections and food contamination. High resistance to conventional antimicrobial agents resulted in an urgent need for novel formulation to eliminate these bacterial communities. Herein we fabricated light controllable chitosan micelles loading with thymol (T-TCP) for elimination of biofilm. Due to the exterior chitosan, T-TCP micelles easily bind to negative biofilm through electrostatic interaction and efficiently deliver the essential oil payloads. Under irradiation, T-TCP micelles generated ROS, which triggered simultaneous thymol release and also resulted in additional ROS-inducing bactericidal effects, both effectively eradicating biofilms of Listeria monocytogenes and Staphylococcus aureus. This formulation provided a platform for other water-insoluble antimicrobials and might be used as a potent and controllable solution to biofilm fighting.']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>["'spectrofluorimetric',"]</t>
+          <t>Emerging food safety risk: The use of micelles and other novel formulations like TTCP and CPMS to deliver water-insoluble compounds such as thymol may pose a risk if these delivery systems inadvertently induce reactive oxygen species (ROS) in food products, potentially leading to oxidative damage and compromising food safety.</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>'spectrofluorimetric',</t>
+          <t>["'rosinducing',", "'exterior',"]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>["['urine',", "'rat',", "'nlml',"]</t>
+          <t>'exterior',</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>The use of spectrofluorimetric methods could pose a risk in detecting contamination by rat urine in food samples, potentially leading to inaccurate readings and overlooked health hazards.</t>
+          <t>["['micelles',", "'ttcp',", "'controllable',"]</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>The risk of exterior contamination or ROS (reactive oxygen species) inducing processes can compromise the stability and function of micelles and TTCP (tetracalcium phosphate), which are crucial for maintaining the safety and efficacy of food-grade emulsions and coatings.</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>326_afb1_bsaafb1_hrp_probe</t>
+          <t>515_nickel_drinks_bioaccessibility_plantbased</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003227602344181</v>
+        <v>0.0050251256281407</v>
       </c>
       <c r="C17" t="n">
-        <v>326</v>
+        <v>515</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['afb1', 'bsaafb1', 'hrp', 'probe', 'chemiluminescence', 'aptamer', 'wells', 'labelfree', 'enabled', 'b1']</t>
+          <t>['nickel', 'drinks', 'bioaccessibility', 'plantbased', 'overestimation', 'bioavailability', 'animalbased', 'bioaccessibilitybioavailability', 'legumes', 'epithelium']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>['Aflatoxin B1 (AFB1) contamination has raised global concerns in agricultural and food industry; thus, sensitive, accurate and rapid AFB1 sensors are essential in many circumstances. Herein, we developed a label-free and immobilization-free ratiometric homogeneous electrochemical aptasensor based on hybridization chain reaction (HCR) for facile and rapid determination of AFB1. Methylene blue (MB) and ferrocene (Fc) were used as label-free probes to produce a response signal (I', "Aflatoxin B1 (AFB1) is one of highly toxic mycotoxins and a known human carcinogen. The frequent contamination of AFB1 in food products and large health risk of AFB1 have raised global concerns. Sensitive detection of AFB1 is of vital importance and highly demanded. Herein, we reported a competitive horseradish peroxidase (HRP)-linked aptamer assay for AFB1, combining the advantages of aptamer for affinity binding and enzyme label for signal amplification. In this assay, free AFB1 in solution competed with a covalent conjugate of bovine serum albumin-AFB1 (BSA-AFB1) coated on the wells of microplate in binding to the HRP-labeled aptamer probe. HRP attached on BSA-AFB1 in the wells catalyzed the conversion of substrates into products, allowing the final detection of AFB1 through measurement of the generated products. When TMB (3,3',5,5'-tetramethylbenzidine dihydrochloride) was used as substrate, absorbance analysis of the product of enzyme reaction enabled the detection of AFB1 at 0.2nM. We further lowered the detection limit of AFB1 to 0.01nM through chemiluminescence analysis by using chemiluminescence substrate of HRP. This assay enabled the detection of AFB1 in complex sample matrix, such as diluted white wine and maize flour. This assay provides a simple, sensitive and rapid method for AFB1 determination.", "Aflatoxin B1 (AFB1) is one of highly toxic mycotoxins and a known human carcinogen. The frequent contamination of AFB1 in food products and large health risk of AFB1 have raised global concerns. Sensitive detection of AFB1 is of vital importance and highly demanded. Herein, we reported a competitive horseradish peroxidase (HRP)-linked aptamer assay for AFB1, combining the advantages of aptamer for affinity binding and enzyme label for signal amplification. In this assay, free AFB1 in solution competed with a covalent conjugate of bovine serum albumin-AFB1 (BSA-AFB1) coated on the wells of microplate in binding to the HRP-labeled aptamer probe. HRP attached on BSA-AFB1 in the wells catalyzed the conversion of substrates into products, allowing the final detection of AFB1 through measurement of the generated products. When TMB (3,3',5,5'-tetramethylbenzidine dihydrochloride) was used as substrate, absorbance analysis of the product of enzyme reaction enabled the detection of AFB1 at 0.2nM. We further lowered the detection limit of AFB1 to 0.01nM through chemiluminescence analysis by using chemiluminescence substrate of HRP. This assay enabled the detection of AFB1 in complex sample matrix, such as diluted white wine and maize flour. This assay provides a simple, sensitive and rapid method for AFB1 determination."]</t>
+          <t>['Nickel can occur in plant-based, animal-based foods and drinks. It can either naturally occur in plants or it could originate from contamination. The natural occurrence of nickel arises from the fact that the element plays an essential role in the functioning of enzymes involved in the nitrogen fixation process. Besides, contamination can occur at any stage of the production, processing or packing of the foods. More specifically, nickel can leach from contact materials to foods or drinks before their consumption by humans. In recent years, the European Food Safety Authority expressed concern regarding the chronic and acute exposure of the European population to nickel. This study aimed to screen foods available on the Belgian market for their nickel content and to identify potential sources of the contamination. In total, 708 samples were collected from three different main categories of foods, including plant-based products, animal-based products and drinks. Elevated nickel concentrations were found in plant-based products such as chocolate, legumes, nuts, figs, peanut butter, chocolate spreads and breakfast cereals. The nickel concentrations in the animal-based products and drinks were significantly lower compared to the plant-based products. In the beer samples, no correlation between the alcohol percentage and nickel concentration was found. Higher nickel concentrations were found in the tea drinks in comparison to other drinks. Furthermore, the effect of packaging, e.g. storage in cans, on the final nickel concentration of the foods was investigated. No effect of the packaging was found, demonstrating that leaching of nickel from packaging materials is not significantly contributing to the nickel content in foods. The results demonstrate high concentrations of nickel in some plant-based food products and further exposure assessment studies are needed to evaluate the risk due to intake of nickel-enriched food products.', 'The metal nickel is well known to cause nickel allergy in sensitive humans by prolonged dermal contact to materials releasing (high) amounts of nickel. Oral nickel exposure via water and food intake is of potential concern. Nickel is essential to plants and animals and can be naturally found in food products or contamination may occur across the agro-food chain. This gap analysis is an evaluation of nickel as a potential food safety hazard causing a risk for human health. In the first step, the available data regarding the occurrence of nickel and its contamination in food and drinks have been collected through literature review. Subsequently, a discussion is held on the potential risks associated with this contamination. Elevated nickel concentrations were mostly found in plant-based foods, e.g. legumes and nuts in which nickel of natural origin is expected. However, it was observed that dedicated and systematic screening of foodstuffs for the presence of nickel is currently still lacking. In a next step, published studies on exposure of humans to nickel via foods and drinks were critically evaluated. Not including bioaccessibility and/or bioavailability of the metal may lead to an overestimation of the exposure of the body to nickel via food and drinks. This overestimation may be problematic when the measured nickel level in foods is high and bioaccessibility and/or bioavailability of nickel in these products is low. Therefore, this paper analyzes the outcomes of the existing dietary intake and bioaccessibility/bioavailability studies conducted for nickel. Besides, the available gaps in nickel bioaccessibility and/or bioavailability studies have been clarified in this paper. The reported bioaccessibility and bioavailability percentages for different food and drinks were found to vary between &lt;LOD and 83% and between 0 and 30% respectively. This indicates that of the total nickel contained in the foodstuffs only a fraction can be absorbed by the intestinal epithelium cells. This paper provides a unique critical overview on nickel in the human diet starting from factors affecting its occurrence in food until its absorption by the body.', 'The metal nickel is well known to cause nickel allergy in sensitive humans by prolonged dermal contact to materials releasing (high) amounts of nickel. Oral nickel exposure via water and food intake is of potential concern. Nickel is essential to plants and animals and can be naturally found in food products or contamination may occur across the agro-food chain. This gap analysis is an evaluation of nickel as a potential food safety hazard causing a risk for human health. In the first step, the available data regarding the occurrence of nickel and its contamination in food and drinks have been collected through literature review. Subsequently, a discussion is held on the potential risks associated with this contamination. Elevated nickel concentrations were mostly found in plant-based foods, e.g. legumes and nuts in which nickel of natural origin is expected. However, it was observed that dedicated and systematic screening of foodstuffs for the presence of nickel is currently still lacking. In a next step, published studies on exposure of humans to nickel via foods and drinks were critically evaluated. Not including bioaccessibility and/or bioavailability of the metal may lead to an overestimation of the exposure of the body to nickel via food and drinks. This overestimation may be problematic when the measured nickel level in foods is high and bioaccessibility and/or bioavailability of nickel in these products is low. Therefore, this paper analyzes the outcomes of the existing dietary intake and bioaccessibility/bioavailability studies conducted for nickel. Besides, the available gaps in nickel bioaccessibility and/or bioavailability studies have been clarified in this paper. The reported bioaccessibility and bioavailability percentages for different food and drinks were found to vary between &lt;LOD and 83% and between 0 and 30% respectively. This indicates that of the total nickel contained in the foodstuffs only a fraction can be absorbed by the intestinal epithelium cells. This paper provides a unique critical overview on nickel in the human diet starting from factors affecting its occurrence in food until its absorption by the body.']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>["'chemiluminescence',", "'enabled',"]</t>
+          <t>Emerging food safety risk: The potential for overestimation of nickel bioavailability in plant-based drinks, particularly those derived from legumes, could pose a health risk due to increased nickel exposure and its potential effects on the epithelium.</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>'enabled',</t>
+          <t>["'overestimation',"]</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>["['afb1',", "'bsaafb1',", "'hrp',"]</t>
+          <t>'overestimation',</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>The presence of aflatoxin B1 (AFB1) contamination in food products can be enabled by improper storage conditions, which can lead to the growth of Aspergillus species that produce this potent carcinogen.</t>
+          <t>["['nickel',", "'drinks',", "'bioaccessibility',"]</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Overestimation of nickel bioaccessibility in drinks could lead to inaccurate risk assessments and potential health concerns for consumers due to excessive exposure to this metal.</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>736_iso_166542001_cen_en</t>
+          <t>513_streptomyces_surplus_consortia_ben</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0045180722891566</v>
+        <v>0.0050251256281407</v>
       </c>
       <c r="C18" t="n">
-        <v>736</v>
+        <v>513</v>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['iso', '166542001', 'cen', 'en', 'mandate', 'validation', 'm381', 'interlaboratory', 'sprouts', 'participating']</t>
+          <t>['streptomyces', 'surplus', 'consortia', 'ben', 'gattii', 'fluconazole', 'chitinases', 'benadapted', 'crossresistance', 'gcms']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>['The European and International Standard method for the detection of Salmonella spp. in samples from the primary production stage, EN ISO 6579:2002/Amd.1:2007, was validated by an interlaboratory study in the frame of Mandate M/381, ordered by the European Commission and accepted by the European Standardisation Organisation (CEN). In addition to this study, results from two interlaboratory studies organised earlier by the European Union Reference Laboratory (EURL) for Salmonella were used for determination of the performance characteristics. Parallel to the performance evaluation for the Mandate, the revision of EN ISO 6579:2002 started. Part of this revision was the incorporation of the standardised method for detection of Salmonella in samples from the primary production stage (EN ISO 6579:2002/Amd.1:2007) and its performance characteristics in the new part 1 of EN ISO 6579. The 2002 version of EN ISO 6579 already contained performance characteristics for the detection of Salmonella in food samples, but LOD', 'In 2006, the European Committee for standardisation (CEN)/Technical Committee 275 - Food analysis - Horizontal methods/Working Group 6 - Microbiology of the food chain (TC275/WG6), launched the project of validating the method ISO 16654:2001 for the detection of Escherichia coli O157 in foodstuff by the evaluation of its performance, in terms of sensitivity and specificity, through collaborative studies. Previously, a validation study had been conducted to assess the performance of the Method No 164 developed by the Nordic Committee for Food Analysis (NMKL), which aims at detecting E. coli O157 in food as well, and is based on a procedure equivalent to that of the ISO 16654:2001 standard. Therefore, CEN established that the validation data obtained for the NMKL Method 164 could be exploited for the ISO 16654:2001 validation project, integrated with new data obtained through two additional interlaboratory studies on milk and sprouts, run in the framework of the CEN mandate No. M381. The ISO 16654:2001 validation project was led by the European Union Reference Laboratory for Escherichia coli including VTEC (EURL-VTEC), which organized the collaborative validation study on milk in 2012 with 15 participating laboratories and that on sprouts in 2014, with 14 participating laboratories. In both studies, a total of 24 samples were tested by each laboratory. Test materials were spiked with different concentration of E. coli O157 and the 24 samples corresponded to eight replicates of three levels of contamination: zero, low and high spiking level. The results submitted by the participating laboratories were analyzed to evaluate the sensitivity and specificity of the ISO 16654:2001 method when applied to milk and sprouts. The performance characteristics calculated on the data of the collaborative validation studies run under the CEN mandate No. M381 returned sensitivity and specificity of 100% and 94.4%, respectively for the milk study. As for sprouts matrix, the sensitivity resulted in 75.9% in the low level of contamination samples and 96.4% in samples spiked with high level of E. coli O157 and specificity was calculated as 99.1%.', 'In 2006, the European Committee for standardisation (CEN)/Technical Committee 275 - Food analysis - Horizontal methods/Working Group 6 - Microbiology of the food chain (TC275/WG6), launched the project of validating the method ISO 16654:2001 for the detection of Escherichia coli O157 in foodstuff by the evaluation of its performance, in terms of sensitivity and specificity, through collaborative studies. Previously, a validation study had been conducted to assess the performance of the Method No 164 developed by the Nordic Committee for Food Analysis (NMKL), which aims at detecting E. coli O157 in food as well, and is based on a procedure equivalent to that of the ISO 16654:2001 standard. Therefore, CEN established that the validation data obtained for the NMKL Method 164 could be exploited for the ISO 16654:2001 validation project, integrated with new data obtained through two additional interlaboratory studies on milk and sprouts, run in the framework of the CEN mandate No. M381. The ISO 16654:2001 validation project was led by the European Union Reference Laboratory for Escherichia coli including VTEC (EURL-VTEC), which organized the collaborative validation study on milk in 2012 with 15 participating laboratories and that on sprouts in 2014, with 14 participating laboratories. In both studies, a total of 24 samples were tested by each laboratory. Test materials were spiked with different concentration of E. coli O157 and the 24 samples corresponded to eight replicates of three levels of contamination: zero, low and high spiking level. The results submitted by the participating laboratories were analyzed to evaluate the sensitivity and specificity of the ISO 16654:2001 method when applied to milk and sprouts. The performance characteristics calculated on the data of the collaborative validation studies run under the CEN mandate No. M381 returned sensitivity and specificity of 100% and 94.4%, respectively for the milk study. As for sprouts matrix, the sensitivity resulted in 75.9% in the low level of contamination samples and 96.4% in samples spiked with high level of E. coli O157 and specificity was calculated as 99.1%.']</t>
+          <t>['The increasing human population requires ongoing efforts in food production. This is frequently associated with an increased use of agrochemicals, leading to environmental contamination and altering microbial communities, including human fungal pathogens that reside in the environment. Cryptococcus gattii is an environmental yeast and is one of the etiological agents of cryptococcosis. Benomyl (BEN) is a broad-spectrum fungicide used on several crops. To study the effects of agrochemicals on fungal pathogens, we first evaluated the susceptibility of C. gattii to BEN and the interactions with clinical antifungals. Antagonistic interaction between BEN and fluconazole was seen and was strain- and concentration-dependent. We then induced BEN-resistance by culturing strains in increasing drug concentrations. One strain demonstrated to be more resistant and showed increased multidrug efflux pump gene (MDR1) expression and increased rhodamine 6G efflux, leading to cross-resistance between BEN and fluconazole. Morphologically, BEN-adapted cells had a reduced polysaccharide capsule; an increased surface/volume ratio; increased growth rate in vitro and inside macrophages and also higher ability in crossing an in vitro model of blood-brain-barrier. BEN-adapted strain demonstrated to be hypervirulent in mice, leading to severe symptoms of cryptococcosis, early mortality and higher fungal burden in the organs, particularly the brain. The parental strain was avirulent in murine model. In vivo cross-resistance between BEN and fluconazole was observed, with mice infected with the adapted strain unable to present any improvement in survival and behavior when treated with this antifungal. Furthermore, BEN-adapted cells cultured in drug-free media maintained the hypervirulent and cross-resistant phenotype, suggesting a persistent effect of BEN on C. gattii. In conclusion, exposure to BEN induces cross-resistance with fluconazole and increases the virulence of C. gattii. Altogether, our results indicate that agrochemicals may lead to unintended consequences on non-target species and this could result in severe healthy problems worldwide.', 'Consortia of Streptomyces spp. (colonies 169, 194, 165 and 130) used in this study are an efficient producer of secondary metabolites like chitinases and antifungal compounds, which may help in the protection of surplus food from spoilage. Qualitative screening for chitinase production and taxonomy of these colonies were undertaken in our previous studies. In the current study, GC-MS analysis of extract produced from the consortia of Streptomyces strains was done for the identification of antifungal compounds. Treatment of surplus food with activated consortia of Streptomyces spp. has protected powdered food for a month, whereas fresh food (unpowdered) was preserved for two days. A control sample of surplus food (untreated) was kept to check the contamination, which resulted in the growth of three fungi (FP-1, FG-1, and FB-1). Taxonomic characterization of fungi and identification of toxic compounds produced from them were done by ITS amplification and GC-MS analysis, respectively. The study shows that the secondary metabolites from Streptomyces spp. have the potential to protect the food from mycotoxin contamination. Based on literature reports, this is for the first time that bioactive compounds and chitinases produced from Streptomyces are being used for the protection and management of surplus food.', 'Consortia of Streptomyces spp. (colonies 169, 194, 165 and 130) used in this study are an efficient producer of secondary metabolites like chitinases and antifungal compounds, which may help in the protection of surplus food from spoilage. Qualitative screening for chitinase production and taxonomy of these colonies were undertaken in our previous studies. In the current study, GC-MS analysis of extract produced from the consortia of Streptomyces strains was done for the identification of antifungal compounds. Treatment of surplus food with activated consortia of Streptomyces spp. has protected powdered food for a month, whereas fresh food (unpowdered) was preserved for two days. A control sample of surplus food (untreated) was kept to check the contamination, which resulted in the growth of three fungi (FP-1, FG-1, and FB-1). Taxonomic characterization of fungi and identification of toxic compounds produced from them were done by ITS amplification and GC-MS analysis, respectively. The study shows that the secondary metabolites from Streptomyces spp. have the potential to protect the food from mycotoxin contamination. Based on literature reports, this is for the first time that bioactive compounds and chitinases produced from Streptomyces are being used for the protection and management of surplus food.']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>["'sprouts',", "'participating']"]</t>
+          <t>Emerging food safety risk: The use of fluconazole and other antifungal agents in agriculture could lead to cross-resistance in foodborne pathogens such as Streptomyces and Cryptococcus gattii, potentially compromising the effectiveness of these treatments and posing a risk to food safety.</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>'sprouts',</t>
+          <t>["'ben',"]</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>["['iso',", "'166542001',", "'cen',"]</t>
+          <t>'ben',</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>The presence of sprouts in the food supply chain could pose a risk of microbial contamination, which could compromise compliance with ISO 166542001 and CEN standards for food safety.</t>
+          <t>["['streptomyces',", "'surplus',", "'consortia',"]</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>The presence of Ben, a potential contaminant or unapproved additive, could compromise the safety and integrity of food products developed through surplus Streptomyces consortia, leading to potential health risks for consumers.</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>812_micelles_ttcp_controllable_thymol</t>
+          <t>723_mc_pf_cellg_concentrationbased</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.0033885542168674</v>
+        <v>0.0040201005025125</v>
       </c>
       <c r="C19" t="n">
-        <v>812</v>
+        <v>723</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['micelles', 'ttcp', 'controllable', 'thymol', 'cpms', 'rosinducing', 'payloads', 'exterior', 'waterinsoluble', 'formulation']</t>
+          <t>['mc', 'pf', 'cellg', 'concentrationbased', 'ceftiofur', 'lots', 'heidelberg', 'ceftiofurresistant', 'turkey', 'scenarios']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>['Contamination of surfaces in hospitals and food industry by bacterial biofilms is a serious health risk. Of concern is their resistance to routine antibacterials and disinfectants. This requires the development of novel approaches to biofilm detachment. The study evaluates the effectiveness of cationic polymer micelles (CPMs) against pre-formed biofilms. CPMs based on different polycations were used. The hydrodynamic radius of the particles ranged from 16 to 360 nm. Biofilms of ', 'Bacterial biofilms are widely associated with persistent infections and food contamination. High resistance to conventional antimicrobial agents resulted in an urgent need for novel formulation to eliminate these bacterial communities. Herein we fabricated light controllable chitosan micelles loading with thymol (T-TCP) for elimination of biofilm. Due to the exterior chitosan, T-TCP micelles easily bind to negative biofilm through electrostatic interaction and efficiently deliver the essential oil payloads. Under irradiation, T-TCP micelles generated ROS, which triggered simultaneous thymol release and also resulted in additional ROS-inducing bactericidal effects, both effectively eradicating biofilms of Listeria monocytogenes and Staphylococcus aureus. This formulation provided a platform for other water-insoluble antimicrobials and might be used as a potent and controllable solution to biofilm fighting.', 'Bacterial biofilms are widely associated with persistent infections and food contamination. High resistance to conventional antimicrobial agents resulted in an urgent need for novel formulation to eliminate these bacterial communities. Herein we fabricated light controllable chitosan micelles loading with thymol (T-TCP) for elimination of biofilm. Due to the exterior chitosan, T-TCP micelles easily bind to negative biofilm through electrostatic interaction and efficiently deliver the essential oil payloads. Under irradiation, T-TCP micelles generated ROS, which triggered simultaneous thymol release and also resulted in additional ROS-inducing bactericidal effects, both effectively eradicating biofilms of Listeria monocytogenes and Staphylococcus aureus. This formulation provided a platform for other water-insoluble antimicrobials and might be used as a potent and controllable solution to biofilm fighting.']</t>
+          <t>["Salmonella Heidelberg resistant to ceftiofur (a third-generation cephalosporin antimicrobial agent) in broiler chicken products pose a risk to public health in Canada. The objective of this study was to assess the extent of that risk and to evaluate the effect of intervention measures along the agri-food chain. A stochastic farm-to-fork quantitative microbial risk assessment model was developed following the Codex Alimentarius Guidelines for Risk Analysis of Foodborne Antimicrobial Resistance. Different scenarios were analyzed to assess the individual relative effects of 18 possible interventions in comparison to a baseline scenario. The baseline scenario represented the first year of on-farm antimicrobial use surveillance in the Canadian broiler industry and the year before an industry-imposed ban on the preventive use of antimicrobials of very high importance to human health (2013), where 31.3% of broiler flocks consisted of birds to which ceftiofur was administered. The baseline scenario predicted an average probability of illness of 1.1 per 100,000 servings (SE: 0.064 per 100,000), corresponding to an average of 22,000 human infections (SE: 1900) with ceftiofur-resistant S. Heidelberg per year, which is likely an overestimation. This risk was reduced by 90% or 20% when two separate scenarios designed to capture the effect of withdrawing preventive ceftiofur use from poultry production were simulated using different approaches; data used for the former scenario were confounded by other potential concomitant control measures (e.g. Salmonella vaccination programme), so the true effect likely lies somewhere between the two estimates. A theoretical 'worst case' scenario where all flocks had birds exposed to ceftiofur increased the risk by 107%. A 50% reduction in the probability of human prior exposure to antimicrobials, which has a selective and competitive effect for Salmonella spp. following ingestion of contaminated products, reduced the risk by 65%. Other promising measures that could be considered for further risk management included improved cleaning and disinfection between broiler flocks on farm (risk reduction by 26%), exclusive use of air chilling (risk reduction by 34%), and the improvement of meat storage and preparation conditions, e.g., no temperature abuse at retail (risk reduction by 88%). These findings showed the importance of a structured approach to assessing and potentially implementing effective interventions to reduce the risk associated with ceftiofur-resistant S. Heidelberg at different steps along the agri-food chain. Major data gaps included information on concentrations of resistant bacteria, cross contamination at processing and how ceftiofur-resistant S. Heidelberg behave in comparison with susceptible ones, e.g., in terms of growth and survival ability, as well as pathogenicity and virulence.", "Despite initiatives to improve the safety of poultry products in the United States, progress has stalled, and salmonellosis incidence is still above Healthy People 2020's goal. One strategy to manage Salmonella and verify process control in poultry establishments is to implement microbiological criteria (MC) linked to public health outcomes. Concentration-based MC have been used by the food industry; however, the public health impact of such approaches is only starting to be assessed. This study evaluated the public health impact of a concentration-based MC for Salmonella in raw ground turkey consumed in the United States using a quantitative risk assessment modeling approach. The distribution of Salmonella concentration in ground turkey was derived from USDA-FSIS monitoring surveys. Other variables and parameters were derived from public databases, literature, and expert opinion. Based on considered concentrations, implementing a MC of 1 cell/g led to an estimated 46.1% reduction (preventable fraction, PF) in the mean probability of illness when consumer cooking and cross-contamination were included. The PF was consistent across scenarios including or excluding cross-contamination and cooking, with slightly lower mean PF when cross-contamination was included. The proportion of lots not compliant with the 1 cell/g MC was 1.05% in the main scenarios and increased nonlinearly when higher Salmonella concentrations were assumed. Assumptions on concentration variability across lots and within lots had a large impact, highlighting the benefit of reducing this uncertainty. These approach and results can help inform the development of MC to monitor and control Salmonella in ground turkey products.", "Despite initiatives to improve the safety of poultry products in the United States, progress has stalled, and salmonellosis incidence is still above Healthy People 2020's goal. One strategy to manage Salmonella and verify process control in poultry establishments is to implement microbiological criteria (MC) linked to public health outcomes. Concentration-based MC have been used by the food industry; however, the public health impact of such approaches is only starting to be assessed. This study evaluated the public health impact of a concentration-based MC for Salmonella in raw ground turkey consumed in the United States using a quantitative risk assessment modeling approach. The distribution of Salmonella concentration in ground turkey was derived from USDA-FSIS monitoring surveys. Other variables and parameters were derived from public databases, literature, and expert opinion. Based on considered concentrations, implementing a MC of 1 cell/g led to an estimated 46.1% reduction (preventable fraction, PF) in the mean probability of illness when consumer cooking and cross-contamination were included. The PF was consistent across scenarios including or excluding cross-contamination and cooking, with slightly lower mean PF when cross-contamination was included. The proportion of lots not compliant with the 1 cell/g MC was 1.05% in the main scenarios and increased nonlinearly when higher Salmonella concentrations were assumed. Assumptions on concentration variability across lots and within lots had a large impact, highlighting the benefit of reducing this uncertainty. These approach and results can help inform the development of MC to monitor and control Salmonella in ground turkey products."]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>["'rosinducing',", "'exterior',"]</t>
+          <t>Emerging food safety risk: The presence of ceftiofur-resistant Salmonella Heidelberg in turkey products indicates a potential risk for antibiotic-resistant infections in humans, particularly under scenarios involving high concentrations of contaminated lots.</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>'exterior',</t>
+          <t>["'concentrationbased',", "'lots',", "'heidelberg',", "'scenarios']"]</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>["['micelles',", "'ttcp',", "'controllable',"]</t>
+          <t>'lots',</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>The risk of exterior contaminants infiltrating and destabilizing micelles, which are critical in controlling the delivery and stability of bioactive compounds, could compromise the efficacy of food safety interventions involving TTCP (tricalcium phosphate).</t>
+          <t>["['mc',", "'pf',", "'cellg',"]</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Topic: ["['mc',", "'pf',", "'cellg',"]
+Risk: ["'concentrationbased',", "'lots',", "'heidelberg',", "'scenarios']"]
+Output: The concentration-based scenarios in Heidelberg could affect the multiple cell types (mc, pf, cellg) used in food safety testing, potentially leading to inconsistent results and increased risks of contamination.</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>465_curcumin_ppnwfgae_intelligent_grafted</t>
+          <t>425_ndma_ranitidine_nitrosamine_medications</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.0026353262786181</v>
+        <v>0.0043398718774089</v>
       </c>
       <c r="C20" t="n">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="D20" t="n">
         <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['curcumin', 'ppnwfgae', 'intelligent', 'grafted', 'ppnwf', 'active', 'smart', 'packaging', 'curcumins', 'ae']</t>
+          <t>['ndma', 'ranitidine', 'nitrosamine', 'medications', 'impurities', 'arbs', 'safetybased', 'angiotensin', 'valsartan', 'nnitrosamine']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>['The growing number of microbial cross-contamination events necessitates the development of novel antimicrobial strategies in the food industry. In this study, a polypropylene nonwoven fabric (PPNWF) was grafted with a natural antimicrobial component, aloe emodin (AE), and its antimicrobial performance was evaluated. The grafted samples (PPNWF-g-AE) were examined using Fourier transform infrared spectroscopy and scanning electron microscopy. AE was effectively grafted onto the surface of the PPNWF through the adsorption covalent effect. Compared with nongrafted PPNWF, the antimicrobial activity of PPNWF-g-AE against Staphylococcus aureus, Escherichia coli, and Candida albicans was significantly enhanced. Scanning electron micrographs confirmed that the inhibitory mechanism of PPNWF-g-AE was the microbicidal function of the grafted AE. These findings indicate that PPNWF-g-AE has potential as an effective antimicrobial material in food applications.', "Active and intelligent food packaging is an innovative technology to prevent food contamination and ensure food quality and safety. Active packaging protects the food from microbial contamination, while smart or intelligent packaging enables monitoring the freshness of the food or quality change in real-time. Curcumin, one of the most well-known natural colorants, has received a lot of attention for its excellent functional properties and ability to change color with changes in pH. Curcumin, the golden component of turmeric, a spice widely used in food since ancient times, is a cost-effective and abundant biomaterial with various biological properties such as antioxidant, antibacterial, antiviral, antitumor, and anti-inflammatory. Recently, active packaging or intelligent packaging systems have been actively developed using the functional properties of curcumin. In this review, we briefly reviewed curcumin's basic biological functions and discussed comprehensive and recent progress in using curcumin in various polymer-based active and smart food packaging applications.", "Active and intelligent food packaging is an innovative technology to prevent food contamination and ensure food quality and safety. Active packaging protects the food from microbial contamination, while smart or intelligent packaging enables monitoring the freshness of the food or quality change in real-time. Curcumin, one of the most well-known natural colorants, has received a lot of attention for its excellent functional properties and ability to change color with changes in pH. Curcumin, the golden component of turmeric, a spice widely used in food since ancient times, is a cost-effective and abundant biomaterial with various biological properties such as antioxidant, antibacterial, antiviral, antitumor, and anti-inflammatory. Recently, active packaging or intelligent packaging systems have been actively developed using the functional properties of curcumin. In this review, we briefly reviewed curcumin's basic biological functions and discussed comprehensive and recent progress in using curcumin in various polymer-based active and smart food packaging applications."]</t>
+          <t>['Nitrosamines are known carcinogens which have been recently discovered in several angiotensin receptor blockers (ARBs). This led to the recall of valsartan in the United States in 2018, and afterward, the recall of other ARBs as well as unrelated medications (e.g., ranitidine). The presence of nitrosamine in ARBs was likely a result of changes in the manufacturing process, although nitrosamine contamination is believed to occur by different mechanisms with other medications. The United States Food and Drug Administration has since taken steps to identify products affected by nitrosamine contamination and mitigate this concern going forward. Despite the contamination of some drug products, studies estimate that the overall risk to patients is low enough to not necessitate changes in prescribing patterns at this time.', 'Ranitidine is a medication that has been used to alleviate heartburn and other disorders for over 40 years. Following reports of N-nitrosodimethylamine (NDMA) contamination in ranitidine products, there have been many recalls and registration suspensions. Here, we revise the literature information confirming ranitidine association with NDMA. Then, we highlight the documented mechanisms for NDMA release from ranitidine. In addition, the stability issue for this medicine is discussed. After that, we review and discuss the results of the United States Food and Drug Administration and the Australian Therapeutic Goods Administration laboratory testing of ranitidine products and the detected NDMA levels. Finally, the case of NDMA generation in Angiotensin II Receptor Blockers (ARBs) and ranitidine were compared in an attempt to address the circumstances leading to the current contamination.', "NDMA is a semivolatile organic chemical classified as a probable carcinogen by the International Agency for Research on Cancer. NDMA exposure to humans is potentially vast, with reports of it occurring in tobacco products, food, water, interior air of cars, toiletries, and a variety of other household goods. Public attention has recently focused on NDMA contamination because it has been implicated in the recall of several medications, including valsartan, losartan, irbesartan, and, most recently, the removal of ranitidine from the market. Its potential for elevated risk of cancer has sparked concern in the health care community. Pharmacists are uniquely situated to process and use this complex information because of their extensive pharmacokinetic and pharmacodynamic knowledge of medications, direct and regular contact with patients, insights and familiarity with recalls, and ability to discuss alternative medications that may alleviate a patient's concerns. It is important to communicate the context and clinical relevance of NDMA contamination to both patients and fellow health care clinicians. Pharmacists can help balance the potential adverse effects of switching medication and the concern related to NDMA in making an informed health decision."]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>["'packaging',"]</t>
+          <t>An emerging food safety risk is the potential for nitrosamine impurities, such as NDMA, to be found in medications like ranitidine and angiotensin receptor blockers (ARBs) such as valsartan, which could lead to contamination concerns and potential health hazards.</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>'packaging',</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>["['curcumin',", "'ppnwfgae',", "'intelligent',"]</t>
+          <t>'impurities',</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>The use of intelligent packaging for curcumin products may pose a risk if the packaging materials interact negatively with curcumin or if the intelligent sensors fail to detect spoilage or contamination, potentially compromising the safety and efficacy of the product.</t>
+          <t>["['ndma',", "'ranitidine',", "'nitrosamine',"]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Based on the provided topic terms "['ndma',", "'ranitidine',", "'nitrosamine',"] and the absence of specific risk terms, it is reasonable to infer that the primary food safety risk involves the potential contamination of ranitidine (a medication used to treat heartburn) with NDMA (N-Nitrosodimethylamine), a type of nitrosamine. NDMA is a probable human carcinogen, and its presence in ranitidine has led to recalls and concerns about long-term exposure and cancer risk. 
+Output: Contamination of ranitidine with NDMA, a probable human carcinogen, poses significant health risks, leading to recalls and concerns over long-term exposure and cancer.</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>799_thiosulfate_chelating_hg_ligands</t>
+          <t>519_hvpef_uhph_detachedcells_psi</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.003076923076923</v>
+        <v>0.0042698548249359</v>
       </c>
       <c r="C21" t="n">
-        <v>799</v>
+        <v>519</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['thiosulfate', 'chelating', 'hg', 'ligands', 'phytoextraction', 'tf', 'iodide', 'se', 'thiocarbamide', 'metallomics']</t>
+          <t>['hvpef', 'uhph', 'detachedcells', 'psi', 'planktonic', '40000', 'voltage', 'scanning', 'aureus', 'biofilms']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>['The antagonistic effect between mercury (Hg) and selenium (Se) is conclusively established in animals and human beings in the past decades. However, the underlying mechanisms of the interactions between Hg and Se in plants, as well as the metabolism of Hg-Se compounds in crops are still far from being understood. The botanic metallomics of Hg and Se mainly focuses on the translocation, transformation, and metabolism of Hg and Se in the environmental and botanic systems employing metallomics methods. An adequate understanding of the biological behavior of Hg and Se in plant is beneficial for sequestration of Hg and Se in soil-plant systems with high Hg and Se contamination. It can also provide a molecular mechanistic basis for Se supplementation in Se-deficient areas. Here, the key developments in current understanding of Hg and Se interactions in plants are reviewed. The metabolism and antagonism of Hg and Se in various plants, as well as the advanced analytical methods commonly used in this field, are summarized and discussed. As suggested, plant Hg and Se uptake, metabolism, and antagonism can be taken into account for detoxification and remediation strategies for the reduction of Hg and Se in the food chain.', 'Mercury (Hg) pollution seriously threatens food safety and has attracted global attention. Phytoextraction, due to its low cost, applicability, and environmental friendliness, is considered a new technology for clean-up of heavy metal contamination in the environment. However, the low bioavailability of Hg in polluted areas greatly limits the applicability of phytoextraction. Here, we compared the effects of six common chelating ligands on the absorption and transport of Hg in maize (Zea mays L.), which has a high biomass and short growth cycle. The results showed that the root length and biomass of maize seedlings of the groups treated with the six chelating ligands (EDTA, iodide, ammonium, thiosulfate, thiocyanate, and thiocarbamide) did not change compared with those of the non-treated groups. Co-exposure to Hg and each chelating ligand markedly alleviated the inhibitory effect induced by Hg. Iodide treatment resulted in the lowest root Hg content and highest translocation factor (TF) value, while ammonium treatment gave rise to the highest shoot Hg concentration and lowest TF. Compared with other chelating ligands, thiosulfate exhibited the maximum alleviation of Hg toxicity and achieved the highest concentration of Hg in the roots and aerial parts. Moreover, the TF and Hg accumulation in the thiosulfate and Hg co-exposed group were much higher than those in the group exposed to Hg alone. This finding suggests that, among these common chelating ligands, thiosulfate compounds have great potential for Hg phytoextraction, while the others can immobilize Hg in polluted areas.', 'Mercury (Hg) pollution seriously threatens food safety and has attracted global attention. Phytoextraction, due to its low cost, applicability, and environmental friendliness, is considered a new technology for clean-up of heavy metal contamination in the environment. However, the low bioavailability of Hg in polluted areas greatly limits the applicability of phytoextraction. Here, we compared the effects of six common chelating ligands on the absorption and transport of Hg in maize (Zea mays L.), which has a high biomass and short growth cycle. The results showed that the root length and biomass of maize seedlings of the groups treated with the six chelating ligands (EDTA, iodide, ammonium, thiosulfate, thiocyanate, and thiocarbamide) did not change compared with those of the non-treated groups. Co-exposure to Hg and each chelating ligand markedly alleviated the inhibitory effect induced by Hg. Iodide treatment resulted in the lowest root Hg content and highest translocation factor (TF) value, while ammonium treatment gave rise to the highest shoot Hg concentration and lowest TF. Compared with other chelating ligands, thiosulfate exhibited the maximum alleviation of Hg toxicity and achieved the highest concentration of Hg in the roots and aerial parts. Moreover, the TF and Hg accumulation in the thiosulfate and Hg co-exposed group were much higher than those in the group exposed to Hg alone. This finding suggests that, among these common chelating ligands, thiosulfate compounds have great potential for Hg phytoextraction, while the others can immobilize Hg in polluted areas.']</t>
+          <t>['Staphylococcus aureus is one of the main pathogens contributing to foodborne outbreaks, owing in part to its ability to form biofilms on food-contact surfaces. Cells that can detach from mature biofilms are a source for microbial cross-contamination in liquid food systems. The study was to evaluate and compare the resistance of detached-cells of biofilm formed by S. aureus and planktonic cells to Ultra High Pressure Homogenization (UHPH), a non-thermal technology applied in food processing. The results showed that the survival of both detached-cells and planktonic cells was dependent upon the applied pressure ranging from 30,000 PSI to 40,000 PSI, and cycle numbers with 1 and 3. A significant difference in UHPH resistance was observed at pressures of 35,000 PSI to 40,000 PSI whereby planktonic cell numbers were reduced about 2.0 log CFU/mL compared to a 0.5 log CFU/mL reduction of detached-cells. Cell resistance was further evaluated following UHPH by measuring membrane integrity and potential, as well as observing the cells using scanning electron microscopy (SEM). SEM images revealed more scattered exopolysaccharides in the biofilm after UHPH treatment compared to the control. Additionally, UHPH treatment resulted in planktonic cells having a greater shift to smaller cell size and a wider cell size distribution compared with detached-cells; this indicated a higher resistance of detached-cells to UHPH. This finding suggests that although UHPH has great potential application in food sterilization, the resistance of detached-cells cannot be ignored.', 'The study was to investigate the inhibitory effect and mechanism of high voltage prick electrostatic field (HVPEF) on Staphylococcus aureus biofilms. Results showed that HVPEF effectively inactivated 24-h and 48-h established S. aureus biofilms, and the effect was verified on different food-contact materials. Confocal laser scanning microscopy and scanning electron microscopy analysis suggested that HVPEF disintegrated the established biofilms by killing the embedded bacteria, but it hardly reduced the bacteria adhesion. HVPEF also effectively inhibit the formation of S. aureus biofilms, the effects varied with electric voltage, treatment time and biofilm culture conditions. The direct effect of HVPEF on planktonic S. aureus was a possible mode of biofilm formation inhibition. HVPEF also suppressed biofilm formation by reducing the release of key compositions of extracellular polymeric substance, including extracellular DNA (eDNA), protein and polysaccharide intercellular adhesion (PIA), and regulating the expression of biofilm formation related genes (icaA, ebh, cidA, sarA, icaR and sigB). We propose HVPEF as a novel method to inhibit bacteria biofilm, based on the results, HVPEF has positive effects to prevent biofilm-associated contamination of S. aureus.', 'The study was to investigate the inhibitory effect and mechanism of high voltage prick electrostatic field (HVPEF) on Staphylococcus aureus biofilms. Results showed that HVPEF effectively inactivated 24-h and 48-h established S. aureus biofilms, and the effect was verified on different food-contact materials. Confocal laser scanning microscopy and scanning electron microscopy analysis suggested that HVPEF disintegrated the established biofilms by killing the embedded bacteria, but it hardly reduced the bacteria adhesion. HVPEF also effectively inhibit the formation of S. aureus biofilms, the effects varied with electric voltage, treatment time and biofilm culture conditions. The direct effect of HVPEF on planktonic S. aureus was a possible mode of biofilm formation inhibition. HVPEF also suppressed biofilm formation by reducing the release of key compositions of extracellular polymeric substance, including extracellular DNA (eDNA), protein and polysaccharide intercellular adhesion (PIA), and regulating the expression of biofilm formation related genes (icaA, ebh, cidA, sarA, icaR and sigB). We propose HVPEF as a novel method to inhibit bacteria biofilm, based on the results, HVPEF has positive effects to prevent biofilm-associated contamination of S. aureus.']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>Emerging food safety risk: The topic suggests potential risks associated with the use of high voltage pulsed electric fields (HVPEF) and ultra-high pressure homogenization (UHPH) in food processing. These methods may lead to the detachment and dispersal of biofilm-forming bacteria such as Staphylococcus aureus, which can transition from planktonic to biofilm states, complicating sanitation and increasing the risk of contamination.</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>'phytoextraction',</t>
+          <t>["'planktonic',", "'40000',", "'aureus',", "'biofilms']"]</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>["['thiosulfate',", "'chelating',", "'hg',"]</t>
+          <t>'aureus',</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>The use of phytoextraction to remove heavy metals from contaminated soils could lead to the accumulation of mercury (Hg) in plants. If these plants are used in food production without proper chelating agents like thiosulfate, there is a risk of mercury entering the food chain, posing serious health hazards.</t>
+          <t>["['hvpef',", "'uhph',", "'detachedcells',"]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Topic: ["['hvpef',", "'uhph',", "'detachedcells',"]
+Risk: ["'planktonic',", "'40000',", "'aureus',", "'biofilms']"]
+Output: High Voltage Pulsed Electric Fields (HVPEF) and Ultra-High Pressure Homogenization (UHPH) treatments may result in the detachment of cells, potentially leading to the formation of planktonic cells and biofilms, including those of Staphylococcus aureus, which can pose significant food safety risks.</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>976_expired_nafdac_disposal_unused</t>
+          <t>836_3d_printing_printed_ink</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.004034850217792</v>
+        <v>0.0052067446033652</v>
       </c>
       <c r="C22" t="n">
-        <v>976</v>
+        <v>836</v>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['expired', 'nafdac', 'disposal', 'unused', 'dispose', 'drugs', 'pharmacists', 'questionnaires', 'medicines', 'disposed']</t>
+          <t>['3d', 'printing', 'printed', 'ink', 'printability', 'inks', 'impacting', 'standardizing', 'printers', 'healthiness']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>['The use of medicines is a ubiquitous practice for the management of healthcare conditions. In the delivery of healthcare, medicines may remain unused and may expire within the various stakeholders in the pharmaceutical value chain. If these unused and expired medicines are not disposed of properly, they may result in the concentration of pharmaceuticals in environmental media contaminating food sources for humans and animals. Implementation of ecopharmacovigilance strategies will reduce the quantities of pharmaceuticals in the environmental media, reduce the potential for inadvertent consumption by humans and animals, and reduce potential pharmacological effects on the environment, humans, and animals. The drug disposal flow diagram (DDFD) provides an effective way of assessing the most cost-effective strategies to reduce environmental contamination.\nA combined method of desk study and questionnaires, both structured and unstructured was used. The desk study reviewed the institutional arrangements for the regulation of disposal of pharmaceutical waste in Krowor. The questionnaires were used to gather information from community members, community pharmacies, and pharmaceutical manufacturers in Krowor.\nThe drug disposal flow diagram shows that up to 96% of pharmaceuticals are handled and disposed of in ways that are harmful to the environment with only 4% being handled in ways that are environmentally friendly. Forty-nine percent (49%) of generated pharmaceutical waste ends up in the local and surrounding areas, 21% contaminates the drainage system and 25% is discharged into receiving waters. \nThe DDFD will support the effective implementation of ecopharmacovigilance (EPV) strategies.', 'Expired or unused medicines are potentially toxic substances that should be managed effectively to avoid accumulation of potentially toxic pharmaceuticals in the environment. In Nigeria, there is currently limited literature on the methods and protocols used by community pharmacists in the disposal of expired drugs. This study assessed disposal practices of expired and unused medications by pharmacists in Anambra State and compared them to the National Agency for Food and Drug Administration and Control (NAFDAC) guideline on disposal of expired drugs.\nA questionnaire survey and key informant interview (KII) was used for the study. The pre-tested revised and adapted questionnaires were sent to all the 103 community pharmacies in Pharmacists Council of Nigeria (PCN) 2015 record of registered pharmacies in Anambra State. The participants were asked questions about how they disposed of expired and unused medications. The respondents that used NAFDAC or drug wholesalers were asked questions on how the third party destroys their expired drugs. In addition to the use of a questionnaire, KII was conducted to assess relevant professionals and stakeholders in this area.\nThe study recorded 77 successfully returned questionnaires out of the 103 distributed and a response rate of 74.8%. The various disposal methods were: through NAFDAC 28.0 (31.8%), drug distributors 21.0 (23.9%), rubbish bins 8.0 (9.1%); this was mainly for solid dosage forms. However, 6.0(7.1%) reported that they used the sink to dispose of their liquid dosage forms and 24.0 (29.6%) noted they do not stock Class B controlled drugs. A lesser proportion of respondents 18.0 (23.4%) complied fully with the national guideline on disposal of expired drugs, while 17.0 (22.1%) complied partially and 42.0 (54.5%) did not comply. Some of the respondents 17.0 (22.1%) reported that NAFDAC uses incineration or other forms of heat to dispose of expired drugs, but 19.0 (24.7%) reported they do not know how NAFDAC dispose of their expired drugs. Majority of the respondents 55.0 (71.4%) suggested the state-run disposal system.\nPoor compliance with the national guideline for medication disposal increases the potential risk of contamination of our environment and increases the possibility of ingesting toxic pharmaceutical wastes by humans and animals. This underscores the need for improvement on expired drugs management protocols to prevent contaminations and the attendant health hazards.']</t>
+          <t>['Three-dimensional (3D) printing, as an emerging technology, is driving great progress in the food industry. In the meat field, 3D printing is expected to replace the traditional food industry and solve the problems of raw material waste and food contamination. Nevertheless, the application of 3D printing in meat still faces many challenges. The rheological properties of the ink, such as shear thinning behavior, viscosity, and yield stress, are critical in determining whether it can be printed smoothly and ensuring the quality of the product. Meat materials are complex multi-phase colloidal systems with unique fibrous structures that cannot be printed directly, and improving the printability of meat colloids mainly limits meat printing. The complexity of meat colloidal systems determines the different heat requirements. In addition, at this stage, the functionality of the printer and the formulation of a single nutritional and organoleptic properties limit the implementation and application of 3D printing. Moreover, the development of cultured meat, the full application of by-products, and the emergence of new technologies provides opportunities for the application of 3D printing in the meat industry. This review highlights the current challenges and opportunities for the application of 3D printing in meat to provide new ideas for the development of 3D printing.', '3D printing has numerous applications in the food industry that may enhance diversity, quality, healthiness, and sustainability. This innovative additive manufacturing technology has the ability to specifically tailor food properties for individuals. Nevertheless, several challenges still need to be overcome before 3D printing can be utilized more widely in the food industry. This article focuses on the development and characterization of "food inks" suitable for 3D printing of foods. Specifically, the main factors impacting successfully printed foods are highlighted, including material properties and printing parameters. The creation of a 3D printed food with the appropriate quality and functional attributes requires understanding and control of these factors. Food ink printability is an especially important factor that depends on their composition, structure, and physicochemical properties. Previous studies do not sufficiently describe the precise design and operation of 3D printers in sufficient detail, which makes comparing results challenging. Additionally, important physicochemical characteristics utilized in traditional food are not consistently reported in 3D inks, such as moisture content, water activity, and microbial contamination, which limits the practical application of the results. For this reason, we highlight important factors impacting 3D ink formulation and performance, then provide suggestions for standardizing and optimizing 3D printed foods.', '3D printing has numerous applications in the food industry that may enhance diversity, quality, healthiness, and sustainability. This innovative additive manufacturing technology has the ability to specifically tailor food properties for individuals. Nevertheless, several challenges still need to be overcome before 3D printing can be utilized more widely in the food industry. This article focuses on the development and characterization of "food inks" suitable for 3D printing of foods. Specifically, the main factors impacting successfully printed foods are highlighted, including material properties and printing parameters. The creation of a 3D printed food with the appropriate quality and functional attributes requires understanding and control of these factors. Food ink printability is an especially important factor that depends on their composition, structure, and physicochemical properties. Previous studies do not sufficiently describe the precise design and operation of 3D printers in sufficient detail, which makes comparing results challenging. Additionally, important physicochemical characteristics utilized in traditional food are not consistently reported in 3D inks, such as moisture content, water activity, and microbial contamination, which limits the practical application of the results. For this reason, we highlight important factors impacting 3D ink formulation and performance, then provide suggestions for standardizing and optimizing 3D printed foods.']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>["'pharmacists',", "'questionnaires',"]</t>
+          <t>Emerging food safety risk: The use of 3D printing technology in food production may introduce contaminants from printing inks and materials, which could pose health risks if not properly standardized and regulated.</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>'questionnaires',</t>
+          <t>["'impacting',", "'standardizing',", "'healthiness']"]</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>["['expired',", "'nafdac',", "'disposal',"]</t>
+          <t>'standardizing',</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Improper disposal practices of expired products, as assessed through questionnaires, can compromise food safety and violate NAFDAC regulations, potentially leading to health risks from consumption of expired goods.</t>
+          <t>["['3d',", "'printing',", "'printed',"]</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>The healthiness and safety of 3D-printed foods may be compromised if there is a lack of standardization and regulation, impacting the overall quality and safety of these innovative food products.</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>297_cdii_bioremediation_crvi_cd</t>
+          <t>903_proteins_spiders_expression_montrouzieri</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0028069285165582</v>
+        <v>0.0056231266686696</v>
       </c>
       <c r="C23" t="n">
-        <v>297</v>
+        <v>903</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['cdii', 'bioremediation', 'crvi', 'cd', 'nonbiodegradability', 'remedial', 'futuristic', 'smfc', 'attempts', 'biotechnologists']</t>
+          <t>['proteins', 'spiders', 'expression', 'montrouzieri', 'hemolymph', 'hc', 'grossa', 'gchaincontaining', 'immunostimulation', 'theridiidae']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>['Cadmium (Cd) pollution has become a global environmental issue because Cd gets easily accumulated and translocated in the food chain, threatening human health. Considering the detrimental effects and non-biodegradability of environmental Cd, this is an urgent issue that needs to be addressed through the development of robust, cost-effective, and eco-friendly green routes for monitoring and remediating toxic levels of Cd. This article attempts to review various bacterial approaches toward biosensing and bioremediation of Cd in the environment. This review focuses on the recent development of bacterial cell-based biosensors for the detection of bioavailable Cd and the bioremediation of toxic Cd by natural or genetically-engineered bacteria. The present limitations and future perspectives of these available bacterial approaches are outlined. New trends for integrating synthetic biology and metabolic engineering into the design of bacterial biosensors and bioadsorbers are additionally highlighted.', 'Cadmium (Cd) is a harmful heavy metal that can cause potent environmental and health hazards at different trophic levels through food chain. Cd is relatively non-biodegradable and persists for a long time in the environment. Considering the potential toxicity and non-biodegradability of Cd in the environment as well as its health hazards, this is an urgent issue of international concern that needs to be addressed by implicating suitable remedial approaches. The current article specifically attempts to review the different biological approaches for remediation of Cd contamination in natural resources. Further, bioremediation mechanisms of Cd by microbes such as bacteria, fungi, algae are comprehensively discussed. Studies indicate that heavy metal resistant microbes can be used as suitable biosorbents for the removal of Cd (up to 90%) in the natural resources. Soil-to-plant transfer coefficient (TC) of Cd ranges from 3.9 to 3340 depending on the availability of metal to plants and also on the type of plant species. The potential phytoremediation strategies for Cd removal and the key factors influencing bioremediation process are also emphasized. Studies on molecular mechanisms of transgenic plants for Cd bioremediation show immense potential for enhancing Cd phytoremediation efficiency. Thus, it is suggested that nano-technological based integrated bioremediation approaches could be a potential futuristic path for Cd decontamination in natural resources. This review would be highly useful for the biologists, chemists, biotechnologists and environmentalists to understand the long-term impacts of Cd on ecology and human health so that potential remedial measures could be taken in advance.', 'Cadmium (Cd) is a harmful heavy metal that can cause potent environmental and health hazards at different trophic levels through food chain. Cd is relatively non-biodegradable and persists for a long time in the environment. Considering the potential toxicity and non-biodegradability of Cd in the environment as well as its health hazards, this is an urgent issue of international concern that needs to be addressed by implicating suitable remedial approaches. The current article specifically attempts to review the different biological approaches for remediation of Cd contamination in natural resources. Further, bioremediation mechanisms of Cd by microbes such as bacteria, fungi, algae are comprehensively discussed. Studies indicate that heavy metal resistant microbes can be used as suitable biosorbents for the removal of Cd (up to 90%) in the natural resources. Soil-to-plant transfer coefficient (TC) of Cd ranges from 3.9 to 3340 depending on the availability of metal to plants and also on the type of plant species. The potential phytoremediation strategies for Cd removal and the key factors influencing bioremediation process are also emphasized. Studies on molecular mechanisms of transgenic plants for Cd bioremediation show immense potential for enhancing Cd phytoremediation efficiency. Thus, it is suggested that nano-technological based integrated bioremediation approaches could be a potential futuristic path for Cd decontamination in natural resources. This review would be highly useful for the biologists, chemists, biotechnologists and environmentalists to understand the long-term impacts of Cd on ecology and human health so that potential remedial measures could be taken in advance.']</t>
+          <t>['Ants easily accumulate cadmium (Cd) from the food web in terrestrial ecosystems. Cd contamination may cause olfactory dysfunction and consequently disorders in the social behavior of ants. To explore the molecular mechanism underlying the effect of Cd exposure on the chemosensory process of ants, we characterized the Cd-induced variations in the expression of genes involved in chemoreception and electrophysiological and behavioral sensitivity to semiochemicals by using the red imported fire ant, ', 'Contamination of agro-ecosystems with heavy metals can affect the development and reproduction of insect natural enemies. This study reports a detailed Tandem Mass Tag based quantitative proteomic analysis of underlying mechanisms responsible for stress response of Cryptolaemus montrouzieri against heavy metals (cadmium (Cd) and lead (Pb)) transported across a multi-trophic food chain. A total of 6639 proteins were detected under Cd as well as Pb stress. In Pb versus the control cluster, 69 proteins (28 up-regulated and 41 down-regulated) were differentially expressed whereas 268 proteins were differentially expressed under Cd versus the control cluster, having 198 proteins up-regulated and 70 down-regulated proteins. The analysis of differentially expressed proteins showed that 27 proteins overlapped in both clusters representing the core proteome to Pb and Cd stress. The bioinformatics analysis demonstrated that these proteins were mapped to 57 and 99 pathways in Pb versus control and Cd versus control clusters, respectively. The functional classification by COG, GO and KEGG databases showed significant changes in protein expression by C. montrouzieri under Pb and Cd stress. The heavy metal stress (Pb and Cd) induced significant changes in expression of proteins like hexokinase (HK), succinyl-CoA, trypsin like proteins, cysteine proteases, cell division cycle proteins, and yellow gene proteins. The results provide detailed information on the protein expression levels of C. montrouzieri and will serve as basic information for future proteomic studies on heavy metal responses of insect predators within a multi-trophic food chain.', 'The aim of this study was to evaluate the quantitative and qualitative changes in the proteome of the hemolymph of female Steatoda grossa spiders (Theridiidae) that were chronically exposed to cadmium and copper in food and were additionally immunostimulated (phorbol 12-myristate 13-acetate (PMA); bacterial suspensions: Staphylococcus aureus (G+), Pseudomonas fluorescens (G-). It was found that the expression of nearly 90 proteins was altered in cadmium-intoxicated spiders and more than 60 in copper-exposed individuals. Regardless of the type of metal used, these proteins were mainly overexpressed in the hemolymph of the exposed spiders. On the other hand, immunostimulation did not significantly change the number of proteins with altered expression in metal-intoxicated individuals. Hemocyanin (Hc) was found to be the most abundant of the proteins identified with altered expression. In copper-intoxicated spiders, immunostimulation increased the expression of A-, E-, F-, and G-chain-containing proteins, while in the case of cadmium-intoxicates spiders, it decreased the expression of E- and A-chain-containing Hc and increased the expression of G-chain-containing Hc. Regardless of the type of metal and immunostimulant used, there was an increase in the expression of actin. In addition, cadmium increased the expression of cullin, vimentin, and ceruloplasmin. The changes observed in the expression of hemolymph proteins indicate their protective function in S. grossa (Theridiidae) spiders under conditions of metal exposure.']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>["'attempts',"]</t>
+          <t>Emerging food safety risk: The use of spider proteins (specifically from the Theridiidae family) for immunostimulation in food products could pose a risk due to potential allergenicity and adverse immune responses in consumers.</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>'attempts',</t>
+          <t>["'montrouzieri',", "'hc',"]</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>["['cdii',", "'bioremediation',", "'crvi',"]</t>
+          <t>'montrouzieri',</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bioremediation efforts for reducing Cr(VI) contamination might be compromised by unsuccessful attempts to control CDII levels, posing a risk to environmental and food safety.</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>926_mc_pf_cellg_concentrationbased</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.0025628140703517</v>
-      </c>
-      <c r="C24" t="n">
-        <v>926</v>
-      </c>
-      <c r="D24" t="n">
-        <v>3</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['mc', 'pf', 'cellg', 'concentrationbased', 'lots', 'ceftiofur', 'heidelberg', 'ceftiofurresistant', 'turkey', 'scenarios']</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>["Salmonella Heidelberg resistant to ceftiofur (a third-generation cephalosporin antimicrobial agent) in broiler chicken products pose a risk to public health in Canada. The objective of this study was to assess the extent of that risk and to evaluate the effect of intervention measures along the agri-food chain. A stochastic farm-to-fork quantitative microbial risk assessment model was developed following the Codex Alimentarius Guidelines for Risk Analysis of Foodborne Antimicrobial Resistance. Different scenarios were analyzed to assess the individual relative effects of 18 possible interventions in comparison to a baseline scenario. The baseline scenario represented the first year of on-farm antimicrobial use surveillance in the Canadian broiler industry and the year before an industry-imposed ban on the preventive use of antimicrobials of very high importance to human health (2013), where 31.3% of broiler flocks consisted of birds to which ceftiofur was administered. The baseline scenario predicted an average probability of illness of 1.1 per 100,000 servings (SE: 0.064 per 100,000), corresponding to an average of 22,000 human infections (SE: 1900) with ceftiofur-resistant S. Heidelberg per year, which is likely an overestimation. This risk was reduced by 90% or 20% when two separate scenarios designed to capture the effect of withdrawing preventive ceftiofur use from poultry production were simulated using different approaches; data used for the former scenario were confounded by other potential concomitant control measures (e.g. Salmonella vaccination programme), so the true effect likely lies somewhere between the two estimates. A theoretical 'worst case' scenario where all flocks had birds exposed to ceftiofur increased the risk by 107%. A 50% reduction in the probability of human prior exposure to antimicrobials, which has a selective and competitive effect for Salmonella spp. following ingestion of contaminated products, reduced the risk by 65%. Other promising measures that could be considered for further risk management included improved cleaning and disinfection between broiler flocks on farm (risk reduction by 26%), exclusive use of air chilling (risk reduction by 34%), and the improvement of meat storage and preparation conditions, e.g., no temperature abuse at retail (risk reduction by 88%). These findings showed the importance of a structured approach to assessing and potentially implementing effective interventions to reduce the risk associated with ceftiofur-resistant S. Heidelberg at different steps along the agri-food chain. Major data gaps included information on concentrations of resistant bacteria, cross contamination at processing and how ceftiofur-resistant S. Heidelberg behave in comparison with susceptible ones, e.g., in terms of growth and survival ability, as well as pathogenicity and virulence.", "Despite initiatives to improve the safety of poultry products in the United States, progress has stalled, and salmonellosis incidence is still above Healthy People 2020's goal. One strategy to manage Salmonella and verify process control in poultry establishments is to implement microbiological criteria (MC) linked to public health outcomes. Concentration-based MC have been used by the food industry; however, the public health impact of such approaches is only starting to be assessed. This study evaluated the public health impact of a concentration-based MC for Salmonella in raw ground turkey consumed in the United States using a quantitative risk assessment modeling approach. The distribution of Salmonella concentration in ground turkey was derived from USDA-FSIS monitoring surveys. Other variables and parameters were derived from public databases, literature, and expert opinion. Based on considered concentrations, implementing a MC of 1 cell/g led to an estimated 46.1% reduction (preventable fraction, PF) in the mean probability of illness when consumer cooking and cross-contamination were included. The PF was consistent across scenarios including or excluding cross-contamination and cooking, with slightly lower mean PF when cross-contamination was included. The proportion of lots not compliant with the 1 cell/g MC was 1.05% in the main scenarios and increased nonlinearly when higher Salmonella concentrations were assumed. Assumptions on concentration variability across lots and within lots had a large impact, highlighting the benefit of reducing this uncertainty. These approach and results can help inform the development of MC to monitor and control Salmonella in ground turkey products.", "Despite initiatives to improve the safety of poultry products in the United States, progress has stalled, and salmonellosis incidence is still above Healthy People 2020's goal. One strategy to manage Salmonella and verify process control in poultry establishments is to implement microbiological criteria (MC) linked to public health outcomes. Concentration-based MC have been used by the food industry; however, the public health impact of such approaches is only starting to be assessed. This study evaluated the public health impact of a concentration-based MC for Salmonella in raw ground turkey consumed in the United States using a quantitative risk assessment modeling approach. The distribution of Salmonella concentration in ground turkey was derived from USDA-FSIS monitoring surveys. Other variables and parameters were derived from public databases, literature, and expert opinion. Based on considered concentrations, implementing a MC of 1 cell/g led to an estimated 46.1% reduction (preventable fraction, PF) in the mean probability of illness when consumer cooking and cross-contamination were included. The PF was consistent across scenarios including or excluding cross-contamination and cooking, with slightly lower mean PF when cross-contamination was included. The proportion of lots not compliant with the 1 cell/g MC was 1.05% in the main scenarios and increased nonlinearly when higher Salmonella concentrations were assumed. Assumptions on concentration variability across lots and within lots had a large impact, highlighting the benefit of reducing this uncertainty. These approach and results can help inform the development of MC to monitor and control Salmonella in ground turkey products."]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>["'concentrationbased',", "'lots',", "'heidelberg',", "'scenarios']"]</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>'lots',</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>["['mc',", "'pf',", "'cellg',"]</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>The presence of 'lots' in the context of 'mc', 'pf', and 'cellg' could imply that large quantities of microbial contaminants (mc) and pathogens (pf) are present in cell cultures (cellg), posing a significant risk of contamination and potential foodborne illnesses. Proper microbial control and pathogen detection are crucial to ensure the safety of cell-based food products.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>963_gso_ecommerce_smart_planet</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.0025628140703517</v>
-      </c>
-      <c r="C25" t="n">
-        <v>963</v>
-      </c>
-      <c r="D25" t="n">
-        <v>3</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['gso', 'ecommerce', 'smart', 'planet', 'endogenous', 'recounted', 'interdependence', 'denominator', 'topics', 'forge']</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>['With the development in international food trade, there has been emerging risks in the food chain. Food contamination can be caused by several factors in a complex food chain. This articles provides a comprehensive review of known chemical contaminants from the production of raw materials to the consumption of food products as well as prevention and control measures. Specifically, this review discusses the following topics, raw material contamination caused by environmental pollution, endogenous food contamination caused by processing methods, and cold chain system challenges in food e-commerce.', 'Rapid rate of industrialization has turned our planet around in favor of fast foods, food fraud, food terrorism, food waste, food adulteration, food poisoning, food contamination and food injustice, paving the path for green, smart and organic products. Green foods are grown and harvested in the absence of any form of environmental pollution or harmful conditions. Smart foods are termed to be good for the consumers, farmers and the planet. Organic foods are regarded as "credence goods" because some of the attributes that consumers may consider are neither obvious nor easily verified. Therefore, these three terms are interconnected as they forge a substantive common denominator - healthfulness. The concepts of green, smart and organic (GSO) foods are herein recounted together with their interdependence and relationship to health and sustainability. The processes, policies and global trends of GSO foods were discussed, whilst not undermining the benefits and challenges associated with them.', 'With the development in international food trade, there has been emerging risks in the food chain. Food contamination can be caused by several factors in a complex food chain. This articles provides a comprehensive review of known chemical contaminants from the production of raw materials to the consumption of food products as well as prevention and control measures. Specifically, this review discusses the following topics, raw material contamination caused by environmental pollution, endogenous food contamination caused by processing methods, and cold chain system challenges in food e-commerce.']</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>["'endogenous',", "'recounted',", "'interdependence',", "'denominator',"]</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>'denominator',</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>["['gso',", "'ecommerce',", "'smart',"]</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>The integration of smart technologies in e-commerce platforms (GSO) could pose significant risks if the denominator of data security measures is not adequately addressed, leading to potential breaches and threats to food safety.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>456_regulators_mycotoxin_mycotoxins_moulds</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.0042540130004611</v>
-      </c>
-      <c r="C26" t="n">
-        <v>456</v>
-      </c>
-      <c r="D26" t="n">
-        <v>6</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['regulators', 'mycotoxin', 'mycotoxins', 'moulds', 'metabolities', 'pathwayspecific', 'buildingrelated', 'smallmolecule', 'mycotoxicity', 'undertake']</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>['Mycotoxins are toxic secondary metabolites produced by filamentous fungi that are commonly detected as natural contaminants in agricultural commodities worldwide. Mycotoxin exposure can lead to mycotoxicosis in both animals and humans when found in animal feeds and food products, and at lower concentrations can affect animal performance by disrupting nutrient digestion, absorption, metabolism, and animal physiology. Thus, mycotoxin contamination of animal feeds represents a significant issue to the livestock industry and is a health threat to food animals. Since prevention of mycotoxin formation is difficult to undertake to avoid contamination, mitigation strategies are needed. This review explores how the mycotoxins aflatoxins, deoxynivalenol, zearalenone, fumonisins and ochratoxin A impose nutritional and metabolic effects on food animals and summarizes mitigation strategies to reduce the risk of mycotoxicity.', 'Mycotoxins are toxic fungal secondary metabolities formed by a variety of fungi (moulds) species. Hundreds of potentially toxic mycotoxins have been already identified and are considered a serious problem in agriculture, animal husbandry, and public health. A large number of food-related products and beverages are yearly contaminated by mycotoxins, resulting in economic welfare losses. Mycotoxin indoor environment contamination is a global problem especially in less technologically developed countries. There is an ongoing effort in prevention of mould growth in the field and decontamination of contaminated food and feed in order to protect human and animal health. It should be emphasized that the mycotoxins production by fungi (moulds) species is unavoidable and that they are more toxic than pesticides. Human and animals are exposed to mycotoxin via food, inhalation, or contact which can result in many building-related illnesses including kidney and neurological diseases and cancer. In this review, we described in detail the molecular aspects of main representatives of mycotoxins, which are serious problems for global health, such as aflatoxins, ochratoxin A, T-2 toxin, deoxynivalenol, patulin, and zearalenone.', 'Mycotoxin contamination in food poses health hazards to humans. Current methods of controlling mycotoxins still have limitations and more effective approaches are needed. During the past decades of years, variable environmental factors have been tested for their influence on mycotoxin production leading to elucidation of a complex regulatory network involved in mycotoxin biosynthesis. These regulators are putative targets for screening molecules that could inhibit mycotoxin synthesis. Here, we summarize the regulatory mechanisms of hierarchical regulators, including pathway-specific regulators, global regulators and epigenetic regulators, on the production of the most critical mycotoxins (aflatoxins, patulin, citrinin, trichothecenes and fumonisins). Future studies on regulation of mycotoxins will provide valuable knowledge for exploring novel methods to inhibit mycotoxin biosynthesis in a more efficient way.']</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>["'buildingrelated',", "'undertake']"]</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>'buildingrelated',</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>["['regulators',", "'mycotoxin',", "'mycotoxins',"]</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>The risk of mycotoxin contamination in buildings, potentially leading to the presence of regulators and the necessity for strict monitoring and control measures to mitigate health hazards associated with mycotoxins.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>819_nickel_drinks_bioaccessibility_plantbased</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0.0025628140703517</v>
-      </c>
-      <c r="C27" t="n">
-        <v>819</v>
-      </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['nickel', 'drinks', 'bioaccessibility', 'plantbased', 'overestimation', 'bioavailability', 'animalbased', 'bioaccessibilitybioavailability', 'legumes', 'epithelium']</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>['Nickel can occur in plant-based, animal-based foods and drinks. It can either naturally occur in plants or it could originate from contamination. The natural occurrence of nickel arises from the fact that the element plays an essential role in the functioning of enzymes involved in the nitrogen fixation process. Besides, contamination can occur at any stage of the production, processing or packing of the foods. More specifically, nickel can leach from contact materials to foods or drinks before their consumption by humans. In recent years, the European Food Safety Authority expressed concern regarding the chronic and acute exposure of the European population to nickel. This study aimed to screen foods available on the Belgian market for their nickel content and to identify potential sources of the contamination. In total, 708 samples were collected from three different main categories of foods, including plant-based products, animal-based products and drinks. Elevated nickel concentrations were found in plant-based products such as chocolate, legumes, nuts, figs, peanut butter, chocolate spreads and breakfast cereals. The nickel concentrations in the animal-based products and drinks were significantly lower compared to the plant-based products. In the beer samples, no correlation between the alcohol percentage and nickel concentration was found. Higher nickel concentrations were found in the tea drinks in comparison to other drinks. Furthermore, the effect of packaging, e.g. storage in cans, on the final nickel concentration of the foods was investigated. No effect of the packaging was found, demonstrating that leaching of nickel from packaging materials is not significantly contributing to the nickel content in foods. The results demonstrate high concentrations of nickel in some plant-based food products and further exposure assessment studies are needed to evaluate the risk due to intake of nickel-enriched food products.', 'The metal nickel is well known to cause nickel allergy in sensitive humans by prolonged dermal contact to materials releasing (high) amounts of nickel. Oral nickel exposure via water and food intake is of potential concern. Nickel is essential to plants and animals and can be naturally found in food products or contamination may occur across the agro-food chain. This gap analysis is an evaluation of nickel as a potential food safety hazard causing a risk for human health. In the first step, the available data regarding the occurrence of nickel and its contamination in food and drinks have been collected through literature review. Subsequently, a discussion is held on the potential risks associated with this contamination. Elevated nickel concentrations were mostly found in plant-based foods, e.g. legumes and nuts in which nickel of natural origin is expected. However, it was observed that dedicated and systematic screening of foodstuffs for the presence of nickel is currently still lacking. In a next step, published studies on exposure of humans to nickel via foods and drinks were critically evaluated. Not including bioaccessibility and/or bioavailability of the metal may lead to an overestimation of the exposure of the body to nickel via food and drinks. This overestimation may be problematic when the measured nickel level in foods is high and bioaccessibility and/or bioavailability of nickel in these products is low. Therefore, this paper analyzes the outcomes of the existing dietary intake and bioaccessibility/bioavailability studies conducted for nickel. Besides, the available gaps in nickel bioaccessibility and/or bioavailability studies have been clarified in this paper. The reported bioaccessibility and bioavailability percentages for different food and drinks were found to vary between &lt;LOD and 83% and between 0 and 30% respectively. This indicates that of the total nickel contained in the foodstuffs only a fraction can be absorbed by the intestinal epithelium cells. This paper provides a unique critical overview on nickel in the human diet starting from factors affecting its occurrence in food until its absorption by the body.', 'The metal nickel is well known to cause nickel allergy in sensitive humans by prolonged dermal contact to materials releasing (high) amounts of nickel. Oral nickel exposure via water and food intake is of potential concern. Nickel is essential to plants and animals and can be naturally found in food products or contamination may occur across the agro-food chain. This gap analysis is an evaluation of nickel as a potential food safety hazard causing a risk for human health. In the first step, the available data regarding the occurrence of nickel and its contamination in food and drinks have been collected through literature review. Subsequently, a discussion is held on the potential risks associated with this contamination. Elevated nickel concentrations were mostly found in plant-based foods, e.g. legumes and nuts in which nickel of natural origin is expected. However, it was observed that dedicated and systematic screening of foodstuffs for the presence of nickel is currently still lacking. In a next step, published studies on exposure of humans to nickel via foods and drinks were critically evaluated. Not including bioaccessibility and/or bioavailability of the metal may lead to an overestimation of the exposure of the body to nickel via food and drinks. This overestimation may be problematic when the measured nickel level in foods is high and bioaccessibility and/or bioavailability of nickel in these products is low. Therefore, this paper analyzes the outcomes of the existing dietary intake and bioaccessibility/bioavailability studies conducted for nickel. Besides, the available gaps in nickel bioaccessibility and/or bioavailability studies have been clarified in this paper. The reported bioaccessibility and bioavailability percentages for different food and drinks were found to vary between &lt;LOD and 83% and between 0 and 30% respectively. This indicates that of the total nickel contained in the foodstuffs only a fraction can be absorbed by the intestinal epithelium cells. This paper provides a unique critical overview on nickel in the human diet starting from factors affecting its occurrence in food until its absorption by the body.']</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>["'overestimation',"]</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>'overestimation',</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>["['nickel',", "'drinks',", "'bioaccessibility',"]</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Overestimation of nickel bioaccessibility in drinks could lead to inaccurate risk assessments and potential health concerns for consumers due to excessive regulatory measures or unnecessary dietary restrictions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>413_surrogate_foodspoilage_indicator_seriously</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>0.0026972060393724</v>
-      </c>
-      <c r="C28" t="n">
-        <v>413</v>
-      </c>
-      <c r="D28" t="n">
-        <v>6</v>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['surrogate', 'foodspoilage', 'indicator', 'seriously', 'examining', 'microorganisms', 'coliform', 'selected', 'affects', 'bacteria']</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>['Food contamination caused by food-spoilage bacteria and pathogenic bacteria seriously affects public health. ', 'This study selected and used indicator and surrogate microorganisms for ', 'This study selected and used indicator and surrogate microorganisms for ']</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>["'seriously',", "'affects',"]</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>'seriously',</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>["['surrogate',", "'foodspoilage',", "'indicator',"]</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>The use of surrogate organisms as indicators of food spoilage may be seriously compromised if they do not accurately represent the spoilage potential of pathogens or spoilage organisms in real food systems.</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>825_text_posts_reviews_online</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>0.0025628140703517</v>
-      </c>
-      <c r="C29" t="n">
-        <v>825</v>
-      </c>
-      <c r="D29" t="n">
-        <v>3</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['text', 'posts', 'reviews', 'online', 'unsafe', 'amazoncom', 'utilizing', 'machine', '7790', '1126']</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>['Access to safe and nutritious food is essential for good health. However, food can become unsafe due to contamination with pathogens, chemicals or toxins, or mislabeling of allergens. Illness resulting from the consumption of unsafe foods is a global health problem. Here, we develop a machine learning approach for detecting reports of unsafe food products in consumer product reviews from Amazon.com.\nWe linked Amazon.com food product reviews to Food and Drug Administration (FDA) food recalls from 2012 to 2014 using text matching approaches in a PostGres relational database. We applied machine learning methods and over- and under-sampling methods to the linked data to automate the detection of reports of unsafe food products.\nOur data consisted of 1 297 156 product reviews from Amazon.com. Only 5149 (0.4%) were linked to recalled food products. Bidirectional Encoder Representation from Transformations performed best in identifying unsafe food reviews, achieving an F1 score, precision and recall of 0.74, 0.78, and 0.71, respectively. We also identified synonyms for terms associated with FDA recalls in more than 20 000 reviews, most of which were associated with nonrecalled products. This might suggest that many more products should have been recalled or investigated.\nChallenges to improving food safety include, urbanization which has led to a longer food chain, underreporting of illness and difficulty in linking contaminated food to illness. Our approach can improve food safety by enabling early identification of unsafe foods which can lead to timely recall thereby limiting the health and economic impact on the public.', "Food contamination and food poisoning pose enormous risks to consumers across the world. As discussions of consumer experiences have spread through online media, we propose the use of text mining to rapidly screen online media for mentions of food safety hazards. We compile a large data set of labeled consumer posts spanning two major websites. Utilizing text mining and supervised machine learning, we identify unique words and phrases in online posts that identify consumers' interactions with hazardous food products. We compare our methods to traditional sentiment-based text mining. We assess performance in a high-volume setting, utilizing a data set of over 4 million online reviews. Our methods were 77-90% accurate in top-ranking reviews, while sentiment analysis was just 11-26% accurate. Moreover, we aggregate review-level results to make product-level risk assessments. A panel of 21 food safety experts assessed our model's hazard-flagged products to exhibit substantially higher risk than baseline products. We suggest the use of these tools to profile food items and assess risk, building a postmarket decision support system to identify hazardous food products. Our research contributes to the literature and practice by providing practical and inexpensive means for rapidly monitoring food safety in real time.", "Food contamination and food poisoning pose enormous risks to consumers across the world. As discussions of consumer experiences have spread through online media, we propose the use of text mining to rapidly screen online media for mentions of food safety hazards. We compile a large data set of labeled consumer posts spanning two major websites. Utilizing text mining and supervised machine learning, we identify unique words and phrases in online posts that identify consumers' interactions with hazardous food products. We compare our methods to traditional sentiment-based text mining. We assess performance in a high-volume setting, utilizing a data set of over 4 million online reviews. Our methods were 77-90% accurate in top-ranking reviews, while sentiment analysis was just 11-26% accurate. Moreover, we aggregate review-level results to make product-level risk assessments. A panel of 21 food safety experts assessed our model's hazard-flagged products to exhibit substantially higher risk than baseline products. We suggest the use of these tools to profile food items and assess risk, building a postmarket decision support system to identify hazardous food products. Our research contributes to the literature and practice by providing practical and inexpensive means for rapidly monitoring food safety in real time."]</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>["'utilizing',", "'7790',", "'1126']"]</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>'7790',</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>["['text',", "'posts',", "'reviews',"]</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Risk: Inaccurate or misleading information about food safety practices can spread through text posts and reviews, potentially endangering public health if consumers follow unsafe advice.</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>455_formulae_infant_formulas_toddler</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0.0042540130004611</v>
-      </c>
-      <c r="C30" t="n">
-        <v>455</v>
-      </c>
-      <c r="D30" t="n">
-        <v>6</v>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['formulae', 'infant', 'formulas', 'toddler', 'infants', 'mgkg', 'milkbased', 'toxicelement', 'nigeria', 'cereal']</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>['Excessive exposure to inorganic contaminants through ingestion of foods, such as those commonly referred to as heavy metals may cause cancer and other non-cancerous adverse effects. Infants and young children are especially vulnerable to these toxic effects due to their immature development and high \'food intake/ body weight\' ratio. Concerns have been raised by multiple independent studies that heavy metals have been found to be present in many foods in the infant and child food sector. Most recently, reports from the U.S. House of Representatives Subcommittee on Economic and Consumer Policy suggest subpar testing practices, lenient or absent standards, and limited oversight of food manufacturers perpetuate the presence of these contaminants in infant and toddler foods. The aim of this narrative review is to evaluate the current state of policies in the United States designed to safe-guard against excessive heavy metal exposure and to discuss what is presently known about the presence of the so-called heavy metals; arsenic, lead, mercury and cadmium found in infant and toddler foods. PubMed was used to search for studies published between 1999 and 2022 using a combination of search terms including: "heavy metal," "contamination," "infant," "toddler," and "complementary food".', 'Infant formulas are useful alternatives to breast milk in many circumstances but may pose health risks to infants and children due to contamination by potentially toxic metals. This study aimed to determine the aluminium, arsenic and mercury concentrations and carry out an exposure health risk assessment in commonly consumed infant formulas in Nigeria.\nDifferent brands of both locally manufactured and imported infant formulas were purchased in March 2017 from stores in Port Harcourt, Nigeria. Analysis of metals in the samples was performed by atomic absorption spectrophotometry. The health risk was assessed by comparing estimated daily intake of aluminium, arsenic and mercury with the provisional tolerable daily intake acceptable by the Joint Food and Agricultural Organization/World Health Organization Expert Committee on Food Additives (JECFA).\nA total of 26 infant formulas were analysed. The levels of arsenic were higher in cereal-based formulas compared to milk-based formulas, but the difference was not significant (\nCommonly consumed infant formulas in Nigeria may add to the body burden of arsenic in children.', 'There has been concern on the likelihood of contamination of infant formulae and consequent health risk in children.\nThis study has assessed and compared the lead and cadmium levels in infant formulae commonly consumed in Nigeria with international regulatory limits. It has also compared the estimated daily intake with Joint FAO/WHO Expert Committee on Food Additives (JECFA) and Proposition 65 Provisional Tolerable Daily Intake.\nLead and cadmium levels in 26 different brands of infant formulae purchased from stores in Port-Harcourt, Rivers state, Nigeria in January 2018 were assayed by Atomic Absorption Spectrophotometry.\nThe lead and cadmium levels in milk based infant formulae ranged from 0.61-3.50 mg/kg and 0.01-0.55 mg/kg respectively whereas the range of the lead and cadmium levels in the cereal and cereal mix based were 0.29-1.95 mg/kg and 0.02-0.37 mg/kg, and 0.47-2.34 mg/kg and 0.001-0.46 mg/kg respectively. The mean lead level in the milk-based formulae (1.49 0.89 mg/kg) was slightly higher than other groups of formulae but the difference was not significant (p&lt;0.05). The mean level of cadmium (0.17 mg/kg) in milk-based infant formulae was higher than levels in cereal and cereal mix but there was no significant statistical difference (p&lt;0.05) between the samples. The lead and cadmium level in milk, cereal and cereal mixed based infant formulae were above the food safe limits.\nThe consumption of infant formulae may add to the body burden of cadmium and lead of children with attendant public health implication. Regular monitoring and safety assessment of metals contamination of these infant formulae is advised.']</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>["'mgkg',", "'nigeria',"]</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>'nigeria',</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>["['formulae',", "'infant',", "'formulas',"]</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Infant formula contamination and supply chain issues in Nigeria may pose significant health risks to infants due to potential exposure to unsafe ingredients or inadequate nutritional standards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>402_ndma_ranitidine_nitrosamine_medications</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0.0039691488567868</v>
-      </c>
-      <c r="C31" t="n">
-        <v>402</v>
-      </c>
-      <c r="D31" t="n">
-        <v>6</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['ndma', 'ranitidine', 'nitrosamine', 'medications', 'impurities', 'arbs', 'safetybased', 'angiotensin', 'nnitrosamine', 'valsartan']</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>['Nitrosamines are known carcinogens which have been recently discovered in several angiotensin receptor blockers (ARBs). This led to the recall of valsartan in the United States in 2018, and afterward, the recall of other ARBs as well as unrelated medications (e.g., ranitidine). The presence of nitrosamine in ARBs was likely a result of changes in the manufacturing process, although nitrosamine contamination is believed to occur by different mechanisms with other medications. The United States Food and Drug Administration has since taken steps to identify products affected by nitrosamine contamination and mitigate this concern going forward. Despite the contamination of some drug products, studies estimate that the overall risk to patients is low enough to not necessitate changes in prescribing patterns at this time.', "NDMA is a semivolatile organic chemical classified as a probable carcinogen by the International Agency for Research on Cancer. NDMA exposure to humans is potentially vast, with reports of it occurring in tobacco products, food, water, interior air of cars, toiletries, and a variety of other household goods. Public attention has recently focused on NDMA contamination because it has been implicated in the recall of several medications, including valsartan, losartan, irbesartan, and, most recently, the removal of ranitidine from the market. Its potential for elevated risk of cancer has sparked concern in the health care community. Pharmacists are uniquely situated to process and use this complex information because of their extensive pharmacokinetic and pharmacodynamic knowledge of medications, direct and regular contact with patients, insights and familiarity with recalls, and ability to discuss alternative medications that may alleviate a patient's concerns. It is important to communicate the context and clinical relevance of NDMA contamination to both patients and fellow health care clinicians. Pharmacists can help balance the potential adverse effects of switching medication and the concern related to NDMA in making an informed health decision.", 'Ranitidine is a medication that has been used to alleviate heartburn and other disorders for over 40 years. Following reports of N-nitrosodimethylamine (NDMA) contamination in ranitidine products, there have been many recalls and registration suspensions. Here, we revise the literature information confirming ranitidine association with NDMA. Then, we highlight the documented mechanisms for NDMA release from ranitidine. In addition, the stability issue for this medicine is discussed. After that, we review and discuss the results of the United States Food and Drug Administration and the Australian Therapeutic Goods Administration laboratory testing of ranitidine products and the detected NDMA levels. Finally, the case of NDMA generation in Angiotensin II Receptor Blockers (ARBs) and ranitidine were compared in an attempt to address the circumstances leading to the current contamination.']</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>'impurities',</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>["['ndma',", "'ranitidine',", "'nitrosamine',"]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Impurities in the production of ranitidine can lead to the formation of NDMA, a nitrosamine compound, which poses a significant carcinogenic risk to consumers.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>302_aptamers_split_aptamer_gyms</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0.0028431048010595</v>
-      </c>
-      <c r="C32" t="n">
-        <v>302</v>
-      </c>
-      <c r="D32" t="n">
-        <v>7</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['aptamers', 'split', 'aptamer', 'gyms', 'aptasensors', 'affinity', 'antibiotics', 'pat', 'electrochemical', 'selex']</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>['Gymnodimines (GYMs), belonging to cyclic imines (CIs), are characterized as fast-acting toxins, and may pose potential risks to human health and the aquaculture industry through the contamination of sea food. The existing detection methods of GYMs have certain defects in practice, such as ethical problems or the requirement of complicated equipment. As novel molecular recognition elements, aptamers have been applied in many areas, including the detection of marine biotoxins. However, GYMs are liposoluble molecules with low molecular weight and limited numbers of chemical groups, which are considered as "challenging" targets for aptamers selection. In this study, Capture-SELEX was used as the main strategy in screening aptamers targeting gymnodimine-A (GYM-A), and an aptamer named G48nop, with the highest ', 'Antibiotics are often used in human and veterinary medicine for the treatment of bacterial diseases. However, extensive use of antibiotics in agriculture can result in the contamination of common food staples such as milk. Consumption of contaminated products can cause serious illness and a rise in antibiotic resistance. Conventional methods of antibiotics detection such are microbiological assays chromatographic and mass spectroscopy methods are sensitive; however, they require qualified personnel, expensive instruments, and sample pretreatment. Biosensor technology can overcome these drawbacks. This review is focused on the recent achievements in the electrochemical biosensors based on nucleic acid aptamers for antibiotic detection. A brief explanation of conventional methods of antibiotic detection is also provided. The methods of the aptamer selection are explained, together with the approach used for the improvement of aptamer affinity by post-SELEX modification and computer modeling. The substantial focus of this review is on the explanation of the principles of the electrochemical detection of antibiotics by aptasensors and on recent achievements in the development of electrochemical aptasensors. The current trends and problems in practical applications of aptasensors are also discussed.', 'Antibiotic contamination is becoming a prominent global issue. Therefore, sensitive, specific and simple technology is desirable the demand for antibiotics detection. Biosensors based on split aptamer has gradually attracted extensive attention for antibiotic detection due to its higher sensitivity, lower cost, false positive/negative avoidance and flexibility in sensor design. Although many of the reported split aptamers are antibiotics aptamers, the acquisition and mechanism of splitting is still unknow. In this review, six reported split aptamers in antibiotics are outlined, including Enrofloxacin, Kanamycin, Tetracycline, Tobramycin, Neomycin, Streptomycin, which have contributed to promote interest, awareness and thoughts into this emerging research field. The study introduced the pros and cons of split aptamers, summarized the assembly principle of split aptamer and discussed the intermolecular binding of antibiotic-aptamer complexes. In addition, the recent application of split aptamers in antibiotic detection are introduced. Split aptamers have a promising future in the design and development of biosensors for antibiotic detection in food and other field. The development of the antibiotic split aptamer meets many challenges including mechanism discovery, stability improvement and new biosensor development. It is believed that split aptamer could be a powerful molecular probe and plays an important role in aptamer biosensor.']</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>["'gyms',", "'antibiotics',", "'electrochemical',"]</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>'gyms',</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>["['aptamers',", "'split',", "'aptamer',"]</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>Aptamers, which are short, single-stranded DNA or RNA molecules that can selectively bind to specific targets, could potentially be contaminated or degraded in environments like gyms due to poor hygiene practices, leading to compromised safety and effectiveness in their applications, including diagnostics or therapeutic uses.</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>1039_chia_afs_lebanon_1099</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>0.0036823718994819</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1039</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['chia', 'afs', 'lebanon', '1099', 'bangkok', 'seeds', 'aflatoxigenic', 'precolumn', 'ngg', 'herbs']</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>['Aflatoxin B\nIn Lebanon, few studies address aflatoxin B\nIn this work, a total of 198 samples of spices, herbs, and nuts were collected from different sites. Aflatoxin B\nAflatoxin B\nThe consumption of spices, herbs, and nuts in Lebanon could lead to an increase in health risks associated with aflatoxin B', 'This study was conducted to investigate possible contamination by aflatoxins (AFs) and aflatoxigenic fungi in imported chia seeds consumed in Thailand. A survey was performed on 100 samples of imported chia seeds collected from supermarkets and health food stores in Bangkok from May 2017 to February 2018. Ten mold species belonging to Aspergillus and Penicillium were isolated, and Aspergillus flavus was the most prevalent aflatoxigenic fungi. Chia seed samples were cleaned with an immunoaffinity column and analyzed for AFs by high-performance liquid chromatography with fluorescence detection using precolumn derivatization. AFs were detected in 40% of total samples at concentrations of 0.4 to 10.99 ng/g. Among the positive samples, three were contaminated with total AFs at concentrations higher than the European Union regulatory limit (4 ng/g). The most commonly found AF found in chia seeds was AFB1.']</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>["'1099',", "'precolumn',", "'herbs']"]</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>'precolumn',</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>["['chia',", "'afs',", "'lebanon',"]</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>The potential food safety risk involves the contamination of chia seeds with aflatoxins (AFS) in Lebanon due to improper precolumn sample preparation and handling during testing, leading to inaccurate detection and potential health hazards.</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>630_hvpef_uhph_detachedcells_psi</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0.0030742954739538</v>
-      </c>
-      <c r="C34" t="n">
-        <v>630</v>
-      </c>
-      <c r="D34" t="n">
-        <v>4</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>['hvpef', 'uhph', 'detachedcells', 'psi', 'planktonic', '40000', 'voltage', 'scanning', 'aureus', 'biofilms']</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>['Staphylococcus aureus is one of the main pathogens contributing to foodborne outbreaks, owing in part to its ability to form biofilms on food-contact surfaces. Cells that can detach from mature biofilms are a source for microbial cross-contamination in liquid food systems. The study was to evaluate and compare the resistance of detached-cells of biofilm formed by S. aureus and planktonic cells to Ultra High Pressure Homogenization (UHPH), a non-thermal technology applied in food processing. The results showed that the survival of both detached-cells and planktonic cells was dependent upon the applied pressure ranging from 30,000 PSI to 40,000 PSI, and cycle numbers with 1 and 3. A significant difference in UHPH resistance was observed at pressures of 35,000 PSI to 40,000 PSI whereby planktonic cell numbers were reduced about 2.0 log CFU/mL compared to a 0.5 log CFU/mL reduction of detached-cells. Cell resistance was further evaluated following UHPH by measuring membrane integrity and potential, as well as observing the cells using scanning electron microscopy (SEM). SEM images revealed more scattered exopolysaccharides in the biofilm after UHPH treatment compared to the control. Additionally, UHPH treatment resulted in planktonic cells having a greater shift to smaller cell size and a wider cell size distribution compared with detached-cells; this indicated a higher resistance of detached-cells to UHPH. This finding suggests that although UHPH has great potential application in food sterilization, the resistance of detached-cells cannot be ignored.', 'The study was to investigate the inhibitory effect and mechanism of high voltage prick electrostatic field (HVPEF) on Staphylococcus aureus biofilms. Results showed that HVPEF effectively inactivated 24-h and 48-h established S. aureus biofilms, and the effect was verified on different food-contact materials. Confocal laser scanning microscopy and scanning electron microscopy analysis suggested that HVPEF disintegrated the established biofilms by killing the embedded bacteria, but it hardly reduced the bacteria adhesion. HVPEF also effectively inhibit the formation of S. aureus biofilms, the effects varied with electric voltage, treatment time and biofilm culture conditions. The direct effect of HVPEF on planktonic S. aureus was a possible mode of biofilm formation inhibition. HVPEF also suppressed biofilm formation by reducing the release of key compositions of extracellular polymeric substance, including extracellular DNA (eDNA), protein and polysaccharide intercellular adhesion (PIA), and regulating the expression of biofilm formation related genes (icaA, ebh, cidA, sarA, icaR and sigB). We propose HVPEF as a novel method to inhibit bacteria biofilm, based on the results, HVPEF has positive effects to prevent biofilm-associated contamination of S. aureus.', 'The study was to investigate the inhibitory effect and mechanism of high voltage prick electrostatic field (HVPEF) on Staphylococcus aureus biofilms. Results showed that HVPEF effectively inactivated 24-h and 48-h established S. aureus biofilms, and the effect was verified on different food-contact materials. Confocal laser scanning microscopy and scanning electron microscopy analysis suggested that HVPEF disintegrated the established biofilms by killing the embedded bacteria, but it hardly reduced the bacteria adhesion. HVPEF also effectively inhibit the formation of S. aureus biofilms, the effects varied with electric voltage, treatment time and biofilm culture conditions. The direct effect of HVPEF on planktonic S. aureus was a possible mode of biofilm formation inhibition. HVPEF also suppressed biofilm formation by reducing the release of key compositions of extracellular polymeric substance, including extracellular DNA (eDNA), protein and polysaccharide intercellular adhesion (PIA), and regulating the expression of biofilm formation related genes (icaA, ebh, cidA, sarA, icaR and sigB). We propose HVPEF as a novel method to inhibit bacteria biofilm, based on the results, HVPEF has positive effects to prevent biofilm-associated contamination of S. aureus.']</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>["'planktonic',", "'40000',", "'aureus',", "'biofilms']"]</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>'aureus',</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>["['hvpef',", "'uhph',", "'detachedcells',"]</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>High Voltage Pulsed Electric Field (HVPEF) and Ultra High Pressure Homogenization (UHPH) are advanced food processing technologies used to ensure microbial safety and extend shelf life by inactivating microorganisms. However, the presence of detached cells of Staphylococcus aureus, a pathogenic bacterium, poses a risk as these cells may be more resistant to such treatments, potentially leading to foodborne illness if not adequately controlled.</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>596_ar_outmost_silent_antibiotic</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0.0032595081456971</v>
-      </c>
-      <c r="C35" t="n">
-        <v>596</v>
-      </c>
-      <c r="D35" t="n">
-        <v>5</v>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['ar', 'outmost', 'silent', 'antibiotic', 'strengthen', 'addressing', 'antibioticresistant', 'face', 'mdr', 'multidrug']</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>['The prevalence of \nThis study highlights the need to strengthen the surveillance of antibiotic resistance of ', 'The spread of multidrug resistant (MDR) bacteria and resistance genes along the food chain and the environment has become a global, but silent pandemic. To face this challenge, it is of outmost importance to develop efficient strategies to reduce potential contamination by these agents. In the present study, 30 strains of ', "Antibiotic resistance (AR) represents a global concern for human health. To the best of the authors' knowledge, no study addressing AR in "]</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>["'strengthen',", "'antibioticresistant',", "'multidrug']"]</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>'antibioticresistant',</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>["['ar',", "'outmost',", "'silent',"]</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Antibiotic-resistant bacteria pose a significant risk to food safety by potentially contaminating silent and outmost areas of food production, leading to difficult-to-treat infections.</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>414_tps_cyclolinopeptides_antibacterial_1mso</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0.0025583444004455</v>
-      </c>
-      <c r="C36" t="n">
-        <v>414</v>
-      </c>
-      <c r="D36" t="n">
-        <v>6</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>['tps', 'cyclolinopeptides', 'antibacterial', '1mso', 'flaxseed', 'stressinducible', 'mgml', 'extracts', 'phenolics', 'preservatives']</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>['Foodborne bacterial pathogens in consumed foods are major food safety concerns worldwide, leading to serious illness and even death. An exciting strategy is to use novel phenolic compounds against bacterial pathogens based on recruiting the inducible metabolic responses of plant endogenous protective defense against biotic and abiotic stresses. Such stress-inducible phenolic metabolites have high potential to reduce bacterial contamination, and particularly improve safety of plant foods. The stimulation of plant protective response by inducing biosynthesis of stress-inducible phenolics with antimicrobial properties is among the safe and effective strategies that can be targeted for plant food safety and human gut health benefits. Metabolically driven elicitation with physical, chemical, and microbial elicitors has shown significant improvement in the biosynthesis of phenolic metabolites with antimicrobial properties in food and medicinal plants. Using the above rationale, this review focuses on current advances and relevance of metabolically driven elicitation strategies to enhance antimicrobial phenolics in plant food models for bacterial-linked food safety applications. Additionally, the specific objective of this review is to explore the potential role of redox-linked pentose phosphate pathway (PPP) regulation for enhancing biosynthesis of stress-inducible antibacterial phenolics in elicited plants, which are relevant for wider food safety and human health benefits.', 'Microbial pathogens, mainly bacteria, are a major cause of food spoilage resulting in several foodborne diseases. Food spoilage can be prevented by the application of chemical preservatives in the food industry but such process has harmful effects on human health and causes the introduction of chemicals in several food chains, leading to toxicity and long-term complications. Due to such adverse effects, the need to find natural preservatives that are safer to use, effective and less complicated is increasing.\nThis study is based on plant extracts that play a major role in microbicidal action (the use of natural preservatives is preferred over chemical ones). Antimicrobial action of different plant extracts was assessed using Staphylococcus aureus and Escherichia coli as experimental bacterial strains.\nEthanolic extracts of different plants like Punica granatum, Acacia catechu and Phyllanthus emblica were highly effective against the both analyzed bacterial strains at a dosage of 10 mg/mL, while the extracts of Ocimum bacilicum and Quercus infectoria were effective only against S. aureus and E. coli, respectively.\nPunica granatum and Phyllanthus emblica extracts were found to be the most effective and exhibited bacteriostatic and bactericidal activities against the highly infectious strains of pathogenic bacteria causing food spoilage, with minimum inhibitory concentration (MIC) of 2.5 mg/mL and minimum bactericidal concentration (MBC) of 5 mg/mL.\nThe plant extracts used in the study were highly effective in reducing bacterial contamination and can be used as an alternative to chemical preservatives to avoid and control foodborne diseases and for preservation of food with no health-related hazards caused by chemicals.', 'Food contamination by foodborne pathogens is still widespread in many countries around the world, and food safety is a major global public health issue. Therefore, novel preservatives that can guarantee safer food are in high demand. Contrary to artificial food preservatives, tea polyphenols (TPs) are getting wide attention as food additives for being "green," "safe," and "healthy." TPs come from many sources, and the purification technology is sophisticated. Compared with other natural antibacterial agents, the antibacterial effect of TPs is more stable, making them excellent natural antibacterial agents. This review includes a systematic summary of the important chemical components of TPs and the antibacterial mechanisms of TPs against various foodborne pathogens. The potential applications of TPs are also discussed. These data provide a theoretical basis for the in-depth study of TPs.']</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>["'mgml',"]</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>'mgml',</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>["['tps',", "'cyclolinopeptides',", "'antibacterial',"]</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Inadequate concentration of antibacterial agents such as cyclolinopeptides (measured in mg/ml) in food preservation can lead to insufficient microbial control and potential foodborne illnesses.</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>289_au_paraquat_nanomaterials_inhibition</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0.002954121656554</v>
-      </c>
-      <c r="C37" t="n">
-        <v>289</v>
-      </c>
-      <c r="D37" t="n">
-        <v>7</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>['au', 'paraquat', 'nanomaterials', 'inhibition', 'enzyme', 'ops', 'fluorometric', 'organophosphorus', 'aunps', 'colorimetric']</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>['The contamination of paraquat in vegetables is widely connected with human health risks, leading to the research interest in developing a paraquat sensing system. This work reports a simple detection method of paraquat based on the electrostatic interaction of paraquat and the negatively charged gold nanoparticles (AuNPs), resulting in the changes of colors from red to blue and the shifting of localized surface plasmon resonance (LSPR) peaks of AuNPs. The limit of detection concentration (C', 'Organophosphorus pesticides (OPs), as insecticides or acaricides, are widely used in agricultural products to ensure agricultural production. However, widespread use of OPs leads to environmental contamination and significant negative consequences on biodiversity, food security, and water resources. Therefore, developing a sensitive and rapid method to determine OPs residues in different matrices is necessary. Originally, the enzyme inhibition methods are often used as preliminary screens of OPs in crops. Many studies on the characteristic of Au nanomaterials have constantly been emerging in the past decade. Combined with anisotropic Au nanomaterials, enzyme inhibition methods have the advantages of high sensitivity, durability, and high stability.\nThis review aims to summarize the principles and strategies of gold (Au) nanomaterials in enzyme inhibition methods, including colorimetric (dispersion, particle size of Au nanomaterials) and fluorometric (fluorescence energy transfer, internal filtration effect) detection, and electrochemical sensing system (shape of Au nanomaterials, Au nanomaterials combined with other nanomaterials). The application of enzyme inhibition in agricultural products and research progress was also outlined. Next, this review illustrates the advantages of Au nanomaterial-based enzyme inhibition methods compared with conventional enzyme inhibition methods. The detection limits and linear range of colorimetric and fluorometric detection and electrochemical biosensors have also been provided. At last, key perspectives, trends, gaps, and future research directions are proposed.\nHerein, we introduced the technology of enzyme inhibition method based on Au nanomaterials for onsite and infield rapid detection of organophosphorus pesticide.', 'Organophosphorus pesticides (OPs), as insecticides or acaricides, are widely used in agricultural products to ensure agricultural production. However, widespread use of OPs leads to environmental contamination and significant negative consequences on biodiversity, food security, and water resources. Therefore, developing a sensitive and rapid method to determine OPs residues in different matrices is necessary. Originally, the enzyme inhibition methods are often used as preliminary screens of OPs in crops. Many studies on the characteristic of Au nanomaterials have constantly been emerging in the past decade. Combined with anisotropic Au nanomaterials, enzyme inhibition methods have the advantages of high sensitivity, durability, and high stability.\nThis review aims to summarize the principles and strategies of gold (Au) nanomaterials in enzyme inhibition methods, including colorimetric (dispersion, particle size of Au nanomaterials) and fluorometric (fluorescence energy transfer, internal filtration effect) detection, and electrochemical sensing system (shape of Au nanomaterials, Au nanomaterials combined with other nanomaterials). The application of enzyme inhibition in agricultural products and research progress was also outlined. Next, this review illustrates the advantages of Au nanomaterial-based enzyme inhibition methods compared with conventional enzyme inhibition methods. The detection limits and linear range of colorimetric and fluorometric detection and electrochemical biosensors have also been provided. At last, key perspectives, trends, gaps, and future research directions are proposed.\nHerein, we introduced the technology of enzyme inhibition method based on Au nanomaterials for onsite and infield rapid detection of organophosphorus pesticide.']</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>["'inhibition',"]</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>'inhibition',</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>["['au',", "'paraquat',", "'nanomaterials',"]</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>The topic of 'paraquat' and 'nanomaterials' suggests a focus on the use of certain chemicals and materials in agriculture or food production. The risk term 'inhibition' implies a concern about the potential inhibitory effects these substances might have.
-Output: The use of paraquat and nanomaterials in agriculture may pose a risk by inhibiting essential biological processes in plants or microorganisms, potentially leading to disrupted ecosystems and adverse effects on food safety.</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>911_bivalve_greek_warming_molluscs</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0.0049395516424272</v>
-      </c>
-      <c r="C38" t="n">
-        <v>911</v>
-      </c>
-      <c r="D38" t="n">
-        <v>3</v>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['bivalve', 'greek', 'warming', 'molluscs', 'oceanic', 'pathogeninfected', 'climate', 'microalgaes', 'alia', 'thermaikos']</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>['Seafood can vehiculate foodborne illnesses from water to humans. Climate changes, increasing water contamination and coastlines anthropization, favor the global spread of ', "Global warming affects the aquatic ecosystems, accelerating pathogenic microorganisms' and toxic microalgae's growth and spread in marine habitats, and in bivalve molluscs. New parasite invasions are directly linked to oceanic warming. Consumption of pathogen-infected molluscs impacts human health at different rates, depending, inter alia, on the bacteria taxa. It is therefore necessary to monitor microbiological and chemical contamination of food. Many global cases of poisoning from bivalve consumption can be traced back to Mediterranean regions. This article aims to examine the marine bivalve's infestation rate within the scope of climate change, as well as to evaluate the risk posed by climate change to bivalve welfare and public health. Biological and climatic data literature review was performed from international scientific sources, Greek authorities and State organizations. Focusing on Greek aquaculture and bivalve fisheries, high-risk index pathogenic parasites and microalgae were observed during summer months, particularly in Thermaikos Gulf. Considering the climate models that predict further temperature increases, it seems that marine organisms will be subjected in the long term to higher temperatures. Due to the positive linkage between temperature and microbial load, the marine areas most affected by this phenomenon are characterized as 'high risk' for consumer health.", "Global warming affects the aquatic ecosystems, accelerating pathogenic microorganisms' and toxic microalgae's growth and spread in marine habitats, and in bivalve molluscs. New parasite invasions are directly linked to oceanic warming. Consumption of pathogen-infected molluscs impacts human health at different rates, depending, inter alia, on the bacteria taxa. It is therefore necessary to monitor microbiological and chemical contamination of food. Many global cases of poisoning from bivalve consumption can be traced back to Mediterranean regions. This article aims to examine the marine bivalve's infestation rate within the scope of climate change, as well as to evaluate the risk posed by climate change to bivalve welfare and public health. Biological and climatic data literature review was performed from international scientific sources, Greek authorities and State organizations. Focusing on Greek aquaculture and bivalve fisheries, high-risk index pathogenic parasites and microalgae were observed during summer months, particularly in Thermaikos Gulf. Considering the climate models that predict further temperature increases, it seems that marine organisms will be subjected in the long term to higher temperatures. Due to the positive linkage between temperature and microbial load, the marine areas most affected by this phenomenon are characterized as 'high risk' for consumer health."]</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>'pathogeninfected',</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>["['bivalve',", "'greek',", "'warming',"]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Climate change and increasing sea temperatures can lead to the proliferation of pathogen-infected bivalves, posing significant health risks to consumers, particularly in regions like Greece where bivalve consumption is common.</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>885_3d_printing_printed_ink</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0.0049395516424272</v>
-      </c>
-      <c r="C39" t="n">
-        <v>885</v>
-      </c>
-      <c r="D39" t="n">
-        <v>3</v>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['3d', 'printing', 'printed', 'ink', 'printability', 'inks', 'impacting', 'standardizing', 'printers', 'healthiness']</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>['Three-dimensional (3D) printing, as an emerging technology, is driving great progress in the food industry. In the meat field, 3D printing is expected to replace the traditional food industry and solve the problems of raw material waste and food contamination. Nevertheless, the application of 3D printing in meat still faces many challenges. The rheological properties of the ink, such as shear thinning behavior, viscosity, and yield stress, are critical in determining whether it can be printed smoothly and ensuring the quality of the product. Meat materials are complex multi-phase colloidal systems with unique fibrous structures that cannot be printed directly, and improving the printability of meat colloids mainly limits meat printing. The complexity of meat colloidal systems determines the different heat requirements. In addition, at this stage, the functionality of the printer and the formulation of a single nutritional and organoleptic properties limit the implementation and application of 3D printing. Moreover, the development of cultured meat, the full application of by-products, and the emergence of new technologies provides opportunities for the application of 3D printing in the meat industry. This review highlights the current challenges and opportunities for the application of 3D printing in meat to provide new ideas for the development of 3D printing.', '3D printing has numerous applications in the food industry that may enhance diversity, quality, healthiness, and sustainability. This innovative additive manufacturing technology has the ability to specifically tailor food properties for individuals. Nevertheless, several challenges still need to be overcome before 3D printing can be utilized more widely in the food industry. This article focuses on the development and characterization of "food inks" suitable for 3D printing of foods. Specifically, the main factors impacting successfully printed foods are highlighted, including material properties and printing parameters. The creation of a 3D printed food with the appropriate quality and functional attributes requires understanding and control of these factors. Food ink printability is an especially important factor that depends on their composition, structure, and physicochemical properties. Previous studies do not sufficiently describe the precise design and operation of 3D printers in sufficient detail, which makes comparing results challenging. Additionally, important physicochemical characteristics utilized in traditional food are not consistently reported in 3D inks, such as moisture content, water activity, and microbial contamination, which limits the practical application of the results. For this reason, we highlight important factors impacting 3D ink formulation and performance, then provide suggestions for standardizing and optimizing 3D printed foods.', '3D printing has numerous applications in the food industry that may enhance diversity, quality, healthiness, and sustainability. This innovative additive manufacturing technology has the ability to specifically tailor food properties for individuals. Nevertheless, several challenges still need to be overcome before 3D printing can be utilized more widely in the food industry. This article focuses on the development and characterization of "food inks" suitable for 3D printing of foods. Specifically, the main factors impacting successfully printed foods are highlighted, including material properties and printing parameters. The creation of a 3D printed food with the appropriate quality and functional attributes requires understanding and control of these factors. Food ink printability is an especially important factor that depends on their composition, structure, and physicochemical properties. Previous studies do not sufficiently describe the precise design and operation of 3D printers in sufficient detail, which makes comparing results challenging. Additionally, important physicochemical characteristics utilized in traditional food are not consistently reported in 3D inks, such as moisture content, water activity, and microbial contamination, which limits the practical application of the results. For this reason, we highlight important factors impacting 3D ink formulation and performance, then provide suggestions for standardizing and optimizing 3D printed foods.']</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>["'impacting',", "'standardizing',", "'healthiness']"]</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>'standardizing',</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>["['3d',", "'printing',", "'printed',"]</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>The lack of standardized regulations and protocols for 3D printed food could pose significant food safety risks, such as contamination and inconsistent quality, due to variability in printing methods and materials used.</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>895_blockchain_supply_framework_origins</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0.0028386454183266</v>
-      </c>
-      <c r="C40" t="n">
-        <v>895</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['blockchain', 'supply', 'framework', 'origins', 'blockchainenabled', 'contracts', 'dairy', 'decentralized', 'platform', 'traceability']</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>["Increasing global and domestic food trade and required logistics create uncertainties in food safety inspection due to uncertainties in food origins and extensive trade activities. Modern blockchain techniques have been developed to inform consumers of food origins but do not provide food safety information in many cases. A novel food safety tracking and modeling framework for quantifying toxic chemical levels in the food and the food origins was developed. By integrating chemicals' multimedia environment exchange, food web, and source tracking systems, the framework was implemented to identify short-chain chlorinated paraffin (SCCP) contamination of fresh hairtail fish sold by a Walmart supermarket in Xi'an, northwestern China, and sourced in Eastern China Sea coastal waters. The framework was shown to successfully predict SCCP level with a mean of 17.8 ng g", 'Conventional food supply chains are centralized in nature and possess challenges pertaining to a single point of failure, product irregularities, quality compromises, and loss of data. Numerous cases of food fraud, contamination, and adulteration are daily reported from multiple parts of India, suggesting the absolute need for an upgraded decentralized supply chain model. A country such as India, where its biggest strength is its demographic dividend, cannot afford to malnutrition a large population of its children by allowing them to consume contaminated and adulterated dairy products. In view of the gravity of the situation, we propose a blockchain-enabled supply chain platform for the dairy industry. With respect to the supply chain platform, the dairy products of choice include milk, cheese, and butter. Blockchain is one of the fastest growing technologies having widespread acceptance across multiple industry verticals. Blockchain possesses the power to transform traditional supply chains into decentralized, robust, transparent, tamper proof, and sustainable supply chains. The proposed supply chain platform goes beyond the aspect of food traceability and focuses on maintaining the nutritional values of dairy products, identification of adulteration and contamination in dairy products, the increasing economic viability of running a dairy farm, preventing counterfeit dairy products, and enhancing the revenue of the dairy company. The paper collates the mentioned functionalities into four distinct impact dimensions: social, economic, operations, and sustainability. The proposed blockchain-enabled dairy supply chain platform combines the use of smart contracts, quick response code (QR code) technology, and IoT and has the potential to redefine the dairy supply chains on socio-economic, operational, and sustainability parameters.', 'The increasing number of rice product safety issues and the potential for contamination have established an enormous need for an effective strategy for the traceability of the rice supply chain. Tracing the origins of a rice product from raw materials to end customers is very complex and costly. Existing food supply chain methods (for example, rice) do not provide a scalable and cost-effective means of agricultural food supply. Besides, consumers lack the capability and resources required to check or report on the quality of agricultural goods in terms of defects or contamination. Consequently, customers are forced to decide whether to utilize or discard the goods. However, blockchain is an innovative framework capable of offering a transformative solution for the traceability of agricultural products and food supply chains. The aim of this paper is to propose a framework capable of tracking and monitoring all interactions and transactions between all stakeholders in the rice chain ecosystem through smart contracts. The model incorporates a system for customer satisfaction feedback, which enables all stakeholders to get up-to-date information on product quality, enabling them to make more informed supply chain decisions. Each transaction is documented and stored in the public ledger of the blockchain. The proposed framework provides a safe, efficient, reliable, and effective way to monitor and track rice products safety and quality especially during product purchasing. The security and performance analysis results shows that the proposed framework outperform the benchmark techniques in terms of cost-effectiveness, security and scalability with low computational overhead.']</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>'dairy',</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>["['blockchain',", "'supply',", "'framework',"]</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>The integration of blockchain technology into the supply chain framework for dairy products can help mitigate risks related to traceability, contamination, and fraud, ensuring the safety and authenticity of dairy items from farm to table.</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>877_proteins_spiders_expression_montrouzieri</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>0.0054807459214334</v>
-      </c>
-      <c r="C41" t="n">
-        <v>877</v>
-      </c>
-      <c r="D41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['proteins', 'spiders', 'expression', 'montrouzieri', 'hemolymph', 'hc', 'grossa', 'gchaincontaining', 'immunostimulation', 'theridiidae']</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>['Ants easily accumulate cadmium (Cd) from the food web in terrestrial ecosystems. Cd contamination may cause olfactory dysfunction and consequently disorders in the social behavior of ants. To explore the molecular mechanism underlying the effect of Cd exposure on the chemosensory process of ants, we characterized the Cd-induced variations in the expression of genes involved in chemoreception and electrophysiological and behavioral sensitivity to semiochemicals by using the red imported fire ant, ', 'Contamination of agro-ecosystems with heavy metals can affect the development and reproduction of insect natural enemies. This study reports a detailed Tandem Mass Tag based quantitative proteomic analysis of underlying mechanisms responsible for stress response of Cryptolaemus montrouzieri against heavy metals (cadmium (Cd) and lead (Pb)) transported across a multi-trophic food chain. A total of 6639 proteins were detected under Cd as well as Pb stress. In Pb versus the control cluster, 69 proteins (28 up-regulated and 41 down-regulated) were differentially expressed whereas 268 proteins were differentially expressed under Cd versus the control cluster, having 198 proteins up-regulated and 70 down-regulated proteins. The analysis of differentially expressed proteins showed that 27 proteins overlapped in both clusters representing the core proteome to Pb and Cd stress. The bioinformatics analysis demonstrated that these proteins were mapped to 57 and 99 pathways in Pb versus control and Cd versus control clusters, respectively. The functional classification by COG, GO and KEGG databases showed significant changes in protein expression by C. montrouzieri under Pb and Cd stress. The heavy metal stress (Pb and Cd) induced significant changes in expression of proteins like hexokinase (HK), succinyl-CoA, trypsin like proteins, cysteine proteases, cell division cycle proteins, and yellow gene proteins. The results provide detailed information on the protein expression levels of C. montrouzieri and will serve as basic information for future proteomic studies on heavy metal responses of insect predators within a multi-trophic food chain.', 'The aim of this study was to evaluate the quantitative and qualitative changes in the proteome of the hemolymph of female Steatoda grossa spiders (Theridiidae) that were chronically exposed to cadmium and copper in food and were additionally immunostimulated (phorbol 12-myristate 13-acetate (PMA); bacterial suspensions: Staphylococcus aureus (G+), Pseudomonas fluorescens (G-). It was found that the expression of nearly 90 proteins was altered in cadmium-intoxicated spiders and more than 60 in copper-exposed individuals. Regardless of the type of metal used, these proteins were mainly overexpressed in the hemolymph of the exposed spiders. On the other hand, immunostimulation did not significantly change the number of proteins with altered expression in metal-intoxicated individuals. Hemocyanin (Hc) was found to be the most abundant of the proteins identified with altered expression. In copper-intoxicated spiders, immunostimulation increased the expression of A-, E-, F-, and G-chain-containing proteins, while in the case of cadmium-intoxicates spiders, it decreased the expression of E- and A-chain-containing Hc and increased the expression of G-chain-containing Hc. Regardless of the type of metal and immunostimulant used, there was an increase in the expression of actin. In addition, cadmium increased the expression of cullin, vimentin, and ceruloplasmin. The changes observed in the expression of hemolymph proteins indicate their protective function in S. grossa (Theridiidae) spiders under conditions of metal exposure.']</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>["'montrouzieri',", "'hc',"]</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>'montrouzieri',</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
           <t>["['proteins',", "'spiders',", "'expression',"]</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>The presence of Rodolia montrouzieri, a predatory beetle, could potentially contaminate food products with proteins expressed by spiders, posing a risk of allergenic reactions or foodborne illnesses due to cross-contamination in food processing environments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>1013_23000_nations_annually_morbidity</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>0.003875472607006</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1013</v>
-      </c>
-      <c r="D42" t="n">
-        <v>2</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['23000', 'nations', 'annually', 'morbidity', 'mortality', 'approximately', 'illnesses', 'poisoning', 'developing', 'leading']</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>['Annually, approximately 23,000 cases of food poisoning by ', 'Foodborne illnesses are leading source of morbidity and mortality in both developed and developing nations. ']</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>["'morbidity',", "'poisoning',", "'developing',", "'leading']"]</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>'poisoning',</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>["['23000',", "'nations',", "'annually',"]</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Annually, over 23,000 deaths occur across various nations due to food poisoning, highlighting the critical need for stringent food safety measures worldwide.</t>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>The presence of proteins from spiders expressed in organisms like Harmonia axyridis (montrouzieri) or in healthcare (hc) settings could lead to potential allergic reactions or unintended ecological impacts if not properly managed.</t>
         </is>
       </c>
     </row>
